--- a/KGS/KGS.xlsx
+++ b/KGS/KGS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALEX\Programming\dotfiles\KGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\dotfiles\KGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAE89008-2DC0-4E85-A553-27CBE67F6A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B00C81-34DA-40F8-B2C4-6385236AD665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D273C349-3FD2-4362-B0B1-9863D35FF8F5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{D273C349-3FD2-4362-B0B1-9863D35FF8F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -540,19 +540,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">| smb-os-discovery: 
-|   OS: Unix (Samba 3.6.25)
-|   NetBIOS computer name: 
-|   Workgroup: IKS\x00
-|_  System time: 2021-08-18T08:57:10+02:00
-| smb-security-mode: 
-|   account_used: guest
-|   authentication_level: share (dangerous)
-|   challenge_response: supported
-|_  message_signing: disabled (dangerous, but default)
-</t>
-  </si>
-  <si>
     <t>172.29.168.130</t>
   </si>
   <si>
@@ -1131,12 +1118,38 @@
   <si>
     <t>172.29.212.28</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| smb-os-discovery: 
+|   OS: Unix (Samba 3.6.25)
+|   NetBIOS computer name: 
+|   Workgroup: IKS\x00
+|_  System time: 2021-08-18T08:57:10+02:00
+| smb-security-mode: 
+|   account_used: guest
+|   authentication_level: share (dangerous)
+|   challenge_response: supported
+|_  message_signing: disabled (dangerous, but default)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! public folder dumped ! -&gt; dumps\IKS</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1167,8 +1180,16 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1241,6 +1262,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1254,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1326,14 +1353,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1358,7 +1391,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1656,46 +1689,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D700B811-19C1-4D29-9B56-CDF0AB18693E}">
   <dimension ref="A1:W544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:A118"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="11"/>
-    <col min="5" max="5" width="15.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="1.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.140625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="1.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="8" customWidth="1"/>
-    <col min="14" max="15" width="19.42578125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="8"/>
-    <col min="17" max="17" width="17.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.265625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="11"/>
+    <col min="5" max="5" width="15.59765625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="35.59765625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="34.265625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="1.265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.1328125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="1.265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.3984375" style="8" customWidth="1"/>
+    <col min="14" max="15" width="19.3984375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="11.3984375" style="8"/>
+    <col min="17" max="17" width="17.265625" style="8" customWidth="1"/>
     <col min="18" max="18" width="37" style="10" customWidth="1"/>
     <col min="19" max="19" width="24" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" style="20" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" style="20" customWidth="1"/>
-    <col min="22" max="22" width="19.85546875" style="20" customWidth="1"/>
-    <col min="23" max="23" width="29.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="21.86328125" style="20" customWidth="1"/>
+    <col min="21" max="21" width="12.3984375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="19.86328125" style="20" customWidth="1"/>
+    <col min="23" max="23" width="29.86328125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1718,7 +1751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
@@ -1750,7 +1783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="14"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1779,7 +1812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="14"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1805,7 +1838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1831,7 +1864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1855,7 +1888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="315">
+    <row r="8" spans="1:11" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1884,7 +1917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1913,7 +1946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30">
+    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>25</v>
       </c>
@@ -1945,7 +1978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1971,7 +2004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="165">
+    <row r="12" spans="1:11" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1998,7 +2031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>32</v>
       </c>
@@ -2030,7 +2063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="15"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2056,7 +2089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="15"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2082,7 +2115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="45">
+    <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="15"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2108,7 +2141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
@@ -2140,7 +2173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="13"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2166,7 +2199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="45">
+    <row r="19" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="13"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2199,7 +2232,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="409.6">
+    <row r="20" spans="1:19" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A20" s="13"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2235,7 +2268,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2268,7 +2301,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
@@ -2307,7 +2340,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="16"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2340,7 +2373,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="16"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2373,7 +2406,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="16"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2406,7 +2439,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="165">
+    <row r="26" spans="1:19" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A26" s="16"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2442,7 +2475,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="16"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2469,7 +2502,7 @@
       </c>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
         <v>55</v>
       </c>
@@ -2502,7 +2535,7 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="17"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2529,7 +2562,7 @@
       </c>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="17"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2556,7 +2589,7 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="120">
+    <row r="31" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2586,7 +2619,7 @@
       </c>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="17"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2611,7 +2644,7 @@
       </c>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="17"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2638,7 +2671,7 @@
       </c>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="17"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2665,7 +2698,7 @@
       </c>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="21" t="s">
         <v>65</v>
       </c>
@@ -2698,7 +2731,7 @@
       </c>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" ht="30">
+    <row r="36" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="21"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2726,7 +2759,7 @@
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="21"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2753,7 +2786,7 @@
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="21"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2780,7 +2813,7 @@
       </c>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" ht="405">
+    <row r="39" spans="1:18" ht="384.75" x14ac:dyDescent="0.45">
       <c r="A39" s="21"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2810,7 +2843,7 @@
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="21"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2837,7 +2870,7 @@
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" ht="409.6">
+    <row r="41" spans="1:18" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A41" s="21"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2865,7 +2898,7 @@
       </c>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" ht="45">
+    <row r="42" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="21"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2892,7 +2925,7 @@
       </c>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
         <v>78</v>
       </c>
@@ -2923,7 +2956,7 @@
       </c>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2948,7 +2981,7 @@
       </c>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2973,7 +3006,7 @@
       </c>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -2998,7 +3031,7 @@
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -3023,7 +3056,7 @@
       </c>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -3048,7 +3081,7 @@
       </c>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
         <v>82</v>
       </c>
@@ -3084,7 +3117,7 @@
       </c>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -3109,7 +3142,7 @@
       </c>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -3136,7 +3169,7 @@
       </c>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="1:22" ht="30">
+    <row r="52" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -3163,7 +3196,7 @@
       </c>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -3188,7 +3221,7 @@
       </c>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -3213,7 +3246,7 @@
       </c>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" spans="1:22" ht="30">
+    <row r="55" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -3240,7 +3273,7 @@
       </c>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" s="22" t="s">
         <v>89</v>
       </c>
@@ -3272,7 +3305,7 @@
       <c r="M56" s="23"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" s="22"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -3300,7 +3333,7 @@
       <c r="M57" s="24"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" s="22"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -3328,7 +3361,7 @@
       <c r="M58" s="24"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" s="22"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -3356,7 +3389,7 @@
       <c r="M59" s="24"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" s="29"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3372,7 +3405,7 @@
       <c r="M60" s="24"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" s="22"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -3400,7 +3433,7 @@
       <c r="M61" s="24"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" s="22"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -3426,7 +3459,7 @@
       <c r="R62" s="3"/>
       <c r="V62" s="25"/>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" s="22"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -3454,7 +3487,7 @@
       <c r="M63" s="24"/>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" spans="1:22" ht="30">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" s="22"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -3482,7 +3515,7 @@
       <c r="M64" s="24"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" s="22"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -3498,7 +3531,7 @@
       <c r="M65" s="24"/>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66" s="22"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -3523,7 +3556,7 @@
       <c r="M66" s="24"/>
       <c r="S66" s="26"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67" s="22"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -3553,7 +3586,7 @@
       </c>
       <c r="M67" s="24"/>
     </row>
-    <row r="68" spans="1:21" ht="30">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68" s="22"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -3579,7 +3612,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69" s="22"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -3603,7 +3636,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70" s="22"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -3619,7 +3652,7 @@
       <c r="M70" s="24"/>
       <c r="R70" s="3"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71" s="22"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -3647,7 +3680,7 @@
       <c r="M71" s="24"/>
       <c r="R71" s="3"/>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72" s="22"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3675,7 +3708,7 @@
       <c r="M72" s="24"/>
       <c r="R72" s="3"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73" s="22"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -3702,7 +3735,7 @@
       <c r="R73" s="3"/>
       <c r="U73" s="27"/>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74" s="29"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3719,7 +3752,7 @@
       <c r="R74" s="3"/>
       <c r="U74" s="27"/>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75" s="29"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -3736,7 +3769,7 @@
       <c r="R75" s="3"/>
       <c r="U75" s="27"/>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76" s="22"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -3762,7 +3795,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77" s="14" t="s">
         <v>119</v>
       </c>
@@ -3790,7 +3823,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A78" s="14"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -3816,7 +3849,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="75">
+    <row r="79" spans="1:21" ht="57" x14ac:dyDescent="0.45">
       <c r="A79" s="14"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -3845,7 +3878,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A80" s="14"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -3869,7 +3902,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A81" s="21" t="s">
         <v>125</v>
       </c>
@@ -3900,7 +3933,7 @@
       </c>
       <c r="R81" s="3"/>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A82" s="21"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -3927,7 +3960,7 @@
       </c>
       <c r="R82" s="3"/>
     </row>
-    <row r="83" spans="1:18" ht="120">
+    <row r="83" spans="1:18" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A83" s="21"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -3957,7 +3990,7 @@
       </c>
       <c r="R83" s="3"/>
     </row>
-    <row r="84" spans="1:18" ht="285">
+    <row r="84" spans="1:18" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A84" s="21"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -3987,7 +4020,7 @@
       </c>
       <c r="R84" s="3"/>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A85" s="21"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -4012,21 +4045,21 @@
       </c>
       <c r="R85" s="3"/>
     </row>
-    <row r="86" spans="1:18" ht="210">
+    <row r="86" spans="1:18" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A86" s="21"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9">
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34">
         <v>445</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="G86" s="11" t="s">
-        <v>130</v>
+      <c r="G86" s="35" t="s">
+        <v>318</v>
       </c>
       <c r="H86" s="2">
         <v>172</v>
@@ -4042,12 +4075,12 @@
       </c>
       <c r="R86" s="3"/>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A87" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9">
@@ -4073,7 +4106,7 @@
       </c>
       <c r="R87" s="3"/>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -4084,7 +4117,7 @@
         <v>121</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H88" s="2">
         <v>172</v>
@@ -4100,7 +4133,7 @@
       </c>
       <c r="R88" s="3"/>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -4108,7 +4141,7 @@
         <v>49153</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F89" s="11"/>
       <c r="H89" s="2">
@@ -4125,24 +4158,24 @@
       </c>
       <c r="R89" s="3"/>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R90" s="3"/>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R91" s="3"/>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R92" s="3"/>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R93" s="3"/>
     </row>
-    <row r="94" spans="1:18" ht="30">
+    <row r="94" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>84</v>
@@ -4154,7 +4187,7 @@
         <v>28</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H94" s="2">
         <v>172</v>
@@ -4170,7 +4203,7 @@
       </c>
       <c r="R94" s="3"/>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A95" s="13"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -4178,7 +4211,7 @@
         <v>53</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F95" s="11"/>
       <c r="H95" s="2">
@@ -4195,7 +4228,7 @@
       </c>
       <c r="R95" s="3"/>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A96" s="13"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -4206,10 +4239,10 @@
         <v>13</v>
       </c>
       <c r="F96" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G96" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="H96" s="2">
         <v>172</v>
@@ -4225,7 +4258,7 @@
       </c>
       <c r="R96" s="3"/>
     </row>
-    <row r="97" spans="1:18" ht="30">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A97" s="13"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -4233,10 +4266,10 @@
         <v>5900</v>
       </c>
       <c r="E97" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F97" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="H97" s="2">
         <v>172</v>
@@ -4252,7 +4285,7 @@
       </c>
       <c r="R97" s="3"/>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A98" s="13"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -4260,7 +4293,7 @@
         <v>7070</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F98" s="11"/>
       <c r="H98" s="2">
@@ -4277,12 +4310,12 @@
       </c>
       <c r="R98" s="3"/>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A99" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9">
@@ -4308,7 +4341,7 @@
       </c>
       <c r="R99" s="3"/>
     </row>
-    <row r="100" spans="1:18" ht="30">
+    <row r="100" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A100" s="21"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -4319,7 +4352,7 @@
         <v>13</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H100" s="2">
         <v>172</v>
@@ -4335,7 +4368,7 @@
       </c>
       <c r="R100" s="3"/>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A101" s="21"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -4362,7 +4395,7 @@
       </c>
       <c r="R101" s="3"/>
     </row>
-    <row r="102" spans="1:18" ht="30">
+    <row r="102" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A102" s="21"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -4373,7 +4406,7 @@
         <v>18</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H102" s="2">
         <v>172</v>
@@ -4389,7 +4422,7 @@
       </c>
       <c r="R102" s="3"/>
     </row>
-    <row r="103" spans="1:18" ht="30">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A103" s="21"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -4400,7 +4433,7 @@
         <v>88</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H103" s="2">
         <v>172</v>
@@ -4416,7 +4449,7 @@
       </c>
       <c r="R103" s="3"/>
     </row>
-    <row r="104" spans="1:18" ht="30">
+    <row r="104" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A104" s="21"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -4427,7 +4460,7 @@
         <v>13</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H104" s="2">
         <v>172</v>
@@ -4443,12 +4476,12 @@
       </c>
       <c r="R104" s="3"/>
     </row>
-    <row r="105" spans="1:18" ht="30">
+    <row r="105" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A105" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9">
@@ -4458,7 +4491,7 @@
         <v>28</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H105" s="2">
         <v>172</v>
@@ -4474,7 +4507,7 @@
       </c>
       <c r="R105" s="3"/>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A106" s="16"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -4501,7 +4534,7 @@
       </c>
       <c r="R106" s="3"/>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A107" s="16"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -4512,7 +4545,7 @@
         <v>13</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H107" s="2">
         <v>172</v>
@@ -4528,7 +4561,7 @@
       </c>
       <c r="R107" s="3"/>
     </row>
-    <row r="108" spans="1:18" ht="180">
+    <row r="108" spans="1:18" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A108" s="16"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -4542,7 +4575,7 @@
         <v>43</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H108" s="2">
         <v>172</v>
@@ -4558,7 +4591,7 @@
       </c>
       <c r="R108" s="3"/>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A109" s="16"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -4569,10 +4602,10 @@
         <v>18</v>
       </c>
       <c r="F109" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G109" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="H109" s="2">
         <v>172</v>
@@ -4588,7 +4621,7 @@
       </c>
       <c r="R109" s="3"/>
     </row>
-    <row r="110" spans="1:18" ht="105">
+    <row r="110" spans="1:18" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A110" s="16"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -4599,10 +4632,10 @@
         <v>18</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H110" s="2">
         <v>172</v>
@@ -4618,7 +4651,7 @@
       </c>
       <c r="R110" s="3"/>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A111" s="16"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -4629,14 +4662,14 @@
         <v>13</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R111" s="3"/>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A112" s="16"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -4647,16 +4680,16 @@
         <v>13</v>
       </c>
       <c r="F112" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G112" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="G112" s="12" t="s">
+      <c r="R112" s="3"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A113" s="31" t="s">
         <v>159</v>
-      </c>
-      <c r="R112" s="3"/>
-    </row>
-    <row r="113" spans="1:18">
-      <c r="A113" s="33" t="s">
-        <v>160</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9" t="s">
@@ -4685,8 +4718,8 @@
       </c>
       <c r="R113" s="3"/>
     </row>
-    <row r="114" spans="1:18">
-      <c r="A114" s="33"/>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A114" s="31"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9">
@@ -4712,8 +4745,8 @@
       </c>
       <c r="R114" s="3"/>
     </row>
-    <row r="115" spans="1:18">
-      <c r="A115" s="33"/>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A115" s="31"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9">
@@ -4739,8 +4772,8 @@
       </c>
       <c r="R115" s="3"/>
     </row>
-    <row r="116" spans="1:18">
-      <c r="A116" s="33"/>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A116" s="31"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9">
@@ -4766,8 +4799,8 @@
       </c>
       <c r="R116" s="3"/>
     </row>
-    <row r="117" spans="1:18">
-      <c r="A117" s="33"/>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A117" s="31"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9">
@@ -4791,8 +4824,8 @@
       </c>
       <c r="R117" s="3"/>
     </row>
-    <row r="118" spans="1:18">
-      <c r="A118" s="33"/>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A118" s="31"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9">
@@ -4818,50 +4851,50 @@
       </c>
       <c r="R118" s="3"/>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R119" s="3"/>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R120" s="3"/>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
       <c r="J121" s="19"/>
       <c r="K121" s="19"/>
       <c r="R121" s="3"/>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
       <c r="J122" s="19"/>
       <c r="K122" s="19"/>
       <c r="R122" s="3"/>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
       <c r="J123" s="19"/>
       <c r="K123" s="19"/>
       <c r="R123" s="3"/>
     </row>
-    <row r="124" spans="1:18">
-      <c r="A124" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="32"/>
-      <c r="G124" s="32"/>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A124" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
       <c r="J124" s="19"/>
       <c r="K124" s="19"/>
       <c r="R124" s="3"/>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A125" s="7" t="s">
         <v>1</v>
       </c>
@@ -4889,12 +4922,12 @@
       <c r="K125" s="19"/>
       <c r="R125" s="3"/>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A126" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>27</v>
@@ -4923,7 +4956,7 @@
       </c>
       <c r="R126" s="3"/>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4949,9 +4982,9 @@
       </c>
       <c r="R127" s="3"/>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A128" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128"/>
@@ -4977,12 +5010,12 @@
       </c>
       <c r="R128" s="3"/>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A129" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>27</v>
@@ -5010,7 +5043,7 @@
       </c>
       <c r="R129" s="3"/>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -5035,12 +5068,12 @@
       </c>
       <c r="R130" s="3"/>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A131" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9">
@@ -5066,12 +5099,12 @@
       </c>
       <c r="R131" s="3"/>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A132" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9">
@@ -5097,12 +5130,12 @@
       </c>
       <c r="R132" s="3"/>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A133" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9">
@@ -5128,7 +5161,7 @@
       </c>
       <c r="R133" s="3"/>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -5153,12 +5186,12 @@
       </c>
       <c r="R134" s="3"/>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A135" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9">
@@ -5184,7 +5217,7 @@
       </c>
       <c r="R135" s="3"/>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -5209,12 +5242,12 @@
       </c>
       <c r="R136" s="3"/>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A137" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9">
@@ -5240,7 +5273,7 @@
       </c>
       <c r="R137" s="3"/>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -5265,12 +5298,12 @@
       </c>
       <c r="R138" s="3"/>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A139" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>27</v>
@@ -5282,7 +5315,7 @@
         <v>28</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H139" s="2">
         <v>172</v>
@@ -5298,7 +5331,7 @@
       </c>
       <c r="R139" s="3"/>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -5325,7 +5358,7 @@
       </c>
       <c r="R140" s="3"/>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -5350,7 +5383,7 @@
       </c>
       <c r="R141" s="3"/>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -5358,7 +5391,7 @@
         <v>6000</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F142" s="11"/>
       <c r="H142" s="2">
@@ -5375,7 +5408,7 @@
       </c>
       <c r="R142" s="3"/>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -5383,7 +5416,7 @@
         <v>6001</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F143" s="11"/>
       <c r="H143" s="2">
@@ -5400,9 +5433,9 @@
       </c>
       <c r="R143" s="3"/>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A144" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -5429,7 +5462,7 @@
       </c>
       <c r="R144" s="3"/>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -5454,9 +5487,9 @@
       </c>
       <c r="R145" s="3"/>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A146" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -5483,9 +5516,9 @@
       </c>
       <c r="R146" s="3"/>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A147" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -5512,7 +5545,7 @@
       </c>
       <c r="R147" s="3"/>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -5537,9 +5570,9 @@
       </c>
       <c r="R148" s="3"/>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A149" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -5566,7 +5599,7 @@
       </c>
       <c r="R149" s="3"/>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -5591,9 +5624,9 @@
       </c>
       <c r="R150" s="3"/>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A151" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -5620,7 +5653,7 @@
       </c>
       <c r="R151" s="3"/>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -5645,9 +5678,9 @@
       </c>
       <c r="R152" s="3"/>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A153" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -5674,12 +5707,12 @@
       </c>
       <c r="R153" s="3"/>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A154" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9">
@@ -5705,7 +5738,7 @@
       </c>
       <c r="R154" s="3"/>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -5730,12 +5763,12 @@
       </c>
       <c r="R155" s="3"/>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A156" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9">
@@ -5761,7 +5794,7 @@
       </c>
       <c r="R156" s="3"/>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -5769,10 +5802,10 @@
         <v>80</v>
       </c>
       <c r="E157" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F157" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="H157" s="2">
         <v>172</v>
@@ -5788,7 +5821,7 @@
       </c>
       <c r="R157" s="3"/>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -5813,7 +5846,7 @@
       </c>
       <c r="R158" s="3"/>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -5821,7 +5854,7 @@
         <v>443</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F159" s="11"/>
       <c r="H159" s="2">
@@ -5838,7 +5871,7 @@
       </c>
       <c r="R159" s="3"/>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -5846,7 +5879,7 @@
         <v>515</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F160" s="11"/>
       <c r="H160" s="2">
@@ -5863,7 +5896,7 @@
       </c>
       <c r="R160" s="3"/>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -5871,10 +5904,10 @@
         <v>631</v>
       </c>
       <c r="E161" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F161" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="F161" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="H161" s="2">
         <v>172</v>
@@ -5890,7 +5923,7 @@
       </c>
       <c r="R161" s="3"/>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -5898,10 +5931,10 @@
         <v>8080</v>
       </c>
       <c r="E162" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F162" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="F162" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="H162" s="2">
         <v>172</v>
@@ -5917,9 +5950,9 @@
       </c>
       <c r="R162" s="3"/>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A163" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -5946,7 +5979,7 @@
       </c>
       <c r="R163" s="3"/>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -5971,9 +6004,9 @@
       </c>
       <c r="R164" s="3"/>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A165" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -6000,7 +6033,7 @@
       </c>
       <c r="R165" s="3"/>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -6025,9 +6058,9 @@
       </c>
       <c r="R166" s="3"/>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A167" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -6054,12 +6087,12 @@
       </c>
       <c r="R167" s="3"/>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A168" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9">
@@ -6085,7 +6118,7 @@
       </c>
       <c r="R168" s="3"/>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -6093,7 +6126,7 @@
         <v>80</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F169" s="11"/>
       <c r="H169" s="2">
@@ -6110,7 +6143,7 @@
       </c>
       <c r="R169" s="3"/>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -6135,7 +6168,7 @@
       </c>
       <c r="R170" s="3"/>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -6143,7 +6176,7 @@
         <v>427</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F171" s="11"/>
       <c r="H171" s="2">
@@ -6160,7 +6193,7 @@
       </c>
       <c r="R171" s="3"/>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -6168,7 +6201,7 @@
         <v>443</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F172" s="11"/>
       <c r="H172" s="2">
@@ -6185,7 +6218,7 @@
       </c>
       <c r="R172" s="3"/>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -6193,7 +6226,7 @@
         <v>631</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F173" s="11"/>
       <c r="H173" s="2">
@@ -6210,7 +6243,7 @@
       </c>
       <c r="R173" s="3"/>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -6218,7 +6251,7 @@
         <v>9100</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F174" s="11"/>
       <c r="H174" s="2">
@@ -6235,12 +6268,12 @@
       </c>
       <c r="R174" s="3"/>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A175" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B175" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>27</v>
@@ -6266,7 +6299,7 @@
       </c>
       <c r="R175" s="3"/>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -6293,7 +6326,7 @@
       </c>
       <c r="R176" s="3"/>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -6304,7 +6337,7 @@
         <v>13</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H177" s="2">
         <v>172</v>
@@ -6320,7 +6353,7 @@
       </c>
       <c r="R177" s="3"/>
     </row>
-    <row r="178" spans="1:18" ht="30">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -6331,7 +6364,7 @@
         <v>18</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H178" s="2">
         <v>172</v>
@@ -6347,7 +6380,7 @@
       </c>
       <c r="R178" s="3"/>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -6358,7 +6391,7 @@
         <v>37</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H179" s="2">
         <v>172</v>
@@ -6374,7 +6407,7 @@
       </c>
       <c r="R179" s="3"/>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -6382,10 +6415,10 @@
         <v>445</v>
       </c>
       <c r="E180" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F180" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="F180" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="H180" s="2">
         <v>172</v>
@@ -6401,7 +6434,7 @@
       </c>
       <c r="R180" s="3"/>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -6409,7 +6442,7 @@
         <v>515</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F181" s="11"/>
       <c r="H181" s="2">
@@ -6426,7 +6459,7 @@
       </c>
       <c r="R181" s="3"/>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -6434,10 +6467,10 @@
         <v>631</v>
       </c>
       <c r="E182" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F182" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="H182" s="2">
         <v>172</v>
@@ -6453,7 +6486,7 @@
       </c>
       <c r="R182" s="3"/>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -6461,7 +6494,7 @@
         <v>9100</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F183" s="11"/>
       <c r="H183" s="2">
@@ -6478,9 +6511,9 @@
       </c>
       <c r="R183" s="3"/>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A184" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -6507,7 +6540,7 @@
       </c>
       <c r="R184" s="3"/>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -6532,9 +6565,9 @@
       </c>
       <c r="R185" s="3"/>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A186" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -6559,9 +6592,9 @@
       </c>
       <c r="R186" s="3"/>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A187" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -6586,9 +6619,9 @@
       </c>
       <c r="R187" s="3"/>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A188" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -6613,9 +6646,9 @@
       </c>
       <c r="R188" s="3"/>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A189" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -6642,7 +6675,7 @@
       </c>
       <c r="R189" s="3"/>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -6667,9 +6700,9 @@
       </c>
       <c r="R190" s="3"/>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A191" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -6696,9 +6729,9 @@
       </c>
       <c r="R191" s="3"/>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A192" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -6725,9 +6758,9 @@
       </c>
       <c r="R192" s="3"/>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A193" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -6754,7 +6787,7 @@
       </c>
       <c r="R193" s="3"/>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -6779,9 +6812,9 @@
       </c>
       <c r="R194" s="3"/>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A195" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -6808,9 +6841,9 @@
       </c>
       <c r="R195" s="3"/>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A196" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -6837,9 +6870,9 @@
       </c>
       <c r="R196" s="3"/>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A197" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -6866,7 +6899,7 @@
       </c>
       <c r="R197" s="3"/>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -6891,7 +6924,7 @@
       </c>
       <c r="R198" s="3"/>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -6918,7 +6951,7 @@
       </c>
       <c r="R199" s="3"/>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -6943,9 +6976,9 @@
       </c>
       <c r="R200" s="3"/>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A201" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -6972,9 +7005,9 @@
       </c>
       <c r="R201" s="3"/>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A202" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -7001,7 +7034,7 @@
       </c>
       <c r="R202" s="3"/>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -7026,12 +7059,12 @@
       </c>
       <c r="R203" s="3"/>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A204" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B204" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="9">
@@ -7041,7 +7074,7 @@
         <v>34</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H204" s="2">
         <v>172</v>
@@ -7057,7 +7090,7 @@
       </c>
       <c r="R204" s="3"/>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -7068,7 +7101,7 @@
         <v>80</v>
       </c>
       <c r="F205" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H205" s="2">
         <v>172</v>
@@ -7084,7 +7117,7 @@
       </c>
       <c r="R205" s="3"/>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -7111,7 +7144,7 @@
       </c>
       <c r="R206" s="3"/>
     </row>
-    <row r="207" spans="1:18" ht="30">
+    <row r="207" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -7122,7 +7155,7 @@
         <v>13</v>
       </c>
       <c r="F207" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H207" s="2">
         <v>172</v>
@@ -7138,7 +7171,7 @@
       </c>
       <c r="R207" s="3"/>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -7163,7 +7196,7 @@
       </c>
       <c r="R208" s="3"/>
     </row>
-    <row r="209" spans="1:18">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -7188,7 +7221,7 @@
       </c>
       <c r="R209" s="3"/>
     </row>
-    <row r="210" spans="1:18">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -7196,7 +7229,7 @@
         <v>515</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F210" s="11"/>
       <c r="H210" s="2">
@@ -7213,7 +7246,7 @@
       </c>
       <c r="R210" s="3"/>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -7221,7 +7254,7 @@
         <v>631</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F211" s="11"/>
       <c r="H211" s="2">
@@ -7238,7 +7271,7 @@
       </c>
       <c r="R211" s="3"/>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -7246,7 +7279,7 @@
         <v>9100</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F212" s="11"/>
       <c r="H212" s="2">
@@ -7263,12 +7296,12 @@
       </c>
       <c r="R212" s="3"/>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A213" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="9">
@@ -7294,7 +7327,7 @@
       </c>
       <c r="R213" s="3"/>
     </row>
-    <row r="214" spans="1:18">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -7319,12 +7352,12 @@
       </c>
       <c r="R214" s="3"/>
     </row>
-    <row r="215" spans="1:18">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A215" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B215" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="C215" s="9"/>
       <c r="D215" s="9">
@@ -7348,7 +7381,7 @@
       </c>
       <c r="R215" s="3"/>
     </row>
-    <row r="216" spans="1:18">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -7359,7 +7392,7 @@
         <v>37</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H216" s="2">
         <v>172</v>
@@ -7375,7 +7408,7 @@
       </c>
       <c r="R216" s="3"/>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -7402,9 +7435,9 @@
       </c>
       <c r="R217" s="3"/>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A218" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -7431,7 +7464,7 @@
       </c>
       <c r="R218" s="3"/>
     </row>
-    <row r="219" spans="1:18">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -7456,12 +7489,12 @@
       </c>
       <c r="R219" s="3"/>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A220" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B220" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="9">
@@ -7471,7 +7504,7 @@
         <v>34</v>
       </c>
       <c r="F220" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H220" s="2">
         <v>172</v>
@@ -7487,7 +7520,7 @@
       </c>
       <c r="R220" s="3"/>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -7498,7 +7531,7 @@
         <v>80</v>
       </c>
       <c r="F221" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H221" s="2">
         <v>172</v>
@@ -7514,7 +7547,7 @@
       </c>
       <c r="R221" s="3"/>
     </row>
-    <row r="222" spans="1:18">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -7541,7 +7574,7 @@
       </c>
       <c r="R222" s="3"/>
     </row>
-    <row r="223" spans="1:18" ht="30">
+    <row r="223" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -7552,7 +7585,7 @@
         <v>13</v>
       </c>
       <c r="F223" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H223" s="2">
         <v>172</v>
@@ -7568,7 +7601,7 @@
       </c>
       <c r="R223" s="3"/>
     </row>
-    <row r="224" spans="1:18">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -7593,7 +7626,7 @@
       </c>
       <c r="R224" s="3"/>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -7618,7 +7651,7 @@
       </c>
       <c r="R225" s="3"/>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -7626,7 +7659,7 @@
         <v>515</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F226" s="11"/>
       <c r="H226" s="2">
@@ -7643,7 +7676,7 @@
       </c>
       <c r="R226" s="3"/>
     </row>
-    <row r="227" spans="1:18">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -7651,7 +7684,7 @@
         <v>631</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F227" s="11"/>
       <c r="H227" s="2">
@@ -7668,7 +7701,7 @@
       </c>
       <c r="R227" s="3"/>
     </row>
-    <row r="228" spans="1:18">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -7676,7 +7709,7 @@
         <v>9100</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F228" s="11"/>
       <c r="H228" s="2">
@@ -7693,12 +7726,12 @@
       </c>
       <c r="R228" s="3"/>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A229" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C229" s="9"/>
       <c r="D229" s="9">
@@ -7708,7 +7741,7 @@
         <v>34</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H229" s="2">
         <v>172</v>
@@ -7724,7 +7757,7 @@
       </c>
       <c r="R229" s="3"/>
     </row>
-    <row r="230" spans="1:18">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -7735,7 +7768,7 @@
         <v>80</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H230" s="2">
         <v>172</v>
@@ -7751,7 +7784,7 @@
       </c>
       <c r="R230" s="3"/>
     </row>
-    <row r="231" spans="1:18">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -7778,7 +7811,7 @@
       </c>
       <c r="R231" s="3"/>
     </row>
-    <row r="232" spans="1:18" ht="30">
+    <row r="232" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -7789,7 +7822,7 @@
         <v>13</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H232" s="2">
         <v>172</v>
@@ -7805,7 +7838,7 @@
       </c>
       <c r="R232" s="3"/>
     </row>
-    <row r="233" spans="1:18">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -7813,10 +7846,10 @@
         <v>139</v>
       </c>
       <c r="E233" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F233" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="F233" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="H233" s="2">
         <v>172</v>
@@ -7832,7 +7865,7 @@
       </c>
       <c r="R233" s="3"/>
     </row>
-    <row r="234" spans="1:18">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -7857,7 +7890,7 @@
       </c>
       <c r="R234" s="3"/>
     </row>
-    <row r="235" spans="1:18">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -7865,7 +7898,7 @@
         <v>515</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F235" s="11"/>
       <c r="H235" s="2">
@@ -7882,7 +7915,7 @@
       </c>
       <c r="R235" s="3"/>
     </row>
-    <row r="236" spans="1:18">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -7890,7 +7923,7 @@
         <v>9100</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F236" s="11"/>
       <c r="H236" s="2">
@@ -7907,12 +7940,12 @@
       </c>
       <c r="R236" s="3"/>
     </row>
-    <row r="237" spans="1:18">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A237" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C237" s="9"/>
       <c r="D237" s="9">
@@ -7936,7 +7969,7 @@
       </c>
       <c r="R237" s="3"/>
     </row>
-    <row r="238" spans="1:18">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -7961,12 +7994,12 @@
       </c>
       <c r="R238" s="3"/>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A239" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C239" s="9"/>
       <c r="D239" s="9">
@@ -7992,7 +8025,7 @@
       </c>
       <c r="R239" s="3"/>
     </row>
-    <row r="240" spans="1:18" ht="30">
+    <row r="240" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -8003,7 +8036,7 @@
         <v>13</v>
       </c>
       <c r="F240" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H240" s="2">
         <v>172</v>
@@ -8019,7 +8052,7 @@
       </c>
       <c r="R240" s="3"/>
     </row>
-    <row r="241" spans="1:18">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -8044,7 +8077,7 @@
       </c>
       <c r="R241" s="3"/>
     </row>
-    <row r="242" spans="1:18" ht="30">
+    <row r="242" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -8055,7 +8088,7 @@
         <v>37</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H242" s="2">
         <v>172</v>
@@ -8071,7 +8104,7 @@
       </c>
       <c r="R242" s="3"/>
     </row>
-    <row r="243" spans="1:18">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -8079,7 +8112,7 @@
         <v>9100</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F243" s="11"/>
       <c r="H243" s="2">
@@ -8096,12 +8129,12 @@
       </c>
       <c r="R243" s="3"/>
     </row>
-    <row r="244" spans="1:18">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A244" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="9">
@@ -8127,7 +8160,7 @@
       </c>
       <c r="R244" s="3"/>
     </row>
-    <row r="245" spans="1:18">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -8152,12 +8185,12 @@
       </c>
       <c r="R245" s="3"/>
     </row>
-    <row r="246" spans="1:18">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A246" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B246" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="9">
@@ -8183,7 +8216,7 @@
       </c>
       <c r="R246" s="3"/>
     </row>
-    <row r="247" spans="1:18">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -8208,12 +8241,12 @@
       </c>
       <c r="R247" s="3"/>
     </row>
-    <row r="248" spans="1:18">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A248" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="9">
@@ -8239,12 +8272,12 @@
       </c>
       <c r="R248" s="3"/>
     </row>
-    <row r="249" spans="1:18">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A249" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9">
@@ -8270,7 +8303,7 @@
       </c>
       <c r="R249" s="3"/>
     </row>
-    <row r="250" spans="1:18" ht="30">
+    <row r="250" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -8281,7 +8314,7 @@
         <v>13</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H250" s="2">
         <v>172</v>
@@ -8297,7 +8330,7 @@
       </c>
       <c r="R250" s="3"/>
     </row>
-    <row r="251" spans="1:18">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -8322,7 +8355,7 @@
       </c>
       <c r="R251" s="3"/>
     </row>
-    <row r="252" spans="1:18" ht="30">
+    <row r="252" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -8333,7 +8366,7 @@
         <v>37</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H252" s="2">
         <v>172</v>
@@ -8349,7 +8382,7 @@
       </c>
       <c r="R252" s="3"/>
     </row>
-    <row r="253" spans="1:18">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -8357,7 +8390,7 @@
         <v>9100</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F253" s="11"/>
       <c r="H253" s="2">
@@ -8374,9 +8407,9 @@
       </c>
       <c r="R253" s="3"/>
     </row>
-    <row r="254" spans="1:18">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A254" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -8403,7 +8436,7 @@
       </c>
       <c r="R254" s="3"/>
     </row>
-    <row r="255" spans="1:18">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -8428,12 +8461,12 @@
       </c>
       <c r="R255" s="3"/>
     </row>
-    <row r="256" spans="1:18">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A256" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C256" s="9"/>
       <c r="D256" s="9">
@@ -8459,7 +8492,7 @@
       </c>
       <c r="R256" s="3"/>
     </row>
-    <row r="257" spans="1:18">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -8470,7 +8503,7 @@
         <v>13</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H257" s="2">
         <v>172</v>
@@ -8486,7 +8519,7 @@
       </c>
       <c r="R257" s="3"/>
     </row>
-    <row r="258" spans="1:18">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -8511,12 +8544,12 @@
       </c>
       <c r="R258" s="3"/>
     </row>
-    <row r="259" spans="1:18">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A259" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C259" s="9"/>
       <c r="D259" s="9">
@@ -8540,7 +8573,7 @@
       </c>
       <c r="R259" s="3"/>
     </row>
-    <row r="260" spans="1:18">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -8551,7 +8584,7 @@
         <v>80</v>
       </c>
       <c r="F260" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H260" s="2">
         <v>172</v>
@@ -8567,7 +8600,7 @@
       </c>
       <c r="R260" s="3"/>
     </row>
-    <row r="261" spans="1:18">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -8578,7 +8611,7 @@
         <v>81</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H261" s="2">
         <v>172</v>
@@ -8594,7 +8627,7 @@
       </c>
       <c r="R261" s="3"/>
     </row>
-    <row r="262" spans="1:18">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -8621,7 +8654,7 @@
       </c>
       <c r="R262" s="3"/>
     </row>
-    <row r="263" spans="1:18" ht="30">
+    <row r="263" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -8632,7 +8665,7 @@
         <v>13</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H263" s="2">
         <v>172</v>
@@ -8648,7 +8681,7 @@
       </c>
       <c r="R263" s="3"/>
     </row>
-    <row r="264" spans="1:18">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -8673,7 +8706,7 @@
       </c>
       <c r="R264" s="3"/>
     </row>
-    <row r="265" spans="1:18">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -8681,7 +8714,7 @@
         <v>515</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F265" s="11"/>
       <c r="H265" s="2">
@@ -8698,7 +8731,7 @@
       </c>
       <c r="R265" s="3"/>
     </row>
-    <row r="266" spans="1:18">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -8706,7 +8739,7 @@
         <v>631</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F266" s="11"/>
       <c r="H266" s="2">
@@ -8723,7 +8756,7 @@
       </c>
       <c r="R266" s="3"/>
     </row>
-    <row r="267" spans="1:18">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -8731,7 +8764,7 @@
         <v>9100</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F267" s="11"/>
       <c r="H267" s="2">
@@ -8748,12 +8781,12 @@
       </c>
       <c r="R267" s="3"/>
     </row>
-    <row r="268" spans="1:18">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A268" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="9">
@@ -8763,7 +8796,7 @@
         <v>34</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H268" s="2">
         <v>172</v>
@@ -8779,7 +8812,7 @@
       </c>
       <c r="R268" s="3"/>
     </row>
-    <row r="269" spans="1:18">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -8790,7 +8823,7 @@
         <v>80</v>
       </c>
       <c r="F269" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H269" s="2">
         <v>172</v>
@@ -8806,7 +8839,7 @@
       </c>
       <c r="R269" s="3"/>
     </row>
-    <row r="270" spans="1:18">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -8833,7 +8866,7 @@
       </c>
       <c r="R270" s="3"/>
     </row>
-    <row r="271" spans="1:18" ht="30">
+    <row r="271" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A271" s="9"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -8844,7 +8877,7 @@
         <v>13</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H271" s="2">
         <v>172</v>
@@ -8860,7 +8893,7 @@
       </c>
       <c r="R271" s="3"/>
     </row>
-    <row r="272" spans="1:18">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A272" s="9"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -8885,7 +8918,7 @@
       </c>
       <c r="R272" s="3"/>
     </row>
-    <row r="273" spans="1:18" ht="30">
+    <row r="273" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -8896,7 +8929,7 @@
         <v>37</v>
       </c>
       <c r="F273" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H273" s="2">
         <v>172</v>
@@ -8912,7 +8945,7 @@
       </c>
       <c r="R273" s="3"/>
     </row>
-    <row r="274" spans="1:18">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A274" s="9"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -8920,7 +8953,7 @@
         <v>515</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F274" s="11"/>
       <c r="H274" s="2">
@@ -8937,7 +8970,7 @@
       </c>
       <c r="R274" s="3"/>
     </row>
-    <row r="275" spans="1:18" ht="30">
+    <row r="275" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A275" s="9"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -8948,7 +8981,7 @@
         <v>13</v>
       </c>
       <c r="F275" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H275" s="2">
         <v>172</v>
@@ -8964,7 +8997,7 @@
       </c>
       <c r="R275" s="3"/>
     </row>
-    <row r="276" spans="1:18">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A276" s="9"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -8972,7 +9005,7 @@
         <v>9100</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F276" s="11"/>
       <c r="H276" s="2">
@@ -8989,12 +9022,12 @@
       </c>
       <c r="R276" s="3"/>
     </row>
-    <row r="277" spans="1:18">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A277" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C277" s="9"/>
       <c r="D277" s="9">
@@ -9018,12 +9051,12 @@
       </c>
       <c r="R277" s="3"/>
     </row>
-    <row r="278" spans="1:18">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A278" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C278" s="9"/>
       <c r="D278" s="9">
@@ -9047,12 +9080,12 @@
       </c>
       <c r="R278" s="3"/>
     </row>
-    <row r="279" spans="1:18">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A279" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C279" s="9"/>
       <c r="D279" s="9">
@@ -9078,7 +9111,7 @@
       </c>
       <c r="R279" s="3"/>
     </row>
-    <row r="280" spans="1:18">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
       <c r="D280" s="9">
@@ -9102,12 +9135,12 @@
       </c>
       <c r="R280" s="3"/>
     </row>
-    <row r="281" spans="1:18">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A281" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C281" s="9"/>
       <c r="D281" s="9">
@@ -9133,7 +9166,7 @@
       </c>
       <c r="R281" s="3"/>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A282" s="9"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -9158,12 +9191,12 @@
       </c>
       <c r="R282" s="3"/>
     </row>
-    <row r="283" spans="1:18">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A283" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C283" s="9"/>
       <c r="D283" s="9">
@@ -9189,12 +9222,12 @@
       </c>
       <c r="R283" s="3"/>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A284" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B284" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="B284" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="C284" s="9"/>
       <c r="D284" s="9">
@@ -9204,7 +9237,7 @@
         <v>34</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H284" s="2">
         <v>172</v>
@@ -9220,7 +9253,7 @@
       </c>
       <c r="R284" s="3"/>
     </row>
-    <row r="285" spans="1:18">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -9247,7 +9280,7 @@
       </c>
       <c r="R285" s="3"/>
     </row>
-    <row r="286" spans="1:18">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A286" s="9"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -9258,7 +9291,7 @@
         <v>13</v>
       </c>
       <c r="F286" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H286" s="2">
         <v>172</v>
@@ -9274,7 +9307,7 @@
       </c>
       <c r="R286" s="3"/>
     </row>
-    <row r="287" spans="1:18" ht="30">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A287" s="9"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -9285,7 +9318,7 @@
         <v>18</v>
       </c>
       <c r="F287" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H287" s="2">
         <v>172</v>
@@ -9301,7 +9334,7 @@
       </c>
       <c r="R287" s="3"/>
     </row>
-    <row r="288" spans="1:18">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A288" s="9"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -9326,7 +9359,7 @@
       </c>
       <c r="R288" s="3"/>
     </row>
-    <row r="289" spans="1:18">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A289" s="9"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -9351,7 +9384,7 @@
       </c>
       <c r="R289" s="3"/>
     </row>
-    <row r="290" spans="1:18">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A290" s="9"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -9359,10 +9392,10 @@
         <v>445</v>
       </c>
       <c r="E290" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F290" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="F290" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="H290" s="2">
         <v>172</v>
@@ -9378,7 +9411,7 @@
       </c>
       <c r="R290" s="3"/>
     </row>
-    <row r="291" spans="1:18">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A291" s="9"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -9386,7 +9419,7 @@
         <v>515</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F291" s="11"/>
       <c r="H291" s="2">
@@ -9403,7 +9436,7 @@
       </c>
       <c r="R291" s="3"/>
     </row>
-    <row r="292" spans="1:18">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -9411,10 +9444,10 @@
         <v>631</v>
       </c>
       <c r="E292" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F292" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H292" s="2">
         <v>172</v>
@@ -9430,7 +9463,7 @@
       </c>
       <c r="R292" s="3"/>
     </row>
-    <row r="293" spans="1:18">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -9438,7 +9471,7 @@
         <v>9100</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F293" s="11"/>
       <c r="H293" s="2">
@@ -9455,12 +9488,12 @@
       </c>
       <c r="R293" s="3"/>
     </row>
-    <row r="294" spans="1:18">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A294" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B294" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C294" s="9"/>
       <c r="D294" s="9">
@@ -9484,12 +9517,12 @@
       </c>
       <c r="R294" s="3"/>
     </row>
-    <row r="295" spans="1:18">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A295" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B295" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C295" s="9"/>
       <c r="D295" s="9">
@@ -9515,12 +9548,12 @@
       </c>
       <c r="R295" s="3"/>
     </row>
-    <row r="296" spans="1:18">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A296" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B296" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C296" s="9"/>
       <c r="D296" s="9">
@@ -9546,12 +9579,12 @@
       </c>
       <c r="R296" s="3"/>
     </row>
-    <row r="297" spans="1:18">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A297" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B297" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C297" s="9"/>
       <c r="D297" s="9">
@@ -9575,12 +9608,12 @@
       </c>
       <c r="R297" s="3"/>
     </row>
-    <row r="298" spans="1:18">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A298" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B298" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="9">
@@ -9606,7 +9639,7 @@
       </c>
       <c r="R298" s="3"/>
     </row>
-    <row r="299" spans="1:18">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -9631,7 +9664,7 @@
       </c>
       <c r="R299" s="3"/>
     </row>
-    <row r="300" spans="1:18">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -9658,7 +9691,7 @@
       </c>
       <c r="R300" s="3"/>
     </row>
-    <row r="301" spans="1:18">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -9683,12 +9716,12 @@
       </c>
       <c r="R301" s="3"/>
     </row>
-    <row r="302" spans="1:18">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A302" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B302" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="B302" s="9" t="s">
-        <v>261</v>
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="9">
@@ -9712,7 +9745,7 @@
       </c>
       <c r="R302" s="3"/>
     </row>
-    <row r="303" spans="1:18">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -9723,7 +9756,7 @@
         <v>80</v>
       </c>
       <c r="F303" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H303" s="2">
         <v>172</v>
@@ -9739,7 +9772,7 @@
       </c>
       <c r="R303" s="3"/>
     </row>
-    <row r="304" spans="1:18">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A304" s="9"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -9766,7 +9799,7 @@
       </c>
       <c r="R304" s="3"/>
     </row>
-    <row r="305" spans="1:18" ht="30">
+    <row r="305" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A305" s="9"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -9777,7 +9810,7 @@
         <v>13</v>
       </c>
       <c r="F305" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H305" s="2">
         <v>172</v>
@@ -9793,7 +9826,7 @@
       </c>
       <c r="R305" s="3"/>
     </row>
-    <row r="306" spans="1:18">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A306" s="9"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -9818,7 +9851,7 @@
       </c>
       <c r="R306" s="3"/>
     </row>
-    <row r="307" spans="1:18">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -9826,7 +9859,7 @@
         <v>515</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F307" s="11"/>
       <c r="H307" s="2">
@@ -9843,7 +9876,7 @@
       </c>
       <c r="R307" s="3"/>
     </row>
-    <row r="308" spans="1:18">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A308" s="9"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -9851,7 +9884,7 @@
         <v>631</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F308" s="11"/>
       <c r="H308" s="2">
@@ -9868,7 +9901,7 @@
       </c>
       <c r="R308" s="3"/>
     </row>
-    <row r="309" spans="1:18">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A309" s="9"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -9876,7 +9909,7 @@
         <v>9100</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F309" s="11"/>
       <c r="H309" s="2">
@@ -9893,12 +9926,12 @@
       </c>
       <c r="R309" s="3"/>
     </row>
-    <row r="310" spans="1:18">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A310" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="9">
@@ -9924,7 +9957,7 @@
       </c>
       <c r="R310" s="3"/>
     </row>
-    <row r="311" spans="1:18">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A311" s="9"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -9949,7 +9982,7 @@
       </c>
       <c r="R311" s="3"/>
     </row>
-    <row r="312" spans="1:18">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A312" s="9"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -9976,7 +10009,7 @@
       </c>
       <c r="R312" s="3"/>
     </row>
-    <row r="313" spans="1:18">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A313" s="9"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -10001,12 +10034,12 @@
       </c>
       <c r="R313" s="3"/>
     </row>
-    <row r="314" spans="1:18">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A314" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C314" s="9"/>
       <c r="D314" s="9">
@@ -10016,7 +10049,7 @@
         <v>34</v>
       </c>
       <c r="F314" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H314" s="2">
         <v>172</v>
@@ -10032,7 +10065,7 @@
       </c>
       <c r="R314" s="3"/>
     </row>
-    <row r="315" spans="1:18">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A315" s="9"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -10043,7 +10076,7 @@
         <v>80</v>
       </c>
       <c r="F315" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H315" s="2">
         <v>172</v>
@@ -10059,7 +10092,7 @@
       </c>
       <c r="R315" s="3"/>
     </row>
-    <row r="316" spans="1:18">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A316" s="9"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -10086,7 +10119,7 @@
       </c>
       <c r="R316" s="3"/>
     </row>
-    <row r="317" spans="1:18" ht="30">
+    <row r="317" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A317" s="9"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -10097,7 +10130,7 @@
         <v>13</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H317" s="2">
         <v>172</v>
@@ -10113,7 +10146,7 @@
       </c>
       <c r="R317" s="3"/>
     </row>
-    <row r="318" spans="1:18">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A318" s="9"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -10138,7 +10171,7 @@
       </c>
       <c r="R318" s="3"/>
     </row>
-    <row r="319" spans="1:18">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A319" s="9"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -10146,7 +10179,7 @@
         <v>515</v>
       </c>
       <c r="E319" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F319" s="11"/>
       <c r="H319" s="2">
@@ -10163,9 +10196,9 @@
       </c>
       <c r="R319" s="3"/>
     </row>
-    <row r="320" spans="1:18">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A320" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -10192,7 +10225,7 @@
       </c>
       <c r="R320" s="3"/>
     </row>
-    <row r="321" spans="1:18">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A321" s="9"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -10217,9 +10250,9 @@
       </c>
       <c r="R321" s="3"/>
     </row>
-    <row r="322" spans="1:18">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A322" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -10230,7 +10263,7 @@
         <v>34</v>
       </c>
       <c r="F322" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H322" s="2">
         <v>172</v>
@@ -10246,7 +10279,7 @@
       </c>
       <c r="R322" s="3"/>
     </row>
-    <row r="323" spans="1:18">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A323" s="9"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -10257,7 +10290,7 @@
         <v>80</v>
       </c>
       <c r="F323" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H323" s="2">
         <v>172</v>
@@ -10273,7 +10306,7 @@
       </c>
       <c r="R323" s="3"/>
     </row>
-    <row r="324" spans="1:18">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A324" s="9"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -10300,7 +10333,7 @@
       </c>
       <c r="R324" s="3"/>
     </row>
-    <row r="325" spans="1:18" ht="30">
+    <row r="325" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A325" s="9"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -10311,7 +10344,7 @@
         <v>13</v>
       </c>
       <c r="F325" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H325" s="2">
         <v>172</v>
@@ -10327,7 +10360,7 @@
       </c>
       <c r="R325" s="3"/>
     </row>
-    <row r="326" spans="1:18">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A326" s="9"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -10352,7 +10385,7 @@
       </c>
       <c r="R326" s="3"/>
     </row>
-    <row r="327" spans="1:18">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A327" s="9"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -10360,7 +10393,7 @@
         <v>515</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F327" s="11"/>
       <c r="H327" s="2">
@@ -10377,7 +10410,7 @@
       </c>
       <c r="R327" s="3"/>
     </row>
-    <row r="328" spans="1:18">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A328" s="9"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -10385,7 +10418,7 @@
         <v>631</v>
       </c>
       <c r="E328" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F328" s="11"/>
       <c r="H328" s="2">
@@ -10402,7 +10435,7 @@
       </c>
       <c r="R328" s="3"/>
     </row>
-    <row r="329" spans="1:18">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A329" s="9"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -10410,7 +10443,7 @@
         <v>9100</v>
       </c>
       <c r="E329" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F329" s="11"/>
       <c r="H329" s="2">
@@ -10427,9 +10460,9 @@
       </c>
       <c r="R329" s="3"/>
     </row>
-    <row r="330" spans="1:18">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A330" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -10440,7 +10473,7 @@
         <v>34</v>
       </c>
       <c r="F330" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H330" s="2">
         <v>172</v>
@@ -10456,7 +10489,7 @@
       </c>
       <c r="R330" s="3"/>
     </row>
-    <row r="331" spans="1:18">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A331" s="9"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -10467,7 +10500,7 @@
         <v>80</v>
       </c>
       <c r="F331" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H331" s="2">
         <v>172</v>
@@ -10483,7 +10516,7 @@
       </c>
       <c r="R331" s="3"/>
     </row>
-    <row r="332" spans="1:18">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A332" s="9"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -10510,7 +10543,7 @@
       </c>
       <c r="R332" s="3"/>
     </row>
-    <row r="333" spans="1:18" ht="30">
+    <row r="333" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A333" s="9"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -10521,7 +10554,7 @@
         <v>13</v>
       </c>
       <c r="F333" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H333" s="2">
         <v>172</v>
@@ -10537,7 +10570,7 @@
       </c>
       <c r="R333" s="3"/>
     </row>
-    <row r="334" spans="1:18">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A334" s="9"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -10562,7 +10595,7 @@
       </c>
       <c r="R334" s="3"/>
     </row>
-    <row r="335" spans="1:18" ht="30">
+    <row r="335" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A335" s="9"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -10573,7 +10606,7 @@
         <v>37</v>
       </c>
       <c r="F335" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H335" s="2">
         <v>172</v>
@@ -10589,7 +10622,7 @@
       </c>
       <c r="R335" s="3"/>
     </row>
-    <row r="336" spans="1:18">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A336" s="9"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -10597,7 +10630,7 @@
         <v>515</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F336" s="11"/>
       <c r="H336" s="2">
@@ -10614,7 +10647,7 @@
       </c>
       <c r="R336" s="3"/>
     </row>
-    <row r="337" spans="1:18" ht="30">
+    <row r="337" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A337" s="9"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -10625,7 +10658,7 @@
         <v>13</v>
       </c>
       <c r="F337" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H337" s="2">
         <v>172</v>
@@ -10641,7 +10674,7 @@
       </c>
       <c r="R337" s="3"/>
     </row>
-    <row r="338" spans="1:18">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A338" s="9"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -10649,7 +10682,7 @@
         <v>9100</v>
       </c>
       <c r="E338" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F338" s="11"/>
       <c r="H338" s="2">
@@ -10666,9 +10699,9 @@
       </c>
       <c r="R338" s="3"/>
     </row>
-    <row r="339" spans="1:18">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A339" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -10695,7 +10728,7 @@
       </c>
       <c r="R339" s="3"/>
     </row>
-    <row r="340" spans="1:18">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A340" s="9"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -10720,7 +10753,7 @@
       </c>
       <c r="R340" s="3"/>
     </row>
-    <row r="341" spans="1:18">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A341" s="9"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -10747,7 +10780,7 @@
       </c>
       <c r="R341" s="3"/>
     </row>
-    <row r="342" spans="1:18">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A342" s="9"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -10758,7 +10791,7 @@
         <v>13</v>
       </c>
       <c r="F342" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H342" s="2">
         <v>172</v>
@@ -10774,7 +10807,7 @@
       </c>
       <c r="R342" s="3"/>
     </row>
-    <row r="343" spans="1:18">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A343" s="9"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -10799,7 +10832,7 @@
       </c>
       <c r="R343" s="3"/>
     </row>
-    <row r="344" spans="1:18">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A344" s="9"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -10824,7 +10857,7 @@
       </c>
       <c r="R344" s="3"/>
     </row>
-    <row r="345" spans="1:18">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A345" s="9"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -10835,7 +10868,7 @@
         <v>62</v>
       </c>
       <c r="F345" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H345" s="2">
         <v>172</v>
@@ -10851,9 +10884,9 @@
       </c>
       <c r="R345" s="3"/>
     </row>
-    <row r="346" spans="1:18">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A346" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -10880,7 +10913,7 @@
       </c>
       <c r="R346" s="3"/>
     </row>
-    <row r="347" spans="1:18">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A347" s="9"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -10905,7 +10938,7 @@
       </c>
       <c r="R347" s="3"/>
     </row>
-    <row r="348" spans="1:18">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A348" s="9"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
@@ -10932,7 +10965,7 @@
       </c>
       <c r="R348" s="3"/>
     </row>
-    <row r="349" spans="1:18">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A349" s="9"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -10943,7 +10976,7 @@
         <v>13</v>
       </c>
       <c r="F349" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H349" s="2">
         <v>172</v>
@@ -10959,7 +10992,7 @@
       </c>
       <c r="R349" s="3"/>
     </row>
-    <row r="350" spans="1:18">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A350" s="9"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
@@ -10984,7 +11017,7 @@
       </c>
       <c r="R350" s="3"/>
     </row>
-    <row r="351" spans="1:18">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A351" s="9"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -11009,7 +11042,7 @@
       </c>
       <c r="R351" s="3"/>
     </row>
-    <row r="352" spans="1:18">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A352" s="9"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
@@ -11020,7 +11053,7 @@
         <v>62</v>
       </c>
       <c r="F352" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H352" s="2">
         <v>172</v>
@@ -11036,9 +11069,9 @@
       </c>
       <c r="R352" s="3"/>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A353" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -11065,7 +11098,7 @@
       </c>
       <c r="R353" s="3"/>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A354" s="9"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
@@ -11090,7 +11123,7 @@
       </c>
       <c r="R354" s="3"/>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A355" s="9"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -11117,7 +11150,7 @@
       </c>
       <c r="R355" s="3"/>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A356" s="9"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -11128,7 +11161,7 @@
         <v>13</v>
       </c>
       <c r="F356" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H356" s="2">
         <v>172</v>
@@ -11144,7 +11177,7 @@
       </c>
       <c r="R356" s="3"/>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A357" s="9"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -11169,7 +11202,7 @@
       </c>
       <c r="R357" s="3"/>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A358" s="9"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -11194,7 +11227,7 @@
       </c>
       <c r="R358" s="3"/>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A359" s="9"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -11205,7 +11238,7 @@
         <v>62</v>
       </c>
       <c r="F359" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H359" s="2">
         <v>172</v>
@@ -11221,9 +11254,9 @@
       </c>
       <c r="R359" s="3"/>
     </row>
-    <row r="360" spans="1:18">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A360" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -11250,7 +11283,7 @@
       </c>
       <c r="R360" s="3"/>
     </row>
-    <row r="361" spans="1:18">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A361" s="9"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -11275,7 +11308,7 @@
       </c>
       <c r="R361" s="3"/>
     </row>
-    <row r="362" spans="1:18">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A362" s="9"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -11302,7 +11335,7 @@
       </c>
       <c r="R362" s="3"/>
     </row>
-    <row r="363" spans="1:18" ht="30">
+    <row r="363" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A363" s="9"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -11313,7 +11346,7 @@
         <v>13</v>
       </c>
       <c r="F363" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H363" s="2">
         <v>172</v>
@@ -11329,7 +11362,7 @@
       </c>
       <c r="R363" s="3"/>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A364" s="9"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -11354,7 +11387,7 @@
       </c>
       <c r="R364" s="3"/>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A365" s="9"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -11379,7 +11412,7 @@
       </c>
       <c r="R365" s="3"/>
     </row>
-    <row r="366" spans="1:18" ht="30">
+    <row r="366" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A366" s="9"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -11390,7 +11423,7 @@
         <v>13</v>
       </c>
       <c r="F366" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H366" s="2">
         <v>172</v>
@@ -11406,9 +11439,9 @@
       </c>
       <c r="R366" s="3"/>
     </row>
-    <row r="367" spans="1:18">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A367" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -11416,7 +11449,7 @@
         <v>22</v>
       </c>
       <c r="E367" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F367" s="11"/>
       <c r="H367" s="2">
@@ -11433,7 +11466,7 @@
       </c>
       <c r="R367" s="3"/>
     </row>
-    <row r="368" spans="1:18">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A368" s="9"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -11458,7 +11491,7 @@
       </c>
       <c r="R368" s="3"/>
     </row>
-    <row r="369" spans="1:18">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A369" s="9"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -11485,7 +11518,7 @@
       </c>
       <c r="R369" s="3"/>
     </row>
-    <row r="370" spans="1:18">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A370" s="9"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -11493,7 +11526,7 @@
         <v>80</v>
       </c>
       <c r="E370" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F370" s="11"/>
       <c r="H370" s="2">
@@ -11510,7 +11543,7 @@
       </c>
       <c r="R370" s="3"/>
     </row>
-    <row r="371" spans="1:18">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A371" s="9"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -11535,7 +11568,7 @@
       </c>
       <c r="R371" s="3"/>
     </row>
-    <row r="372" spans="1:18">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A372" s="9"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -11543,7 +11576,7 @@
         <v>443</v>
       </c>
       <c r="E372" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F372" s="11"/>
       <c r="H372" s="2">
@@ -11560,7 +11593,7 @@
       </c>
       <c r="R372" s="3"/>
     </row>
-    <row r="373" spans="1:18">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A373" s="9"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -11568,7 +11601,7 @@
         <v>8080</v>
       </c>
       <c r="E373" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F373" s="11"/>
       <c r="H373" s="2">
@@ -11585,9 +11618,9 @@
       </c>
       <c r="R373" s="3"/>
     </row>
-    <row r="374" spans="1:18">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A374" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -11614,7 +11647,7 @@
       </c>
       <c r="R374" s="3"/>
     </row>
-    <row r="375" spans="1:18">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A375" s="9"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -11622,7 +11655,7 @@
         <v>49153</v>
       </c>
       <c r="E375" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F375" s="11"/>
       <c r="H375" s="2">
@@ -11639,9 +11672,9 @@
       </c>
       <c r="R375" s="3"/>
     </row>
-    <row r="376" spans="1:18">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A376" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -11668,7 +11701,7 @@
       </c>
       <c r="R376" s="3"/>
     </row>
-    <row r="377" spans="1:18">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A377" s="9"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -11693,9 +11726,9 @@
       </c>
       <c r="R377" s="3"/>
     </row>
-    <row r="378" spans="1:18">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A378" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -11706,7 +11739,7 @@
         <v>34</v>
       </c>
       <c r="F378" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H378" s="2">
         <v>172</v>
@@ -11722,7 +11755,7 @@
       </c>
       <c r="R378" s="3"/>
     </row>
-    <row r="379" spans="1:18">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A379" s="9"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -11733,7 +11766,7 @@
         <v>80</v>
       </c>
       <c r="F379" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H379" s="2">
         <v>172</v>
@@ -11749,7 +11782,7 @@
       </c>
       <c r="R379" s="3"/>
     </row>
-    <row r="380" spans="1:18">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A380" s="9"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -11776,7 +11809,7 @@
       </c>
       <c r="R380" s="3"/>
     </row>
-    <row r="381" spans="1:18" ht="30">
+    <row r="381" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A381" s="9"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -11787,7 +11820,7 @@
         <v>13</v>
       </c>
       <c r="F381" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H381" s="2">
         <v>172</v>
@@ -11803,7 +11836,7 @@
       </c>
       <c r="R381" s="3"/>
     </row>
-    <row r="382" spans="1:18">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A382" s="9"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -11828,7 +11861,7 @@
       </c>
       <c r="R382" s="3"/>
     </row>
-    <row r="383" spans="1:18">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A383" s="9"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -11853,7 +11886,7 @@
       </c>
       <c r="R383" s="3"/>
     </row>
-    <row r="384" spans="1:18">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A384" s="9"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -11861,7 +11894,7 @@
         <v>515</v>
       </c>
       <c r="E384" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F384" s="11"/>
       <c r="H384" s="2">
@@ -11878,9 +11911,9 @@
       </c>
       <c r="R384" s="3"/>
     </row>
-    <row r="385" spans="1:18">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A385" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -11891,7 +11924,7 @@
         <v>34</v>
       </c>
       <c r="F385" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H385" s="2">
         <v>172</v>
@@ -11907,7 +11940,7 @@
       </c>
       <c r="R385" s="3"/>
     </row>
-    <row r="386" spans="1:18">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A386" s="9"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -11918,7 +11951,7 @@
         <v>80</v>
       </c>
       <c r="F386" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H386" s="2">
         <v>172</v>
@@ -11934,7 +11967,7 @@
       </c>
       <c r="R386" s="3"/>
     </row>
-    <row r="387" spans="1:18">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A387" s="9"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -11961,7 +11994,7 @@
       </c>
       <c r="R387" s="3"/>
     </row>
-    <row r="388" spans="1:18" ht="30">
+    <row r="388" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A388" s="9"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
@@ -11972,7 +12005,7 @@
         <v>13</v>
       </c>
       <c r="F388" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H388" s="2">
         <v>172</v>
@@ -11988,7 +12021,7 @@
       </c>
       <c r="R388" s="3"/>
     </row>
-    <row r="389" spans="1:18">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A389" s="9"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -12013,7 +12046,7 @@
       </c>
       <c r="R389" s="3"/>
     </row>
-    <row r="390" spans="1:18">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A390" s="9"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -12021,7 +12054,7 @@
         <v>515</v>
       </c>
       <c r="E390" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F390" s="11"/>
       <c r="H390" s="2">
@@ -12038,7 +12071,7 @@
       </c>
       <c r="R390" s="3"/>
     </row>
-    <row r="391" spans="1:18">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A391" s="9"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -12046,7 +12079,7 @@
         <v>631</v>
       </c>
       <c r="E391" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F391" s="11"/>
       <c r="H391" s="2">
@@ -12063,9 +12096,9 @@
       </c>
       <c r="R391" s="3"/>
     </row>
-    <row r="392" spans="1:18">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A392" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -12076,7 +12109,7 @@
         <v>34</v>
       </c>
       <c r="F392" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H392" s="2">
         <v>172</v>
@@ -12092,7 +12125,7 @@
       </c>
       <c r="R392" s="3"/>
     </row>
-    <row r="393" spans="1:18" ht="30">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A393" s="9"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -12103,7 +12136,7 @@
         <v>80</v>
       </c>
       <c r="F393" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H393" s="2">
         <v>172</v>
@@ -12119,7 +12152,7 @@
       </c>
       <c r="R393" s="3"/>
     </row>
-    <row r="394" spans="1:18">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A394" s="9"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -12146,7 +12179,7 @@
       </c>
       <c r="R394" s="3"/>
     </row>
-    <row r="395" spans="1:18">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A395" s="9"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -12157,7 +12190,7 @@
         <v>13</v>
       </c>
       <c r="F395" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H395" s="2">
         <v>172</v>
@@ -12173,7 +12206,7 @@
       </c>
       <c r="R395" s="3"/>
     </row>
-    <row r="396" spans="1:18">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A396" s="9"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
@@ -12198,7 +12231,7 @@
       </c>
       <c r="R396" s="3"/>
     </row>
-    <row r="397" spans="1:18">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A397" s="9"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -12223,7 +12256,7 @@
       </c>
       <c r="R397" s="3"/>
     </row>
-    <row r="398" spans="1:18">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A398" s="9"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -12234,7 +12267,7 @@
         <v>13</v>
       </c>
       <c r="F398" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H398" s="2">
         <v>172</v>
@@ -12250,7 +12283,7 @@
       </c>
       <c r="R398" s="3"/>
     </row>
-    <row r="399" spans="1:18">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A399" s="9"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -12258,7 +12291,7 @@
         <v>9100</v>
       </c>
       <c r="E399" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F399" s="11"/>
       <c r="H399" s="2">
@@ -12275,9 +12308,9 @@
       </c>
       <c r="R399" s="3"/>
     </row>
-    <row r="400" spans="1:18">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A400" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
@@ -12288,7 +12321,7 @@
         <v>34</v>
       </c>
       <c r="F400" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H400" s="2">
         <v>172</v>
@@ -12304,7 +12337,7 @@
       </c>
       <c r="R400" s="3"/>
     </row>
-    <row r="401" spans="1:18">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A401" s="9"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -12331,7 +12364,7 @@
       </c>
       <c r="R401" s="3"/>
     </row>
-    <row r="402" spans="1:18">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A402" s="9"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -12342,7 +12375,7 @@
         <v>13</v>
       </c>
       <c r="F402" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H402" s="2">
         <v>172</v>
@@ -12358,7 +12391,7 @@
       </c>
       <c r="R402" s="3"/>
     </row>
-    <row r="403" spans="1:18" ht="30">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A403" s="9"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -12369,7 +12402,7 @@
         <v>18</v>
       </c>
       <c r="F403" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H403" s="2">
         <v>172</v>
@@ -12385,7 +12418,7 @@
       </c>
       <c r="R403" s="3"/>
     </row>
-    <row r="404" spans="1:18">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A404" s="9"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -12410,7 +12443,7 @@
       </c>
       <c r="R404" s="3"/>
     </row>
-    <row r="405" spans="1:18">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A405" s="9"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -12418,7 +12451,7 @@
         <v>515</v>
       </c>
       <c r="E405" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F405" s="11"/>
       <c r="H405" s="2">
@@ -12435,7 +12468,7 @@
       </c>
       <c r="R405" s="3"/>
     </row>
-    <row r="406" spans="1:18">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A406" s="9"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -12443,7 +12476,7 @@
         <v>9100</v>
       </c>
       <c r="E406" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F406" s="11"/>
       <c r="H406" s="2">
@@ -12460,9 +12493,9 @@
       </c>
       <c r="R406" s="3"/>
     </row>
-    <row r="407" spans="1:18">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A407" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -12487,7 +12520,7 @@
       </c>
       <c r="R407" s="3"/>
     </row>
-    <row r="408" spans="1:18">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A408" s="9"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -12512,9 +12545,9 @@
       </c>
       <c r="R408" s="3"/>
     </row>
-    <row r="409" spans="1:18">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A409" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -12539,9 +12572,9 @@
       </c>
       <c r="R409" s="3"/>
     </row>
-    <row r="410" spans="1:18">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A410" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -12568,7 +12601,7 @@
       </c>
       <c r="R410" s="3"/>
     </row>
-    <row r="411" spans="1:18" ht="30">
+    <row r="411" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A411" s="9"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -12579,7 +12612,7 @@
         <v>13</v>
       </c>
       <c r="F411" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H411" s="2">
         <v>172</v>
@@ -12595,7 +12628,7 @@
       </c>
       <c r="R411" s="3"/>
     </row>
-    <row r="412" spans="1:18">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A412" s="9"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -12620,7 +12653,7 @@
       </c>
       <c r="R412" s="3"/>
     </row>
-    <row r="413" spans="1:18" ht="30">
+    <row r="413" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A413" s="9"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -12631,7 +12664,7 @@
         <v>37</v>
       </c>
       <c r="F413" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H413" s="2">
         <v>172</v>
@@ -12647,7 +12680,7 @@
       </c>
       <c r="R413" s="3"/>
     </row>
-    <row r="414" spans="1:18">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A414" s="9"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -12655,7 +12688,7 @@
         <v>515</v>
       </c>
       <c r="E414" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F414" s="11"/>
       <c r="H414" s="2">
@@ -12672,7 +12705,7 @@
       </c>
       <c r="R414" s="3"/>
     </row>
-    <row r="415" spans="1:18" ht="30">
+    <row r="415" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A415" s="9"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -12683,7 +12716,7 @@
         <v>13</v>
       </c>
       <c r="F415" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H415" s="2">
         <v>172</v>
@@ -12699,7 +12732,7 @@
       </c>
       <c r="R415" s="3"/>
     </row>
-    <row r="416" spans="1:18" ht="30">
+    <row r="416" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A416" s="9"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -12710,7 +12743,7 @@
         <v>13</v>
       </c>
       <c r="F416" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H416" s="2">
         <v>172</v>
@@ -12726,9 +12759,9 @@
       </c>
       <c r="R416" s="3"/>
     </row>
-    <row r="417" spans="1:18">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A417" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -12755,7 +12788,7 @@
       </c>
       <c r="R417" s="3"/>
     </row>
-    <row r="418" spans="1:18">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A418" s="9"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -12766,7 +12799,7 @@
         <v>121</v>
       </c>
       <c r="F418" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H418" s="2">
         <v>172</v>
@@ -12782,7 +12815,7 @@
       </c>
       <c r="R418" s="3"/>
     </row>
-    <row r="419" spans="1:18">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A419" s="9"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -12790,7 +12823,7 @@
         <v>49152</v>
       </c>
       <c r="E419" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F419" s="11"/>
       <c r="H419" s="2">
@@ -12807,7 +12840,7 @@
       </c>
       <c r="R419" s="3"/>
     </row>
-    <row r="420" spans="1:18">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A420" s="9"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -12815,10 +12848,10 @@
         <v>49153</v>
       </c>
       <c r="E420" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F420" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="F420" s="11" t="s">
-        <v>291</v>
       </c>
       <c r="H420" s="2">
         <v>172</v>
@@ -12834,9 +12867,9 @@
       </c>
       <c r="R420" s="3"/>
     </row>
-    <row r="421" spans="1:18">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A421" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -12863,7 +12896,7 @@
       </c>
       <c r="R421" s="3"/>
     </row>
-    <row r="422" spans="1:18">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A422" s="9"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -12874,7 +12907,7 @@
         <v>13</v>
       </c>
       <c r="F422" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H422" s="2">
         <v>172</v>
@@ -12890,9 +12923,9 @@
       </c>
       <c r="R422" s="3"/>
     </row>
-    <row r="423" spans="1:18">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A423" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -12917,9 +12950,9 @@
       </c>
       <c r="R423" s="3"/>
     </row>
-    <row r="424" spans="1:18">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A424" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
@@ -12946,7 +12979,7 @@
       </c>
       <c r="R424" s="3"/>
     </row>
-    <row r="425" spans="1:18">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A425" s="9"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -12971,9 +13004,9 @@
       </c>
       <c r="R425" s="3"/>
     </row>
-    <row r="426" spans="1:18">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A426" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -12984,7 +13017,7 @@
         <v>34</v>
       </c>
       <c r="F426" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H426" s="2">
         <v>172</v>
@@ -13000,7 +13033,7 @@
       </c>
       <c r="R426" s="3"/>
     </row>
-    <row r="427" spans="1:18">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A427" s="9"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -13011,7 +13044,7 @@
         <v>80</v>
       </c>
       <c r="F427" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H427" s="2">
         <v>172</v>
@@ -13027,7 +13060,7 @@
       </c>
       <c r="R427" s="3"/>
     </row>
-    <row r="428" spans="1:18">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A428" s="9"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -13054,7 +13087,7 @@
       </c>
       <c r="R428" s="3"/>
     </row>
-    <row r="429" spans="1:18" ht="30">
+    <row r="429" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A429" s="9"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -13065,7 +13098,7 @@
         <v>13</v>
       </c>
       <c r="F429" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H429" s="2">
         <v>172</v>
@@ -13081,7 +13114,7 @@
       </c>
       <c r="R429" s="3"/>
     </row>
-    <row r="430" spans="1:18">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A430" s="9"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -13106,7 +13139,7 @@
       </c>
       <c r="R430" s="3"/>
     </row>
-    <row r="431" spans="1:18" ht="30">
+    <row r="431" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A431" s="9"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -13117,7 +13150,7 @@
         <v>37</v>
       </c>
       <c r="F431" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H431" s="2">
         <v>172</v>
@@ -13133,7 +13166,7 @@
       </c>
       <c r="R431" s="3"/>
     </row>
-    <row r="432" spans="1:18">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A432" s="9"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -13141,7 +13174,7 @@
         <v>515</v>
       </c>
       <c r="E432" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F432" s="11"/>
       <c r="H432" s="2">
@@ -13158,7 +13191,7 @@
       </c>
       <c r="R432" s="3"/>
     </row>
-    <row r="433" spans="1:18" ht="30">
+    <row r="433" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A433" s="9"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -13169,7 +13202,7 @@
         <v>13</v>
       </c>
       <c r="F433" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H433" s="2">
         <v>172</v>
@@ -13185,7 +13218,7 @@
       </c>
       <c r="R433" s="3"/>
     </row>
-    <row r="434" spans="1:18">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A434" s="9"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -13193,7 +13226,7 @@
         <v>9100</v>
       </c>
       <c r="E434" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F434" s="11"/>
       <c r="H434" s="2">
@@ -13210,9 +13243,9 @@
       </c>
       <c r="R434" s="3"/>
     </row>
-    <row r="435" spans="1:18">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A435" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -13223,7 +13256,7 @@
         <v>34</v>
       </c>
       <c r="F435" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H435" s="2">
         <v>172</v>
@@ -13239,7 +13272,7 @@
       </c>
       <c r="R435" s="3"/>
     </row>
-    <row r="436" spans="1:18">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A436" s="9"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -13250,7 +13283,7 @@
         <v>80</v>
       </c>
       <c r="F436" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H436" s="2">
         <v>172</v>
@@ -13266,7 +13299,7 @@
       </c>
       <c r="R436" s="3"/>
     </row>
-    <row r="437" spans="1:18">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A437" s="9"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -13293,7 +13326,7 @@
       </c>
       <c r="R437" s="3"/>
     </row>
-    <row r="438" spans="1:18" ht="30">
+    <row r="438" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A438" s="9"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -13304,7 +13337,7 @@
         <v>13</v>
       </c>
       <c r="F438" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H438" s="2">
         <v>172</v>
@@ -13320,7 +13353,7 @@
       </c>
       <c r="R438" s="3"/>
     </row>
-    <row r="439" spans="1:18">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A439" s="9"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -13345,7 +13378,7 @@
       </c>
       <c r="R439" s="3"/>
     </row>
-    <row r="440" spans="1:18" ht="30">
+    <row r="440" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A440" s="9"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -13356,7 +13389,7 @@
         <v>37</v>
       </c>
       <c r="F440" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H440" s="2">
         <v>172</v>
@@ -13372,7 +13405,7 @@
       </c>
       <c r="R440" s="3"/>
     </row>
-    <row r="441" spans="1:18">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A441" s="9"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -13380,7 +13413,7 @@
         <v>515</v>
       </c>
       <c r="E441" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F441" s="11"/>
       <c r="H441" s="2">
@@ -13397,7 +13430,7 @@
       </c>
       <c r="R441" s="3"/>
     </row>
-    <row r="442" spans="1:18" ht="30">
+    <row r="442" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A442" s="9"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -13408,7 +13441,7 @@
         <v>13</v>
       </c>
       <c r="F442" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H442" s="2">
         <v>172</v>
@@ -13424,7 +13457,7 @@
       </c>
       <c r="R442" s="3"/>
     </row>
-    <row r="443" spans="1:18">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A443" s="9"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -13432,7 +13465,7 @@
         <v>9100</v>
       </c>
       <c r="E443" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F443" s="11"/>
       <c r="H443" s="2">
@@ -13449,9 +13482,9 @@
       </c>
       <c r="R443" s="3"/>
     </row>
-    <row r="444" spans="1:18">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A444" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -13478,7 +13511,7 @@
       </c>
       <c r="R444" s="3"/>
     </row>
-    <row r="445" spans="1:18">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A445" s="9"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -13503,7 +13536,7 @@
       </c>
       <c r="R445" s="3"/>
     </row>
-    <row r="446" spans="1:18">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A446" s="9"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -13530,7 +13563,7 @@
       </c>
       <c r="R446" s="3"/>
     </row>
-    <row r="447" spans="1:18" ht="30">
+    <row r="447" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A447" s="9"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -13541,7 +13574,7 @@
         <v>13</v>
       </c>
       <c r="F447" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H447" s="2">
         <v>172</v>
@@ -13557,7 +13590,7 @@
       </c>
       <c r="R447" s="3"/>
     </row>
-    <row r="448" spans="1:18">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A448" s="9"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
@@ -13582,7 +13615,7 @@
       </c>
       <c r="R448" s="3"/>
     </row>
-    <row r="449" spans="1:18">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A449" s="9"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -13607,7 +13640,7 @@
       </c>
       <c r="R449" s="3"/>
     </row>
-    <row r="450" spans="1:18" ht="30">
+    <row r="450" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A450" s="9"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -13618,7 +13651,7 @@
         <v>13</v>
       </c>
       <c r="F450" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H450" s="2">
         <v>172</v>
@@ -13634,9 +13667,9 @@
       </c>
       <c r="R450" s="3"/>
     </row>
-    <row r="451" spans="1:18">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A451" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -13663,7 +13696,7 @@
       </c>
       <c r="R451" s="3"/>
     </row>
-    <row r="452" spans="1:18">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A452" s="9"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -13688,7 +13721,7 @@
       </c>
       <c r="R452" s="3"/>
     </row>
-    <row r="453" spans="1:18">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A453" s="9"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -13715,7 +13748,7 @@
       </c>
       <c r="R453" s="3"/>
     </row>
-    <row r="454" spans="1:18">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A454" s="9"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -13726,7 +13759,7 @@
         <v>13</v>
       </c>
       <c r="F454" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H454" s="2">
         <v>172</v>
@@ -13742,7 +13775,7 @@
       </c>
       <c r="R454" s="3"/>
     </row>
-    <row r="455" spans="1:18">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A455" s="9"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -13767,7 +13800,7 @@
       </c>
       <c r="R455" s="3"/>
     </row>
-    <row r="456" spans="1:18">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A456" s="9"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -13792,7 +13825,7 @@
       </c>
       <c r="R456" s="3"/>
     </row>
-    <row r="457" spans="1:18">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A457" s="9"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -13803,7 +13836,7 @@
         <v>62</v>
       </c>
       <c r="F457" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H457" s="2">
         <v>172</v>
@@ -13819,9 +13852,9 @@
       </c>
       <c r="R457" s="3"/>
     </row>
-    <row r="458" spans="1:18">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A458" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
@@ -13848,7 +13881,7 @@
       </c>
       <c r="R458" s="3"/>
     </row>
-    <row r="459" spans="1:18">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A459" s="9"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -13873,7 +13906,7 @@
       </c>
       <c r="R459" s="3"/>
     </row>
-    <row r="460" spans="1:18">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A460" s="9"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -13900,7 +13933,7 @@
       </c>
       <c r="R460" s="3"/>
     </row>
-    <row r="461" spans="1:18" ht="30">
+    <row r="461" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A461" s="9"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -13911,7 +13944,7 @@
         <v>13</v>
       </c>
       <c r="F461" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H461" s="2">
         <v>172</v>
@@ -13927,7 +13960,7 @@
       </c>
       <c r="R461" s="3"/>
     </row>
-    <row r="462" spans="1:18">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A462" s="9"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -13952,7 +13985,7 @@
       </c>
       <c r="R462" s="3"/>
     </row>
-    <row r="463" spans="1:18">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A463" s="9"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -13977,7 +14010,7 @@
       </c>
       <c r="R463" s="3"/>
     </row>
-    <row r="464" spans="1:18" ht="30">
+    <row r="464" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A464" s="9"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -13988,7 +14021,7 @@
         <v>13</v>
       </c>
       <c r="F464" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H464" s="2">
         <v>172</v>
@@ -14004,9 +14037,9 @@
       </c>
       <c r="R464" s="3"/>
     </row>
-    <row r="465" spans="1:18">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A465" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -14033,7 +14066,7 @@
       </c>
       <c r="R465" s="3"/>
     </row>
-    <row r="466" spans="1:18">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A466" s="9"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
@@ -14058,7 +14091,7 @@
       </c>
       <c r="R466" s="3"/>
     </row>
-    <row r="467" spans="1:18">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A467" s="9"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -14085,7 +14118,7 @@
       </c>
       <c r="R467" s="3"/>
     </row>
-    <row r="468" spans="1:18" ht="30">
+    <row r="468" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A468" s="9"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -14096,7 +14129,7 @@
         <v>13</v>
       </c>
       <c r="F468" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H468" s="2">
         <v>172</v>
@@ -14112,7 +14145,7 @@
       </c>
       <c r="R468" s="3"/>
     </row>
-    <row r="469" spans="1:18">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A469" s="9"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -14137,7 +14170,7 @@
       </c>
       <c r="R469" s="3"/>
     </row>
-    <row r="470" spans="1:18">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A470" s="9"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -14162,7 +14195,7 @@
       </c>
       <c r="R470" s="3"/>
     </row>
-    <row r="471" spans="1:18" ht="30">
+    <row r="471" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A471" s="9"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -14173,7 +14206,7 @@
         <v>13</v>
       </c>
       <c r="F471" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H471" s="2">
         <v>172</v>
@@ -14189,9 +14222,9 @@
       </c>
       <c r="R471" s="3"/>
     </row>
-    <row r="472" spans="1:18">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A472" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -14218,7 +14251,7 @@
       </c>
       <c r="R472" s="3"/>
     </row>
-    <row r="473" spans="1:18">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A473" s="9"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -14243,7 +14276,7 @@
       </c>
       <c r="R473" s="3"/>
     </row>
-    <row r="474" spans="1:18">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A474" s="9"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -14270,7 +14303,7 @@
       </c>
       <c r="R474" s="3"/>
     </row>
-    <row r="475" spans="1:18" ht="30">
+    <row r="475" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A475" s="9"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -14281,7 +14314,7 @@
         <v>13</v>
       </c>
       <c r="F475" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H475" s="2">
         <v>172</v>
@@ -14297,7 +14330,7 @@
       </c>
       <c r="R475" s="3"/>
     </row>
-    <row r="476" spans="1:18">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A476" s="9"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -14322,7 +14355,7 @@
       </c>
       <c r="R476" s="3"/>
     </row>
-    <row r="477" spans="1:18">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A477" s="9"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -14347,7 +14380,7 @@
       </c>
       <c r="R477" s="3"/>
     </row>
-    <row r="478" spans="1:18" ht="30">
+    <row r="478" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A478" s="9"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -14358,7 +14391,7 @@
         <v>13</v>
       </c>
       <c r="F478" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H478" s="2">
         <v>172</v>
@@ -14374,9 +14407,9 @@
       </c>
       <c r="R478" s="3"/>
     </row>
-    <row r="479" spans="1:18">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A479" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -14403,7 +14436,7 @@
       </c>
       <c r="R479" s="3"/>
     </row>
-    <row r="480" spans="1:18">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A480" s="9"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -14428,7 +14461,7 @@
       </c>
       <c r="R480" s="3"/>
     </row>
-    <row r="481" spans="1:18">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A481" s="9"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -14455,7 +14488,7 @@
       </c>
       <c r="R481" s="3"/>
     </row>
-    <row r="482" spans="1:18" ht="30">
+    <row r="482" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A482" s="9"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -14466,7 +14499,7 @@
         <v>13</v>
       </c>
       <c r="F482" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H482" s="2">
         <v>172</v>
@@ -14482,7 +14515,7 @@
       </c>
       <c r="R482" s="3"/>
     </row>
-    <row r="483" spans="1:18">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A483" s="9"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -14507,7 +14540,7 @@
       </c>
       <c r="R483" s="3"/>
     </row>
-    <row r="484" spans="1:18">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A484" s="9"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -14532,7 +14565,7 @@
       </c>
       <c r="R484" s="3"/>
     </row>
-    <row r="485" spans="1:18" ht="30">
+    <row r="485" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A485" s="9"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -14543,7 +14576,7 @@
         <v>13</v>
       </c>
       <c r="F485" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H485" s="2">
         <v>172</v>
@@ -14559,9 +14592,9 @@
       </c>
       <c r="R485" s="3"/>
     </row>
-    <row r="486" spans="1:18">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A486" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -14588,7 +14621,7 @@
       </c>
       <c r="R486" s="3"/>
     </row>
-    <row r="487" spans="1:18">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A487" s="9"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -14613,7 +14646,7 @@
       </c>
       <c r="R487" s="3"/>
     </row>
-    <row r="488" spans="1:18">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A488" s="9"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
@@ -14640,7 +14673,7 @@
       </c>
       <c r="R488" s="3"/>
     </row>
-    <row r="489" spans="1:18" ht="30">
+    <row r="489" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A489" s="9"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -14651,7 +14684,7 @@
         <v>13</v>
       </c>
       <c r="F489" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H489" s="2">
         <v>172</v>
@@ -14667,7 +14700,7 @@
       </c>
       <c r="R489" s="3"/>
     </row>
-    <row r="490" spans="1:18">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A490" s="9"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
@@ -14692,7 +14725,7 @@
       </c>
       <c r="R490" s="3"/>
     </row>
-    <row r="491" spans="1:18">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A491" s="9"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -14717,7 +14750,7 @@
       </c>
       <c r="R491" s="3"/>
     </row>
-    <row r="492" spans="1:18" ht="30">
+    <row r="492" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A492" s="9"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
@@ -14728,7 +14761,7 @@
         <v>13</v>
       </c>
       <c r="F492" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H492" s="2">
         <v>172</v>
@@ -14744,9 +14777,9 @@
       </c>
       <c r="R492" s="3"/>
     </row>
-    <row r="493" spans="1:18">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A493" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
@@ -14773,7 +14806,7 @@
       </c>
       <c r="R493" s="3"/>
     </row>
-    <row r="494" spans="1:18">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A494" s="9"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
@@ -14798,7 +14831,7 @@
       </c>
       <c r="R494" s="3"/>
     </row>
-    <row r="495" spans="1:18">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A495" s="9"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -14825,7 +14858,7 @@
       </c>
       <c r="R495" s="3"/>
     </row>
-    <row r="496" spans="1:18" ht="30">
+    <row r="496" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A496" s="9"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
@@ -14836,7 +14869,7 @@
         <v>13</v>
       </c>
       <c r="F496" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H496" s="2">
         <v>172</v>
@@ -14852,7 +14885,7 @@
       </c>
       <c r="R496" s="3"/>
     </row>
-    <row r="497" spans="1:18">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A497" s="9"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -14877,7 +14910,7 @@
       </c>
       <c r="R497" s="3"/>
     </row>
-    <row r="498" spans="1:18">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A498" s="9"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
@@ -14902,7 +14935,7 @@
       </c>
       <c r="R498" s="3"/>
     </row>
-    <row r="499" spans="1:18" ht="30">
+    <row r="499" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A499" s="9"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -14913,7 +14946,7 @@
         <v>13</v>
       </c>
       <c r="F499" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H499" s="2">
         <v>172</v>
@@ -14929,9 +14962,9 @@
       </c>
       <c r="R499" s="3"/>
     </row>
-    <row r="500" spans="1:18">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A500" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
@@ -14958,7 +14991,7 @@
       </c>
       <c r="R500" s="3"/>
     </row>
-    <row r="501" spans="1:18">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A501" s="9"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
@@ -14983,7 +15016,7 @@
       </c>
       <c r="R501" s="3"/>
     </row>
-    <row r="502" spans="1:18">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A502" s="9"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
@@ -15010,7 +15043,7 @@
       </c>
       <c r="R502" s="3"/>
     </row>
-    <row r="503" spans="1:18" ht="30">
+    <row r="503" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A503" s="9"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -15021,7 +15054,7 @@
         <v>13</v>
       </c>
       <c r="F503" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H503" s="2">
         <v>172</v>
@@ -15037,7 +15070,7 @@
       </c>
       <c r="R503" s="3"/>
     </row>
-    <row r="504" spans="1:18">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A504" s="9"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
@@ -15062,7 +15095,7 @@
       </c>
       <c r="R504" s="3"/>
     </row>
-    <row r="505" spans="1:18">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A505" s="9"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -15087,7 +15120,7 @@
       </c>
       <c r="R505" s="3"/>
     </row>
-    <row r="506" spans="1:18" ht="30">
+    <row r="506" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A506" s="9"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
@@ -15098,7 +15131,7 @@
         <v>13</v>
       </c>
       <c r="F506" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H506" s="2">
         <v>172</v>
@@ -15114,9 +15147,9 @@
       </c>
       <c r="R506" s="3"/>
     </row>
-    <row r="507" spans="1:18">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A507" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -15143,7 +15176,7 @@
       </c>
       <c r="R507" s="3"/>
     </row>
-    <row r="508" spans="1:18">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A508" s="9"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
@@ -15168,7 +15201,7 @@
       </c>
       <c r="R508" s="3"/>
     </row>
-    <row r="509" spans="1:18">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A509" s="9"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -15195,7 +15228,7 @@
       </c>
       <c r="R509" s="3"/>
     </row>
-    <row r="510" spans="1:18" ht="30">
+    <row r="510" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A510" s="9"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
@@ -15206,7 +15239,7 @@
         <v>13</v>
       </c>
       <c r="F510" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H510" s="2">
         <v>172</v>
@@ -15222,7 +15255,7 @@
       </c>
       <c r="R510" s="3"/>
     </row>
-    <row r="511" spans="1:18">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A511" s="9"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -15247,7 +15280,7 @@
       </c>
       <c r="R511" s="3"/>
     </row>
-    <row r="512" spans="1:18">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A512" s="9"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -15272,7 +15305,7 @@
       </c>
       <c r="R512" s="3"/>
     </row>
-    <row r="513" spans="1:18" ht="30">
+    <row r="513" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A513" s="9"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
@@ -15283,7 +15316,7 @@
         <v>13</v>
       </c>
       <c r="F513" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H513" s="2">
         <v>172</v>
@@ -15299,9 +15332,9 @@
       </c>
       <c r="R513" s="3"/>
     </row>
-    <row r="514" spans="1:18">
+    <row r="514" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A514" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
@@ -15328,7 +15361,7 @@
       </c>
       <c r="R514" s="3"/>
     </row>
-    <row r="515" spans="1:18">
+    <row r="515" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A515" s="9"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -15353,7 +15386,7 @@
       </c>
       <c r="R515" s="3"/>
     </row>
-    <row r="516" spans="1:18">
+    <row r="516" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A516" s="9"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
@@ -15380,7 +15413,7 @@
       </c>
       <c r="R516" s="3"/>
     </row>
-    <row r="517" spans="1:18" ht="30">
+    <row r="517" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A517" s="9"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -15391,7 +15424,7 @@
         <v>13</v>
       </c>
       <c r="F517" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H517" s="2">
         <v>172</v>
@@ -15407,7 +15440,7 @@
       </c>
       <c r="R517" s="3"/>
     </row>
-    <row r="518" spans="1:18">
+    <row r="518" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A518" s="9"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
@@ -15432,7 +15465,7 @@
       </c>
       <c r="R518" s="3"/>
     </row>
-    <row r="519" spans="1:18">
+    <row r="519" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A519" s="9"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -15457,7 +15490,7 @@
       </c>
       <c r="R519" s="3"/>
     </row>
-    <row r="520" spans="1:18" ht="30">
+    <row r="520" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A520" s="9"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
@@ -15468,7 +15501,7 @@
         <v>13</v>
       </c>
       <c r="F520" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H520" s="2">
         <v>172</v>
@@ -15484,9 +15517,9 @@
       </c>
       <c r="R520" s="3"/>
     </row>
-    <row r="521" spans="1:18">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A521" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -15513,7 +15546,7 @@
       </c>
       <c r="R521" s="3"/>
     </row>
-    <row r="522" spans="1:18">
+    <row r="522" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A522" s="9"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
@@ -15538,9 +15571,9 @@
       </c>
       <c r="R522" s="3"/>
     </row>
-    <row r="523" spans="1:18">
+    <row r="523" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A523" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -15551,7 +15584,7 @@
         <v>34</v>
       </c>
       <c r="F523" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H523" s="2">
         <v>172</v>
@@ -15567,7 +15600,7 @@
       </c>
       <c r="R523" s="3"/>
     </row>
-    <row r="524" spans="1:18">
+    <row r="524" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A524" s="9"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
@@ -15578,7 +15611,7 @@
         <v>80</v>
       </c>
       <c r="F524" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H524" s="2">
         <v>172</v>
@@ -15594,7 +15627,7 @@
       </c>
       <c r="R524" s="3"/>
     </row>
-    <row r="525" spans="1:18">
+    <row r="525" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A525" s="9"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
@@ -15621,7 +15654,7 @@
       </c>
       <c r="R525" s="3"/>
     </row>
-    <row r="526" spans="1:18" ht="30">
+    <row r="526" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A526" s="9"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
@@ -15632,7 +15665,7 @@
         <v>13</v>
       </c>
       <c r="F526" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H526" s="2">
         <v>172</v>
@@ -15648,7 +15681,7 @@
       </c>
       <c r="R526" s="3"/>
     </row>
-    <row r="527" spans="1:18">
+    <row r="527" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A527" s="9"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
@@ -15673,7 +15706,7 @@
       </c>
       <c r="R527" s="3"/>
     </row>
-    <row r="528" spans="1:18">
+    <row r="528" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A528" s="9"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
@@ -15681,7 +15714,7 @@
         <v>631</v>
       </c>
       <c r="E528" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F528" s="11"/>
       <c r="H528" s="2">
@@ -15698,7 +15731,7 @@
       </c>
       <c r="R528" s="3"/>
     </row>
-    <row r="529" spans="1:18">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A529" s="9"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
@@ -15706,7 +15739,7 @@
         <v>9100</v>
       </c>
       <c r="E529" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F529" s="11"/>
       <c r="H529" s="2">
@@ -15723,9 +15756,9 @@
       </c>
       <c r="R529" s="3"/>
     </row>
-    <row r="530" spans="1:18">
+    <row r="530" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A530" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
@@ -15752,7 +15785,7 @@
       </c>
       <c r="R530" s="3"/>
     </row>
-    <row r="531" spans="1:18" ht="30">
+    <row r="531" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A531" s="9"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
@@ -15763,7 +15796,7 @@
         <v>13</v>
       </c>
       <c r="F531" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H531" s="2">
         <v>172</v>
@@ -15779,7 +15812,7 @@
       </c>
       <c r="R531" s="3"/>
     </row>
-    <row r="532" spans="1:18">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A532" s="9"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
@@ -15804,7 +15837,7 @@
       </c>
       <c r="R532" s="3"/>
     </row>
-    <row r="533" spans="1:18">
+    <row r="533" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A533" s="9"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
@@ -15812,7 +15845,7 @@
         <v>427</v>
       </c>
       <c r="E533" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F533" s="11"/>
       <c r="H533" s="2">
@@ -15828,7 +15861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="534" spans="1:18">
+    <row r="534" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A534" s="9"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
@@ -15836,7 +15869,7 @@
         <v>443</v>
       </c>
       <c r="E534" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F534" s="11"/>
       <c r="H534" s="2">
@@ -15852,7 +15885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="535" spans="1:18">
+    <row r="535" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A535" s="9"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
@@ -15860,7 +15893,7 @@
         <v>515</v>
       </c>
       <c r="E535" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F535" s="11"/>
       <c r="H535" s="2">
@@ -15876,7 +15909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="536" spans="1:18" ht="30">
+    <row r="536" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A536" s="9"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
@@ -15884,10 +15917,10 @@
         <v>631</v>
       </c>
       <c r="E536" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F536" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H536" s="2">
         <v>172</v>
@@ -15902,7 +15935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="537" spans="1:18">
+    <row r="537" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A537" s="9"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
@@ -15910,7 +15943,7 @@
         <v>9100</v>
       </c>
       <c r="E537" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F537" s="11"/>
       <c r="H537" s="2">
@@ -15926,9 +15959,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="538" spans="1:18">
+    <row r="538" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A538" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
@@ -15954,7 +15987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="539" spans="1:18">
+    <row r="539" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A539" s="9"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
@@ -15978,7 +16011,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="540" spans="1:18">
+    <row r="540" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A540" s="9"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
@@ -16004,7 +16037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="541" spans="1:18" ht="30">
+    <row r="541" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A541" s="9"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
@@ -16015,7 +16048,7 @@
         <v>13</v>
       </c>
       <c r="F541" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H541" s="2">
         <v>172</v>
@@ -16030,7 +16063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="542" spans="1:18">
+    <row r="542" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A542" s="9"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
@@ -16054,7 +16087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="543" spans="1:18">
+    <row r="543" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A543" s="9"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
@@ -16078,7 +16111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="544" spans="1:18" ht="30">
+    <row r="544" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A544" s="9"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
@@ -16089,7 +16122,7 @@
         <v>13</v>
       </c>
       <c r="F544" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H544" s="2">
         <v>172</v>

--- a/KGS/KGS.xlsx
+++ b/KGS/KGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\dotfiles\KGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B00C81-34DA-40F8-B2C4-6385236AD665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2912CF19-9918-4E45-B549-402490960B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{D273C349-3FD2-4362-B0B1-9863D35FF8F5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="321">
   <si>
     <t>Interesting shit</t>
   </si>
@@ -231,17 +231,6 @@
     <t>Samba smbd 3.X - 4.X workgroup: WORKGROUP</t>
   </si>
   <si>
-    <t xml:space="preserve">| smb-security-mode: 
-|   account_used: guest
-|   authentication_level: user
-|   challenge_response: supported
-|_  message_signing: disabled (dangerous, but default)
-| smb2-security-mode: 
-|   2.02: 
-|_    Message signing enabled but not required
-</t>
-  </si>
-  <si>
     <t>nfs</t>
   </si>
   <si>
@@ -303,7 +292,824 @@
     <t>Netatalk 3.1.12 name: FFEinfeldNAS; protocol 3.4</t>
   </si>
   <si>
-    <t xml:space="preserve">| afp-serverinfo: 
+    <t>BaseHTTPServer 0.6 Python 3.7.3</t>
+  </si>
+  <si>
+    <t>8001
+8002</t>
+  </si>
+  <si>
+    <t>?json?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| fingerprint-strings: 
+|   FourOhFourRequest, GetRequest: 
+|     HTTP/1.0 404 Not Found
+|     Content-Type: application/json
+|     Vary: Origin
+|     Date: Sat, 14 Aug 2021 21:21:25 GMT
+|     Content-Length: 40
+|     {"key":"notFound","message":"Not Found"}
+|   GenericLines, Help, Kerberos, LDAPSearchReq, LPDString, RTSPRequest, SSLSessionReq, TLSSessionReq, TerminalServerCookie: 
+|     HTTP/1.1 400 Bad Request
+|     Content-Type: text/plain; charset=utf-8
+|     Connection: close
+|     Request
+|   HTTPOptions: 
+|     HTTP/1.0 200 OK
+|     Vary: Origin
+|     Vary: Access-Control-Request-Method
+|     Vary: Access-Control-Request-Headers
+|     Date: Sat, 14 Aug 2021 21:21:25 GMT
+|_    Content-Length: 0
+</t>
+  </si>
+  <si>
+    <t>upnp</t>
+  </si>
+  <si>
+    <t>Portable SDK for UPnP devices 1.8.4 Linux 4.14.22-armada-18.09.3; UPnP 1.0</t>
+  </si>
+  <si>
+    <t>172.29.61.122</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>telnet</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>172.29.110.33</t>
+  </si>
+  <si>
+    <t>LANCOM router</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>lancom sshd protocol 2.0</t>
+  </si>
+  <si>
+    <t>good firewall</t>
+  </si>
+  <si>
+    <t>Lancom L-310agn wireless router http config 8.80.0219 / 20.10.2017</t>
+  </si>
+  <si>
+    <t>ssl/https</t>
+  </si>
+  <si>
+    <t>172.29.160.254</t>
+  </si>
+  <si>
+    <t>Linux Schul-Server</t>
+  </si>
+  <si>
+    <t>OpenSSH 7.9p1 protocol 2.0</t>
+  </si>
+  <si>
+    <t>Exim smtpd</t>
+  </si>
+  <si>
+    <t> 88</t>
+  </si>
+  <si>
+    <t>   kerberos-sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heimdal</t>
+  </si>
+  <si>
+    <t>nginx 1.14.2</t>
+  </si>
+  <si>
+    <t>pop3</t>
+  </si>
+  <si>
+    <t>Samba smbd 3.X - 4.X workgroup: SCHULE</t>
+  </si>
+  <si>
+    <t>imap</t>
+  </si>
+  <si>
+    <t>Cyrus imapd 3.0.8</t>
+  </si>
+  <si>
+    <t> 389</t>
+  </si>
+  <si>
+    <t>ldap</t>
+  </si>
+  <si>
+    <t> 464</t>
+  </si>
+  <si>
+    <t>kpasswd5</t>
+  </si>
+  <si>
+    <t>IServ Login</t>
+  </si>
+  <si>
+    <t>ssl/smtp</t>
+  </si>
+  <si>
+    <t> 631</t>
+  </si>
+  <si>
+    <t>   ipp</t>
+  </si>
+  <si>
+    <t>  CUPS</t>
+  </si>
+  <si>
+    <t> 636</t>
+  </si>
+  <si>
+    <t>   ssl/ldap</t>
+  </si>
+  <si>
+    <t>  Anonymous</t>
+  </si>
+  <si>
+    <t>ssl/imap</t>
+  </si>
+  <si>
+    <t>ssl/pop3</t>
+  </si>
+  <si>
+    <t> 3268</t>
+  </si>
+  <si>
+    <t>   ldap</t>
+  </si>
+  <si>
+    <t> 3269</t>
+  </si>
+  <si>
+    <t>Squid http proxy 4.6</t>
+  </si>
+  <si>
+    <t>172.29.164.92</t>
+  </si>
+  <si>
+    <t>uc-httpd 1.0.0</t>
+  </si>
+  <si>
+    <t>rtsp</t>
+  </si>
+  <si>
+    <t>H264DVR rtspd 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|_rtsp-methods: OPTIONS, DESCRIBE, SETUP, TEARDOWN, GET_PARAMETER, SET_PARAMETER, PLAY, PAUSE
+</t>
+  </si>
+  <si>
+    <t>http-alt</t>
+  </si>
+  <si>
+    <t>172.29.168.10</t>
+  </si>
+  <si>
+    <t>IKS-Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| rpcinfo: 
+|   program version    port/proto  service
+|   100000  2            111/tcp   rpcbind
+|   100000  2            111/udp   rpcbind
+|   100024  1            862/udp   status
+|_  100024  1            865/tcp   status
+</t>
+  </si>
+  <si>
+    <t>Samba smbd 3.X - 4.X workgroup: IKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| nbstat: NetBIOS name: IKS-FS, NetBIOS user: &lt;unknown&gt;, NetBIOS MAC: &lt;unknown&gt; (unknown)
+| Names:
+|   IKS-FS&lt;00&gt;           Flags: &lt;unique&gt;&lt;active&gt;
+|   IKS-FS&lt;03&gt;           Flags: &lt;unique&gt;&lt;active&gt;
+|   IKS-FS&lt;20&gt;           Flags: &lt;unique&gt;&lt;active&gt;
+|   \x01\x02__MSBROWSE__\x02&lt;01&gt;  Flags: &lt;group&gt;&lt;active&gt;
+|   IKS&lt;1d&gt;              Flags: &lt;unique&gt;&lt;active&gt;
+|   IKS&lt;1e&gt;              Flags: &lt;group&gt;&lt;active&gt;
+|   IKS&lt;00&gt;              Flags: &lt;group&gt;&lt;active&gt;
+</t>
+  </si>
+  <si>
+    <t>172.29.168.130</t>
+  </si>
+  <si>
+    <t>Airtunes????</t>
+  </si>
+  <si>
+    <t>AirTunes rtspd 550.10</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>172.29.172.167</t>
+  </si>
+  <si>
+    <t>Raspi-Server</t>
+  </si>
+  <si>
+    <t>OpenSSH 7.9p1 Raspbian 10+deb10u2 protocol 2.0</t>
+  </si>
+  <si>
+    <t>tcpwrapped</t>
+  </si>
+  <si>
+    <t>lighttpd 1.4.53</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>vnc</t>
+  </si>
+  <si>
+    <t>RealVNC Enterprise 5.3 or later protocol 5.0</t>
+  </si>
+  <si>
+    <t>ssl/realserver</t>
+  </si>
+  <si>
+    <t>172.29.204.8</t>
+  </si>
+  <si>
+    <t>EHKS-Server</t>
+  </si>
+  <si>
+    <t>Apache httpd 1.3.33 (Unix) DAV/1.0.3 PHP/4.3.11</t>
+  </si>
+  <si>
+    <t>Samba smbd 3.X - 4.X workgroup: EHKS-VERWALTUNG</t>
+  </si>
+  <si>
+    <t>Apache/1.3.33 (Unix) DAV/1.0.3 PHP/4.3.11</t>
+  </si>
+  <si>
+    <t>172.29.212.30</t>
+  </si>
+  <si>
+    <t>EHKS-Server-2</t>
+  </si>
+  <si>
+    <t>OpenSSH 6.0p1 Debian 4+deb7u2 protocol 2.0</t>
+  </si>
+  <si>
+    <t>Apache httpd 2.2.22 (Debian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| rpcinfo: 
+|   program version    port/proto  service
+|   100000  2,3,4        111/tcp   rpcbind
+|   100000  2,3,4        111/udp   rpcbind
+|   100000  3,4          111/tcp6  rpcbind
+|   100000  3,4          111/udp6  rpcbind
+|   100024  1          39698/udp6  status
+|   100024  1          44923/udp   status
+|   100024  1          45381/tcp6  status
+|_  100024  1          45741/tcp   status
+</t>
+  </si>
+  <si>
+    <t>Samba smbd 3.X - 4.X workgroup: DE</t>
+  </si>
+  <si>
+    <t>Domain name: ehks.intra.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| smb-security-mode: 
+|   account_used: guest
+|   authentication_level: user
+|   challenge_response: supported
+|_  message_signing: disabled (dangerous, but default)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samba SWAT administration server</t>
+  </si>
+  <si>
+    <t>Ntop web interface</t>
+  </si>
+  <si>
+    <t>Network interfaces</t>
+  </si>
+  <si>
+    <t>172.29.240.254</t>
+  </si>
+  <si>
+    <t>Drucker/Router</t>
+  </si>
+  <si>
+    <t>172.29.0.1</t>
+  </si>
+  <si>
+    <t>Sophos Router</t>
+  </si>
+  <si>
+    <t>172.29.0.7</t>
+  </si>
+  <si>
+    <t>172.29.1.1</t>
+  </si>
+  <si>
+    <t>172.29.1.37</t>
+  </si>
+  <si>
+    <t>172.29.1.62</t>
+  </si>
+  <si>
+    <t>172.29.2.1</t>
+  </si>
+  <si>
+    <t>172.29.52.1</t>
+  </si>
+  <si>
+    <t>172.29.61.1</t>
+  </si>
+  <si>
+    <t>172.29.61.45</t>
+  </si>
+  <si>
+    <t>TP RE300 Router</t>
+  </si>
+  <si>
+    <t>Dropbear sshd 2011.54 protocol 2.0</t>
+  </si>
+  <si>
+    <t>x11</t>
+  </si>
+  <si>
+    <t>x11:1</t>
+  </si>
+  <si>
+    <t>172.29.64.1</t>
+  </si>
+  <si>
+    <t>172.29.64.51</t>
+  </si>
+  <si>
+    <t>172.29.68.1</t>
+  </si>
+  <si>
+    <t>172.29.90.1</t>
+  </si>
+  <si>
+    <t>172.29.93.1</t>
+  </si>
+  <si>
+    <t>172.29.110.1</t>
+  </si>
+  <si>
+    <t>172.29.112.1</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>172.29.112.30</t>
+  </si>
+  <si>
+    <t>HP-LaserJet</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>gSOAP 2.7</t>
+  </si>
+  <si>
+    <t>ssl/tcpwrapped</t>
+  </si>
+  <si>
+    <t>printer</t>
+  </si>
+  <si>
+    <t>172.29.114.1</t>
+  </si>
+  <si>
+    <t>172.29.120.1</t>
+  </si>
+  <si>
+    <t>172.29.120.28</t>
+  </si>
+  <si>
+    <t>172.29.120.96</t>
+  </si>
+  <si>
+    <t>Drucker</t>
+  </si>
+  <si>
+    <t>jetdirect</t>
+  </si>
+  <si>
+    <t>172.29.120.108</t>
+  </si>
+  <si>
+    <t>Konica Drucker</t>
+  </si>
+  <si>
+    <t>Kyocera MFP httpd 0.0.1</t>
+  </si>
+  <si>
+    <t>Konica Minolta bizhub C452 printer smbd</t>
+  </si>
+  <si>
+    <t>routersetup</t>
+  </si>
+  <si>
+    <t>Nortel/D-Link router instant setup</t>
+  </si>
+  <si>
+    <t>nagios-nsca</t>
+  </si>
+  <si>
+    <t>Nagios NSCA</t>
+  </si>
+  <si>
+    <t>172.29.122.1</t>
+  </si>
+  <si>
+    <t>172.29.122.161</t>
+  </si>
+  <si>
+    <t>172.29.122.188</t>
+  </si>
+  <si>
+    <t>172.29.122.219</t>
+  </si>
+  <si>
+    <t>172.29.124.1</t>
+  </si>
+  <si>
+    <t>172.29.124.66</t>
+  </si>
+  <si>
+    <t>172.29.124.200</t>
+  </si>
+  <si>
+    <t>172.29.126.1</t>
+  </si>
+  <si>
+    <t>172.29.126.43</t>
+  </si>
+  <si>
+    <t>172.29.126.160</t>
+  </si>
+  <si>
+    <t>172.29.128.1</t>
+  </si>
+  <si>
+    <t>172.29.130.30</t>
+  </si>
+  <si>
+    <t>172.29.132.1</t>
+  </si>
+  <si>
+    <t>172.29.132.34</t>
+  </si>
+  <si>
+    <t>Brother Drucker</t>
+  </si>
+  <si>
+    <t>Brother/HP printer ftpd 1.13</t>
+  </si>
+  <si>
+    <t>Brother/HP printer telnetd</t>
+  </si>
+  <si>
+    <t>Debut embedded httpd 1.20 Brother/HP printer http admin</t>
+  </si>
+  <si>
+    <t>ipp</t>
+  </si>
+  <si>
+    <t>172.29.134.1</t>
+  </si>
+  <si>
+    <t>172.29.134.21</t>
+  </si>
+  <si>
+    <t>Fritz!Box</t>
+  </si>
+  <si>
+    <t>FRITZ!Box http config</t>
+  </si>
+  <si>
+    <t>172.29.136.1</t>
+  </si>
+  <si>
+    <t>172.29.136.19</t>
+  </si>
+  <si>
+    <t>brother Drucker</t>
+  </si>
+  <si>
+    <t>Debut embedded httpd 1.30 Brother/HP printer http admin</t>
+  </si>
+  <si>
+    <t>172.29.136.198</t>
+  </si>
+  <si>
+    <t>Brother/HP printer ftpd 1.10</t>
+  </si>
+  <si>
+    <t>Debut embedded httpd 1.08 Brother/HP printer http admin</t>
+  </si>
+  <si>
+    <t>172.29.144.1</t>
+  </si>
+  <si>
+    <t>172.29.144.36</t>
+  </si>
+  <si>
+    <t>172.29.148.1</t>
+  </si>
+  <si>
+    <t>172.29.160.1</t>
+  </si>
+  <si>
+    <t>172.29.164.1</t>
+  </si>
+  <si>
+    <t>172.29.164.35</t>
+  </si>
+  <si>
+    <t>172.29.168.1</t>
+  </si>
+  <si>
+    <t>172.29.168.11</t>
+  </si>
+  <si>
+    <t>TP-LINK WA801N WAP http config</t>
+  </si>
+  <si>
+    <t>172.29.168.35</t>
+  </si>
+  <si>
+    <t>Brother printer smtpd</t>
+  </si>
+  <si>
+    <t>172.29.168.120</t>
+  </si>
+  <si>
+    <t>172.29.168.216</t>
+  </si>
+  <si>
+    <t>172.29.168.221</t>
+  </si>
+  <si>
+    <t>172.29.172.1</t>
+  </si>
+  <si>
+    <t>172.29.180.1</t>
+  </si>
+  <si>
+    <t>172.29.180.94</t>
+  </si>
+  <si>
+    <t>172.29.180.233</t>
+  </si>
+  <si>
+    <t>Kyocera Drucker</t>
+  </si>
+  <si>
+    <t>Ecosys P4040dn ftpd</t>
+  </si>
+  <si>
+    <t>Ecosys ipp</t>
+  </si>
+  <si>
+    <t>172.29.180.241</t>
+  </si>
+  <si>
+    <t>172.29.180.242</t>
+  </si>
+  <si>
+    <t>172.29.180.246</t>
+  </si>
+  <si>
+    <t>172.29.180.249</t>
+  </si>
+  <si>
+    <t>172.29.184.1</t>
+  </si>
+  <si>
+    <t>172.29.188.241</t>
+  </si>
+  <si>
+    <t>Brother Printer</t>
+  </si>
+  <si>
+    <t>172.29.192.1</t>
+  </si>
+  <si>
+    <t>172.29.196.190</t>
+  </si>
+  <si>
+    <t>172.29.200.1</t>
+  </si>
+  <si>
+    <t>172.29.200.13</t>
+  </si>
+  <si>
+    <t>172.29.200.15</t>
+  </si>
+  <si>
+    <t>172.29.200.34</t>
+  </si>
+  <si>
+    <t>LANCOM</t>
+  </si>
+  <si>
+    <t>172.29.200.35</t>
+  </si>
+  <si>
+    <t>172.29.200.36</t>
+  </si>
+  <si>
+    <t>172.29.200.37</t>
+  </si>
+  <si>
+    <t>Lancom L-321agn wireless router http config 8.62.0086 / 07.11.2012</t>
+  </si>
+  <si>
+    <t>172.29.200.38</t>
+  </si>
+  <si>
+    <t>172.29.200.168</t>
+  </si>
+  <si>
+    <t>172.29.204.1</t>
+  </si>
+  <si>
+    <t>172.29.204.11</t>
+  </si>
+  <si>
+    <t>172.29.204.12</t>
+  </si>
+  <si>
+    <t>172.29.204.14</t>
+  </si>
+  <si>
+    <t>HP JetDirect ftpd</t>
+  </si>
+  <si>
+    <t>HP JetDirect printer telnetd No password</t>
+  </si>
+  <si>
+    <t>HP-ChaiSOE 1.0 HP LaserJet http config</t>
+  </si>
+  <si>
+    <t>172.29.204.35</t>
+  </si>
+  <si>
+    <t>Kyocera FS-1028MFP printer ftpd</t>
+  </si>
+  <si>
+    <t>172.29.204.50</t>
+  </si>
+  <si>
+    <t>172.29.204.136</t>
+  </si>
+  <si>
+    <t>172.29.204.210</t>
+  </si>
+  <si>
+    <t>HP PageWide 377dw MFP printer http config Serial CN0C3MX022</t>
+  </si>
+  <si>
+    <t>172.29.204.213</t>
+  </si>
+  <si>
+    <t>AirTunes rtspd 545.22</t>
+  </si>
+  <si>
+    <t>bandwidth-test</t>
+  </si>
+  <si>
+    <t>MikroTik bandwidth-test server</t>
+  </si>
+  <si>
+    <t>172.29.204.215</t>
+  </si>
+  <si>
+    <t>BusyBox httpd 1.13</t>
+  </si>
+  <si>
+    <t>172.29.204.223</t>
+  </si>
+  <si>
+    <t>172.29.208.1</t>
+  </si>
+  <si>
+    <t>172.29.208.10</t>
+  </si>
+  <si>
+    <t>172.29.208.14</t>
+  </si>
+  <si>
+    <t>172.29.208.35</t>
+  </si>
+  <si>
+    <t>172.29.208.36</t>
+  </si>
+  <si>
+    <t>172.29.208.38</t>
+  </si>
+  <si>
+    <t>Lancom L-321agn wireless router http config 8.00.0269 / 25.03.2011</t>
+  </si>
+  <si>
+    <t>172.29.208.39</t>
+  </si>
+  <si>
+    <t>Lancom L-321agn wireless router http config 8.82.0100 / 28.08.2013</t>
+  </si>
+  <si>
+    <t>172.29.208.40</t>
+  </si>
+  <si>
+    <t>Lancom L-321agn wireless router http config 8.50.0091 / 08.04.2011</t>
+  </si>
+  <si>
+    <t>172.29.208.41</t>
+  </si>
+  <si>
+    <t>172.29.208.42</t>
+  </si>
+  <si>
+    <t>Lancom L-321agn wireless router http config 8.00.0255 / 18.02.2011</t>
+  </si>
+  <si>
+    <t>172.29.208.43</t>
+  </si>
+  <si>
+    <t>172.29.208.44</t>
+  </si>
+  <si>
+    <t>172.29.208.45</t>
+  </si>
+  <si>
+    <t>172.29.208.46</t>
+  </si>
+  <si>
+    <t>172.29.212.1</t>
+  </si>
+  <si>
+    <t>172.29.212.10</t>
+  </si>
+  <si>
+    <t>172.29.212.25</t>
+  </si>
+  <si>
+    <t>Konica Minolta PageScope Web Connection httpd</t>
+  </si>
+  <si>
+    <t>Konica Minolta BizHub C224e printer ipp</t>
+  </si>
+  <si>
+    <t>172.29.212.28</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| smb-os-discovery: 
+|   OS: Unix (Samba 3.6.25)
+|   NetBIOS computer name: 
+|   Workgroup: IKS\x00
+|_  System time: 2021-08-18T08:57:10+02:00
+| smb-security-mode: 
+|   account_used: guest
+|   authentication_level: share (dangerous)
+|   challenge_response: supported
+|_  message_signing: disabled (dangerous, but default)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! public folder dumped ! -&gt; loot\IKS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| afp-serverinfo: 
 |   Server Flags: 
 |     Flags hex: 0x8f7d
 |     Super Client: true
@@ -327,809 +1133,29 @@
 |     172.29.61.36
 |_  UTF8 Server Name: FFEinfeldNAS
 </t>
-  </si>
-  <si>
-    <t>BaseHTTPServer 0.6 Python 3.7.3</t>
-  </si>
-  <si>
-    <t>8001
-8002</t>
-  </si>
-  <si>
-    <t>?json?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">| fingerprint-strings: 
-|   FourOhFourRequest, GetRequest: 
-|     HTTP/1.0 404 Not Found
-|     Content-Type: application/json
-|     Vary: Origin
-|     Date: Sat, 14 Aug 2021 21:21:25 GMT
-|     Content-Length: 40
-|     {"key":"notFound","message":"Not Found"}
-|   GenericLines, Help, Kerberos, LDAPSearchReq, LPDString, RTSPRequest, SSLSessionReq, TLSSessionReq, TerminalServerCookie: 
-|     HTTP/1.1 400 Bad Request
-|     Content-Type: text/plain; charset=utf-8
-|     Connection: close
-|     Request
-|   HTTPOptions: 
-|     HTTP/1.0 200 OK
-|     Vary: Origin
-|     Vary: Access-Control-Request-Method
-|     Vary: Access-Control-Request-Headers
-|     Date: Sat, 14 Aug 2021 21:21:25 GMT
-|_    Content-Length: 0
-</t>
-  </si>
-  <si>
-    <t>upnp</t>
-  </si>
-  <si>
-    <t>Portable SDK for UPnP devices 1.8.4 Linux 4.14.22-armada-18.09.3; UPnP 1.0</t>
-  </si>
-  <si>
-    <t>172.29.61.122</t>
-  </si>
-  <si>
-    <t>????</t>
-  </si>
-  <si>
-    <t>telnet</t>
-  </si>
-  <si>
-    <t>smtp</t>
-  </si>
-  <si>
-    <t>172.29.110.33</t>
-  </si>
-  <si>
-    <t>LANCOM router</t>
-  </si>
-  <si>
-    <t>linux</t>
-  </si>
-  <si>
-    <t>lancom sshd protocol 2.0</t>
-  </si>
-  <si>
-    <t>good firewall</t>
-  </si>
-  <si>
-    <t>Lancom L-310agn wireless router http config 8.80.0219 / 20.10.2017</t>
-  </si>
-  <si>
-    <t>ssl/https</t>
-  </si>
-  <si>
-    <t>172.29.160.254</t>
-  </si>
-  <si>
-    <t>Linux Schul-Server</t>
-  </si>
-  <si>
-    <t>OpenSSH 7.9p1 protocol 2.0</t>
-  </si>
-  <si>
-    <t>Exim smtpd</t>
-  </si>
-  <si>
-    <t> 88</t>
-  </si>
-  <si>
-    <t>   kerberos-sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Heimdal</t>
-  </si>
-  <si>
-    <t>nginx 1.14.2</t>
-  </si>
-  <si>
-    <t>pop3</t>
-  </si>
-  <si>
-    <t>Samba smbd 3.X - 4.X workgroup: SCHULE</t>
-  </si>
-  <si>
-    <t>imap</t>
-  </si>
-  <si>
-    <t>Cyrus imapd 3.0.8</t>
-  </si>
-  <si>
-    <t> 389</t>
-  </si>
-  <si>
-    <t>ldap</t>
-  </si>
-  <si>
-    <t> 464</t>
-  </si>
-  <si>
-    <t>kpasswd5</t>
-  </si>
-  <si>
-    <t>IServ Login</t>
-  </si>
-  <si>
-    <t>ssl/smtp</t>
-  </si>
-  <si>
-    <t> 631</t>
-  </si>
-  <si>
-    <t>   ipp</t>
-  </si>
-  <si>
-    <t>  CUPS</t>
-  </si>
-  <si>
-    <t> 636</t>
-  </si>
-  <si>
-    <t>   ssl/ldap</t>
-  </si>
-  <si>
-    <t>  Anonymous</t>
-  </si>
-  <si>
-    <t>ssl/imap</t>
-  </si>
-  <si>
-    <t>ssl/pop3</t>
-  </si>
-  <si>
-    <t> 3268</t>
-  </si>
-  <si>
-    <t>   ldap</t>
-  </si>
-  <si>
-    <t> 3269</t>
-  </si>
-  <si>
-    <t>Squid http proxy 4.6</t>
-  </si>
-  <si>
-    <t>172.29.164.92</t>
-  </si>
-  <si>
-    <t>uc-httpd 1.0.0</t>
-  </si>
-  <si>
-    <t>rtsp</t>
-  </si>
-  <si>
-    <t>H264DVR rtspd 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|_rtsp-methods: OPTIONS, DESCRIBE, SETUP, TEARDOWN, GET_PARAMETER, SET_PARAMETER, PLAY, PAUSE
-</t>
-  </si>
-  <si>
-    <t>http-alt</t>
-  </si>
-  <si>
-    <t>172.29.168.10</t>
-  </si>
-  <si>
-    <t>IKS-Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">| rpcinfo: 
-|   program version    port/proto  service
-|   100000  2            111/tcp   rpcbind
-|   100000  2            111/udp   rpcbind
-|   100024  1            862/udp   status
-|_  100024  1            865/tcp   status
-</t>
-  </si>
-  <si>
-    <t>Samba smbd 3.X - 4.X workgroup: IKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">| nbstat: NetBIOS name: IKS-FS, NetBIOS user: &lt;unknown&gt;, NetBIOS MAC: &lt;unknown&gt; (unknown)
-| Names:
-|   IKS-FS&lt;00&gt;           Flags: &lt;unique&gt;&lt;active&gt;
-|   IKS-FS&lt;03&gt;           Flags: &lt;unique&gt;&lt;active&gt;
-|   IKS-FS&lt;20&gt;           Flags: &lt;unique&gt;&lt;active&gt;
-|   \x01\x02__MSBROWSE__\x02&lt;01&gt;  Flags: &lt;group&gt;&lt;active&gt;
-|   IKS&lt;1d&gt;              Flags: &lt;unique&gt;&lt;active&gt;
-|   IKS&lt;1e&gt;              Flags: &lt;group&gt;&lt;active&gt;
-|   IKS&lt;00&gt;              Flags: &lt;group&gt;&lt;active&gt;
-</t>
-  </si>
-  <si>
-    <t>172.29.168.130</t>
-  </si>
-  <si>
-    <t>Airtunes????</t>
-  </si>
-  <si>
-    <t>AirTunes rtspd 550.10</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>172.29.172.167</t>
-  </si>
-  <si>
-    <t>Raspi-Server</t>
-  </si>
-  <si>
-    <t>OpenSSH 7.9p1 Raspbian 10+deb10u2 protocol 2.0</t>
-  </si>
-  <si>
-    <t>tcpwrapped</t>
-  </si>
-  <si>
-    <t>lighttpd 1.4.53</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>vnc</t>
-  </si>
-  <si>
-    <t>RealVNC Enterprise 5.3 or later protocol 5.0</t>
-  </si>
-  <si>
-    <t>ssl/realserver</t>
-  </si>
-  <si>
-    <t>172.29.204.8</t>
-  </si>
-  <si>
-    <t>EHKS-Server</t>
-  </si>
-  <si>
-    <t>Apache httpd 1.3.33 (Unix) DAV/1.0.3 PHP/4.3.11</t>
-  </si>
-  <si>
-    <t>Samba smbd 3.X - 4.X workgroup: EHKS-VERWALTUNG</t>
-  </si>
-  <si>
-    <t>Apache/1.3.33 (Unix) DAV/1.0.3 PHP/4.3.11</t>
-  </si>
-  <si>
-    <t>172.29.212.30</t>
-  </si>
-  <si>
-    <t>EHKS-Server-2</t>
-  </si>
-  <si>
-    <t>OpenSSH 6.0p1 Debian 4+deb7u2 protocol 2.0</t>
-  </si>
-  <si>
-    <t>Apache httpd 2.2.22 (Debian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">| rpcinfo: 
-|   program version    port/proto  service
-|   100000  2,3,4        111/tcp   rpcbind
-|   100000  2,3,4        111/udp   rpcbind
-|   100000  3,4          111/tcp6  rpcbind
-|   100000  3,4          111/udp6  rpcbind
-|   100024  1          39698/udp6  status
-|   100024  1          44923/udp   status
-|   100024  1          45381/tcp6  status
-|_  100024  1          45741/tcp   status
-</t>
-  </si>
-  <si>
-    <t>Samba smbd 3.X - 4.X workgroup: DE</t>
-  </si>
-  <si>
-    <t>Domain name: ehks.intra.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">| smb-security-mode: 
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! looted ! -&gt; loot\Einfeld-NAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| smb-security-mode: 
 |   account_used: guest
 |   authentication_level: user
 |   challenge_response: supported
 |_  message_signing: disabled (dangerous, but default)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Samba SWAT administration server</t>
-  </si>
-  <si>
-    <t>Ntop web interface</t>
-  </si>
-  <si>
-    <t>Network interfaces</t>
-  </si>
-  <si>
-    <t>172.29.240.254</t>
-  </si>
-  <si>
-    <t>Drucker/Router</t>
-  </si>
-  <si>
-    <t>172.29.0.1</t>
-  </si>
-  <si>
-    <t>Sophos Router</t>
-  </si>
-  <si>
-    <t>172.29.0.7</t>
-  </si>
-  <si>
-    <t>172.29.1.1</t>
-  </si>
-  <si>
-    <t>172.29.1.37</t>
-  </si>
-  <si>
-    <t>172.29.1.62</t>
-  </si>
-  <si>
-    <t>172.29.2.1</t>
-  </si>
-  <si>
-    <t>172.29.52.1</t>
-  </si>
-  <si>
-    <t>172.29.61.1</t>
-  </si>
-  <si>
-    <t>172.29.61.45</t>
-  </si>
-  <si>
-    <t>TP RE300 Router</t>
-  </si>
-  <si>
-    <t>Dropbear sshd 2011.54 protocol 2.0</t>
-  </si>
-  <si>
-    <t>x11</t>
-  </si>
-  <si>
-    <t>x11:1</t>
-  </si>
-  <si>
-    <t>172.29.64.1</t>
-  </si>
-  <si>
-    <t>172.29.64.51</t>
-  </si>
-  <si>
-    <t>172.29.68.1</t>
-  </si>
-  <si>
-    <t>172.29.90.1</t>
-  </si>
-  <si>
-    <t>172.29.93.1</t>
-  </si>
-  <si>
-    <t>172.29.110.1</t>
-  </si>
-  <si>
-    <t>172.29.112.1</t>
-  </si>
-  <si>
-    <t>Router</t>
-  </si>
-  <si>
-    <t>172.29.112.30</t>
-  </si>
-  <si>
-    <t>HP-LaserJet</t>
-  </si>
-  <si>
-    <t>soap</t>
-  </si>
-  <si>
-    <t>gSOAP 2.7</t>
-  </si>
-  <si>
-    <t>ssl/tcpwrapped</t>
-  </si>
-  <si>
-    <t>printer</t>
-  </si>
-  <si>
-    <t>172.29.114.1</t>
-  </si>
-  <si>
-    <t>172.29.120.1</t>
-  </si>
-  <si>
-    <t>172.29.120.28</t>
-  </si>
-  <si>
-    <t>172.29.120.96</t>
-  </si>
-  <si>
-    <t>Drucker</t>
-  </si>
-  <si>
-    <t>jetdirect</t>
-  </si>
-  <si>
-    <t>172.29.120.108</t>
-  </si>
-  <si>
-    <t>Konica Drucker</t>
-  </si>
-  <si>
-    <t>Kyocera MFP httpd 0.0.1</t>
-  </si>
-  <si>
-    <t>Konica Minolta bizhub C452 printer smbd</t>
-  </si>
-  <si>
-    <t>routersetup</t>
-  </si>
-  <si>
-    <t>Nortel/D-Link router instant setup</t>
-  </si>
-  <si>
-    <t>nagios-nsca</t>
-  </si>
-  <si>
-    <t>Nagios NSCA</t>
-  </si>
-  <si>
-    <t>172.29.122.1</t>
-  </si>
-  <si>
-    <t>172.29.122.161</t>
-  </si>
-  <si>
-    <t>172.29.122.188</t>
-  </si>
-  <si>
-    <t>172.29.122.219</t>
-  </si>
-  <si>
-    <t>172.29.124.1</t>
-  </si>
-  <si>
-    <t>172.29.124.66</t>
-  </si>
-  <si>
-    <t>172.29.124.200</t>
-  </si>
-  <si>
-    <t>172.29.126.1</t>
-  </si>
-  <si>
-    <t>172.29.126.43</t>
-  </si>
-  <si>
-    <t>172.29.126.160</t>
-  </si>
-  <si>
-    <t>172.29.128.1</t>
-  </si>
-  <si>
-    <t>172.29.130.30</t>
-  </si>
-  <si>
-    <t>172.29.132.1</t>
-  </si>
-  <si>
-    <t>172.29.132.34</t>
-  </si>
-  <si>
-    <t>Brother Drucker</t>
-  </si>
-  <si>
-    <t>Brother/HP printer ftpd 1.13</t>
-  </si>
-  <si>
-    <t>Brother/HP printer telnetd</t>
-  </si>
-  <si>
-    <t>Debut embedded httpd 1.20 Brother/HP printer http admin</t>
-  </si>
-  <si>
-    <t>ipp</t>
-  </si>
-  <si>
-    <t>172.29.134.1</t>
-  </si>
-  <si>
-    <t>172.29.134.21</t>
-  </si>
-  <si>
-    <t>Fritz!Box</t>
-  </si>
-  <si>
-    <t>FRITZ!Box http config</t>
-  </si>
-  <si>
-    <t>172.29.136.1</t>
-  </si>
-  <si>
-    <t>172.29.136.19</t>
-  </si>
-  <si>
-    <t>brother Drucker</t>
-  </si>
-  <si>
-    <t>Debut embedded httpd 1.30 Brother/HP printer http admin</t>
-  </si>
-  <si>
-    <t>172.29.136.198</t>
-  </si>
-  <si>
-    <t>Brother/HP printer ftpd 1.10</t>
-  </si>
-  <si>
-    <t>Debut embedded httpd 1.08 Brother/HP printer http admin</t>
-  </si>
-  <si>
-    <t>172.29.144.1</t>
-  </si>
-  <si>
-    <t>172.29.144.36</t>
-  </si>
-  <si>
-    <t>172.29.148.1</t>
-  </si>
-  <si>
-    <t>172.29.160.1</t>
-  </si>
-  <si>
-    <t>172.29.164.1</t>
-  </si>
-  <si>
-    <t>172.29.164.35</t>
-  </si>
-  <si>
-    <t>172.29.168.1</t>
-  </si>
-  <si>
-    <t>172.29.168.11</t>
-  </si>
-  <si>
-    <t>TP-LINK WA801N WAP http config</t>
-  </si>
-  <si>
-    <t>172.29.168.35</t>
-  </si>
-  <si>
-    <t>Brother printer smtpd</t>
-  </si>
-  <si>
-    <t>172.29.168.120</t>
-  </si>
-  <si>
-    <t>172.29.168.216</t>
-  </si>
-  <si>
-    <t>172.29.168.221</t>
-  </si>
-  <si>
-    <t>172.29.172.1</t>
-  </si>
-  <si>
-    <t>172.29.180.1</t>
-  </si>
-  <si>
-    <t>172.29.180.94</t>
-  </si>
-  <si>
-    <t>172.29.180.233</t>
-  </si>
-  <si>
-    <t>Kyocera Drucker</t>
-  </si>
-  <si>
-    <t>Ecosys P4040dn ftpd</t>
-  </si>
-  <si>
-    <t>Ecosys ipp</t>
-  </si>
-  <si>
-    <t>172.29.180.241</t>
-  </si>
-  <si>
-    <t>172.29.180.242</t>
-  </si>
-  <si>
-    <t>172.29.180.246</t>
-  </si>
-  <si>
-    <t>172.29.180.249</t>
-  </si>
-  <si>
-    <t>172.29.184.1</t>
-  </si>
-  <si>
-    <t>172.29.188.241</t>
-  </si>
-  <si>
-    <t>Brother Printer</t>
-  </si>
-  <si>
-    <t>172.29.192.1</t>
-  </si>
-  <si>
-    <t>172.29.196.190</t>
-  </si>
-  <si>
-    <t>172.29.200.1</t>
-  </si>
-  <si>
-    <t>172.29.200.13</t>
-  </si>
-  <si>
-    <t>172.29.200.15</t>
-  </si>
-  <si>
-    <t>172.29.200.34</t>
-  </si>
-  <si>
-    <t>LANCOM</t>
-  </si>
-  <si>
-    <t>172.29.200.35</t>
-  </si>
-  <si>
-    <t>172.29.200.36</t>
-  </si>
-  <si>
-    <t>172.29.200.37</t>
-  </si>
-  <si>
-    <t>Lancom L-321agn wireless router http config 8.62.0086 / 07.11.2012</t>
-  </si>
-  <si>
-    <t>172.29.200.38</t>
-  </si>
-  <si>
-    <t>172.29.200.168</t>
-  </si>
-  <si>
-    <t>172.29.204.1</t>
-  </si>
-  <si>
-    <t>172.29.204.11</t>
-  </si>
-  <si>
-    <t>172.29.204.12</t>
-  </si>
-  <si>
-    <t>172.29.204.14</t>
-  </si>
-  <si>
-    <t>HP JetDirect ftpd</t>
-  </si>
-  <si>
-    <t>HP JetDirect printer telnetd No password</t>
-  </si>
-  <si>
-    <t>HP-ChaiSOE 1.0 HP LaserJet http config</t>
-  </si>
-  <si>
-    <t>172.29.204.35</t>
-  </si>
-  <si>
-    <t>Kyocera FS-1028MFP printer ftpd</t>
-  </si>
-  <si>
-    <t>172.29.204.50</t>
-  </si>
-  <si>
-    <t>172.29.204.136</t>
-  </si>
-  <si>
-    <t>172.29.204.210</t>
-  </si>
-  <si>
-    <t>HP PageWide 377dw MFP printer http config Serial CN0C3MX022</t>
-  </si>
-  <si>
-    <t>172.29.204.213</t>
-  </si>
-  <si>
-    <t>AirTunes rtspd 545.22</t>
-  </si>
-  <si>
-    <t>bandwidth-test</t>
-  </si>
-  <si>
-    <t>MikroTik bandwidth-test server</t>
-  </si>
-  <si>
-    <t>172.29.204.215</t>
-  </si>
-  <si>
-    <t>BusyBox httpd 1.13</t>
-  </si>
-  <si>
-    <t>172.29.204.223</t>
-  </si>
-  <si>
-    <t>172.29.208.1</t>
-  </si>
-  <si>
-    <t>172.29.208.10</t>
-  </si>
-  <si>
-    <t>172.29.208.14</t>
-  </si>
-  <si>
-    <t>172.29.208.35</t>
-  </si>
-  <si>
-    <t>172.29.208.36</t>
-  </si>
-  <si>
-    <t>172.29.208.38</t>
-  </si>
-  <si>
-    <t>Lancom L-321agn wireless router http config 8.00.0269 / 25.03.2011</t>
-  </si>
-  <si>
-    <t>172.29.208.39</t>
-  </si>
-  <si>
-    <t>Lancom L-321agn wireless router http config 8.82.0100 / 28.08.2013</t>
-  </si>
-  <si>
-    <t>172.29.208.40</t>
-  </si>
-  <si>
-    <t>Lancom L-321agn wireless router http config 8.50.0091 / 08.04.2011</t>
-  </si>
-  <si>
-    <t>172.29.208.41</t>
-  </si>
-  <si>
-    <t>172.29.208.42</t>
-  </si>
-  <si>
-    <t>Lancom L-321agn wireless router http config 8.00.0255 / 18.02.2011</t>
-  </si>
-  <si>
-    <t>172.29.208.43</t>
-  </si>
-  <si>
-    <t>172.29.208.44</t>
-  </si>
-  <si>
-    <t>172.29.208.45</t>
-  </si>
-  <si>
-    <t>172.29.208.46</t>
-  </si>
-  <si>
-    <t>172.29.212.1</t>
-  </si>
-  <si>
-    <t>172.29.212.10</t>
-  </si>
-  <si>
-    <t>172.29.212.25</t>
-  </si>
-  <si>
-    <t>Konica Minolta PageScope Web Connection httpd</t>
-  </si>
-  <si>
-    <t>Konica Minolta BizHub C224e printer ipp</t>
-  </si>
-  <si>
-    <t>172.29.212.28</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">| smb-os-discovery: 
-|   OS: Unix (Samba 3.6.25)
-|   NetBIOS computer name: 
-|   Workgroup: IKS\x00
-|_  System time: 2021-08-18T08:57:10+02:00
-| smb-security-mode: 
-|   account_used: guest
-|   authentication_level: share (dangerous)
-|   challenge_response: supported
-|_  message_signing: disabled (dangerous, but default)
+| smb2-security-mode: 
+|   2.02: 
+|_    Message signing enabled but not required
 </t>
     </r>
     <r>
@@ -1141,8 +1167,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>! public folder dumped ! -&gt; dumps\IKS</t>
+      <t>samba not publicly available</t>
     </r>
+  </si>
+  <si>
+    <t>DOKUMENTLÖSCHUNG DEAKTIVIERT</t>
+  </si>
+  <si>
+    <t>Konica Minolta Drucker</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1367,6 +1399,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1689,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D700B811-19C1-4D29-9B56-CDF0AB18693E}">
   <dimension ref="A1:W544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B398" sqref="B398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2453,7 +2488,7 @@
         <v>51</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>52</v>
+        <v>318</v>
       </c>
       <c r="H26" s="2">
         <v>172</v>
@@ -2483,10 +2518,10 @@
         <v>2049</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="H27" s="2">
         <v>172</v>
@@ -2504,13 +2539,13 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="C28" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="9">
         <v>22</v>
@@ -2519,7 +2554,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H28" s="2">
         <v>172</v>
@@ -2573,7 +2608,7 @@
         <v>13</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" s="2">
         <v>172</v>
@@ -2600,10 +2635,10 @@
         <v>42</v>
       </c>
       <c r="F31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="H31" s="2">
         <v>172</v>
@@ -2627,7 +2662,7 @@
         <v>161</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="11"/>
       <c r="H32" s="2">
@@ -2652,10 +2687,10 @@
         <v>3128</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="H33" s="2">
         <v>172</v>
@@ -2682,7 +2717,7 @@
         <v>30</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" s="2">
         <v>172</v>
@@ -2700,10 +2735,10 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>27</v>
@@ -2743,7 +2778,7 @@
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" s="2">
         <v>172</v>
@@ -2770,7 +2805,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" s="2">
         <v>172</v>
@@ -2797,7 +2832,7 @@
         <v>18</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" s="2">
         <v>172</v>
@@ -2815,19 +2850,19 @@
     </row>
     <row r="39" spans="1:18" ht="384.75" x14ac:dyDescent="0.45">
       <c r="A39" s="21"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34">
         <v>548</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>71</v>
+      <c r="G39" s="35" t="s">
+        <v>317</v>
       </c>
       <c r="H39" s="2">
         <v>172</v>
@@ -2854,7 +2889,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H40" s="2">
         <v>172</v>
@@ -2875,14 +2910,14 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H41" s="2">
         <v>172</v>
@@ -2906,10 +2941,10 @@
         <v>49154</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H42" s="2">
         <v>172</v>
@@ -2927,13 +2962,13 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D43" s="9">
         <v>21</v>
@@ -2964,7 +2999,7 @@
         <v>23</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F44" s="11"/>
       <c r="H44" s="2">
@@ -2989,7 +3024,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F45" s="11"/>
       <c r="H45" s="2">
@@ -3064,7 +3099,7 @@
         <v>161</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F48" s="11"/>
       <c r="H48" s="2">
@@ -3083,13 +3118,13 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D49" s="9">
         <v>22</v>
@@ -3098,10 +3133,10 @@
         <v>28</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H49" s="2">
         <v>172</v>
@@ -3125,7 +3160,7 @@
         <v>23</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F50" s="11"/>
       <c r="H50" s="2">
@@ -3180,7 +3215,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H52" s="2">
         <v>172</v>
@@ -3204,7 +3239,7 @@
         <v>161</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F53" s="11"/>
       <c r="H53" s="2">
@@ -3229,7 +3264,7 @@
         <v>443</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F54" s="11"/>
       <c r="H54" s="2">
@@ -3257,7 +3292,7 @@
         <v>13</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H55" s="2">
         <v>172</v>
@@ -3275,10 +3310,10 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>27</v>
@@ -3316,7 +3351,7 @@
         <v>28</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H57" s="2">
         <v>172</v>
@@ -3341,10 +3376,10 @@
         <v>25</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H58" s="2">
         <v>172</v>
@@ -3394,13 +3429,13 @@
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="M60" s="24"/>
       <c r="R60" s="3"/>
@@ -3416,7 +3451,7 @@
         <v>13</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H61" s="2">
         <v>172</v>
@@ -3441,7 +3476,7 @@
         <v>110</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F62" s="11"/>
       <c r="H62" s="2">
@@ -3498,7 +3533,7 @@
         <v>18</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H64" s="2">
         <v>172</v>
@@ -3523,10 +3558,10 @@
         <v>143</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M65" s="24"/>
       <c r="R65" s="3"/>
@@ -3536,10 +3571,10 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H66" s="2">
         <v>172</v>
@@ -3561,16 +3596,16 @@
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G67" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="H67" s="2">
         <v>172</v>
@@ -3597,7 +3632,7 @@
         <v>18</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H68" s="2">
         <v>172</v>
@@ -3620,7 +3655,7 @@
         <v>465</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F69" s="11"/>
       <c r="H69" s="2">
@@ -3641,13 +3676,13 @@
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70" s="28" t="s">
         <v>107</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F70" s="28" t="s">
-        <v>109</v>
       </c>
       <c r="M70" s="24"/>
       <c r="R70" s="3"/>
@@ -3657,13 +3692,13 @@
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" s="28" t="s">
         <v>110</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F71" s="28" t="s">
-        <v>112</v>
       </c>
       <c r="H71" s="2">
         <v>172</v>
@@ -3688,10 +3723,10 @@
         <v>993</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H72" s="2">
         <v>172</v>
@@ -3716,7 +3751,7 @@
         <v>995</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F73" s="11"/>
       <c r="H73" s="2">
@@ -3740,13 +3775,13 @@
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F74" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M74" s="24"/>
       <c r="R74" s="3"/>
@@ -3757,13 +3792,13 @@
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F75" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M75" s="24"/>
       <c r="R75" s="3"/>
@@ -3777,10 +3812,10 @@
         <v>3128</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H76" s="2">
         <v>172</v>
@@ -3797,7 +3832,7 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -3834,7 +3869,7 @@
         <v>13</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H78" s="2">
         <v>172</v>
@@ -3857,13 +3892,13 @@
         <v>554</v>
       </c>
       <c r="E79" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G79" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="H79" s="2">
         <v>172</v>
@@ -3886,7 +3921,7 @@
         <v>8000</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F80" s="11"/>
       <c r="H80" s="2">
@@ -3904,10 +3939,10 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A81" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9">
@@ -3917,7 +3952,7 @@
         <v>28</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H81" s="2">
         <v>172</v>
@@ -3971,10 +4006,10 @@
         <v>42</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H83" s="2">
         <v>172</v>
@@ -4001,10 +4036,10 @@
         <v>18</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H84" s="2">
         <v>172</v>
@@ -4028,7 +4063,7 @@
         <v>161</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F85" s="11"/>
       <c r="H85" s="2">
@@ -4056,10 +4091,10 @@
         <v>18</v>
       </c>
       <c r="F86" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G86" s="35" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H86" s="2">
         <v>172</v>
@@ -4077,10 +4112,10 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A87" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9">
@@ -4114,10 +4149,10 @@
         <v>5000</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H88" s="2">
         <v>172</v>
@@ -4141,7 +4176,7 @@
         <v>49153</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F89" s="11"/>
       <c r="H89" s="2">
@@ -4172,13 +4207,13 @@
     </row>
     <row r="94" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D94" s="9">
         <v>22</v>
@@ -4187,7 +4222,7 @@
         <v>28</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H94" s="2">
         <v>172</v>
@@ -4211,7 +4246,7 @@
         <v>53</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F95" s="11"/>
       <c r="H95" s="2">
@@ -4239,10 +4274,10 @@
         <v>13</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H96" s="2">
         <v>172</v>
@@ -4266,10 +4301,10 @@
         <v>5900</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H97" s="2">
         <v>172</v>
@@ -4293,7 +4328,7 @@
         <v>7070</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F98" s="11"/>
       <c r="H98" s="2">
@@ -4312,10 +4347,10 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A99" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9">
@@ -4352,7 +4387,7 @@
         <v>13</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H100" s="2">
         <v>172</v>
@@ -4379,7 +4414,7 @@
         <v>42</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H101" s="2">
         <v>172</v>
@@ -4406,7 +4441,7 @@
         <v>18</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H102" s="2">
         <v>172</v>
@@ -4430,10 +4465,10 @@
         <v>443</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H103" s="2">
         <v>172</v>
@@ -4460,7 +4495,7 @@
         <v>13</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H104" s="2">
         <v>172</v>
@@ -4478,10 +4513,10 @@
     </row>
     <row r="105" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A105" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9">
@@ -4491,7 +4526,7 @@
         <v>28</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H105" s="2">
         <v>172</v>
@@ -4545,7 +4580,7 @@
         <v>13</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H107" s="2">
         <v>172</v>
@@ -4575,7 +4610,7 @@
         <v>43</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H108" s="2">
         <v>172</v>
@@ -4602,10 +4637,10 @@
         <v>18</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H109" s="2">
         <v>172</v>
@@ -4632,10 +4667,10 @@
         <v>18</v>
       </c>
       <c r="F110" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G110" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="H110" s="2">
         <v>172</v>
@@ -4662,10 +4697,10 @@
         <v>13</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R111" s="3"/>
     </row>
@@ -4680,20 +4715,20 @@
         <v>13</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R112" s="3"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A113" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D113" s="9">
         <v>22</v>
@@ -4702,7 +4737,7 @@
         <v>28</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H113" s="2">
         <v>172</v>
@@ -4756,7 +4791,7 @@
         <v>13</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H115" s="2">
         <v>172</v>
@@ -4783,7 +4818,7 @@
         <v>42</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H116" s="2">
         <v>172</v>
@@ -4807,7 +4842,7 @@
         <v>161</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F117" s="11"/>
       <c r="H117" s="2">
@@ -4832,10 +4867,10 @@
         <v>3128</v>
       </c>
       <c r="E118" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F118" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="H118" s="2">
         <v>172</v>
@@ -4880,7 +4915,7 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A124" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B124" s="33"/>
       <c r="C124" s="33"/>
@@ -4924,10 +4959,10 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A126" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>27</v>
@@ -4964,7 +4999,7 @@
         <v>8080</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="1"/>
@@ -4984,7 +5019,7 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A128" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128"/>
@@ -5012,10 +5047,10 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A129" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>27</v>
@@ -5051,7 +5086,7 @@
         <v>8080</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F130" s="11"/>
       <c r="H130" s="19">
@@ -5070,10 +5105,10 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A131" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9">
@@ -5101,10 +5136,10 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A132" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9">
@@ -5132,10 +5167,10 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A133" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9">
@@ -5169,7 +5204,7 @@
         <v>8080</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F134" s="11"/>
       <c r="H134" s="19">
@@ -5188,10 +5223,10 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A135" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9">
@@ -5225,7 +5260,7 @@
         <v>8080</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F136" s="11"/>
       <c r="H136" s="19">
@@ -5244,10 +5279,10 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A137" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9">
@@ -5281,7 +5316,7 @@
         <v>8080</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F138" s="11"/>
       <c r="H138" s="19">
@@ -5300,10 +5335,10 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A139" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>27</v>
@@ -5315,7 +5350,7 @@
         <v>28</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H139" s="2">
         <v>172</v>
@@ -5391,7 +5426,7 @@
         <v>6000</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F142" s="11"/>
       <c r="H142" s="2">
@@ -5416,7 +5451,7 @@
         <v>6001</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F143" s="11"/>
       <c r="H143" s="2">
@@ -5435,7 +5470,7 @@
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A144" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -5470,7 +5505,7 @@
         <v>8080</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F145" s="11"/>
       <c r="H145" s="2">
@@ -5489,7 +5524,7 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A146" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -5518,7 +5553,7 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A147" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -5553,7 +5588,7 @@
         <v>8080</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F148" s="11"/>
       <c r="H148" s="2">
@@ -5572,7 +5607,7 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A149" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -5607,7 +5642,7 @@
         <v>8080</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F150" s="11"/>
       <c r="H150" s="2">
@@ -5626,7 +5661,7 @@
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A151" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -5661,7 +5696,7 @@
         <v>8080</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F152" s="11"/>
       <c r="H152" s="2">
@@ -5680,7 +5715,7 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A153" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -5709,10 +5744,10 @@
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A154" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9">
@@ -5746,7 +5781,7 @@
         <v>8080</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F155" s="11"/>
       <c r="H155" s="2">
@@ -5765,10 +5800,10 @@
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A156" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9">
@@ -5802,10 +5837,10 @@
         <v>80</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H157" s="2">
         <v>172</v>
@@ -5829,7 +5864,7 @@
         <v>161</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F158" s="11"/>
       <c r="H158" s="2">
@@ -5854,7 +5889,7 @@
         <v>443</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F159" s="11"/>
       <c r="H159" s="2">
@@ -5879,7 +5914,7 @@
         <v>515</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F160" s="11"/>
       <c r="H160" s="2">
@@ -5904,10 +5939,10 @@
         <v>631</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H161" s="2">
         <v>172</v>
@@ -5931,10 +5966,10 @@
         <v>8080</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H162" s="2">
         <v>172</v>
@@ -5952,7 +5987,7 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A163" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -5987,7 +6022,7 @@
         <v>8080</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F164" s="11"/>
       <c r="H164" s="2">
@@ -6006,7 +6041,7 @@
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A165" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -6041,7 +6076,7 @@
         <v>8080</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F166" s="11"/>
       <c r="H166" s="2">
@@ -6060,7 +6095,7 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A167" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -6089,10 +6124,10 @@
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A168" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9">
@@ -6126,7 +6161,7 @@
         <v>80</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F169" s="11"/>
       <c r="H169" s="2">
@@ -6151,7 +6186,7 @@
         <v>161</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F170" s="11"/>
       <c r="H170" s="2">
@@ -6176,7 +6211,7 @@
         <v>427</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F171" s="11"/>
       <c r="H171" s="2">
@@ -6201,7 +6236,7 @@
         <v>443</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F172" s="11"/>
       <c r="H172" s="2">
@@ -6226,7 +6261,7 @@
         <v>631</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F173" s="11"/>
       <c r="H173" s="2">
@@ -6251,7 +6286,7 @@
         <v>9100</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F174" s="11"/>
       <c r="H174" s="2">
@@ -6270,10 +6305,10 @@
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A175" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>27</v>
@@ -6285,6 +6320,9 @@
         <v>34</v>
       </c>
       <c r="F175" s="11"/>
+      <c r="G175" s="36" t="s">
+        <v>319</v>
+      </c>
       <c r="H175" s="2">
         <v>172</v>
       </c>
@@ -6337,7 +6375,7 @@
         <v>13</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H177" s="2">
         <v>172</v>
@@ -6364,7 +6402,7 @@
         <v>18</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H178" s="2">
         <v>172</v>
@@ -6391,7 +6429,7 @@
         <v>37</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H179" s="2">
         <v>172</v>
@@ -6415,10 +6453,10 @@
         <v>445</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H180" s="2">
         <v>172</v>
@@ -6442,7 +6480,7 @@
         <v>515</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F181" s="11"/>
       <c r="H181" s="2">
@@ -6467,10 +6505,10 @@
         <v>631</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H182" s="2">
         <v>172</v>
@@ -6494,7 +6532,7 @@
         <v>9100</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F183" s="11"/>
       <c r="H183" s="2">
@@ -6513,7 +6551,7 @@
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A184" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -6548,7 +6586,7 @@
         <v>8080</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F185" s="11"/>
       <c r="H185" s="2">
@@ -6567,7 +6605,7 @@
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A186" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -6594,7 +6632,7 @@
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A187" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -6621,7 +6659,7 @@
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A188" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -6648,7 +6686,7 @@
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A189" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -6683,7 +6721,7 @@
         <v>8080</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F190" s="11"/>
       <c r="H190" s="2">
@@ -6702,7 +6740,7 @@
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A191" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -6731,7 +6769,7 @@
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A192" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -6760,7 +6798,7 @@
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A193" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -6795,7 +6833,7 @@
         <v>8080</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F194" s="11"/>
       <c r="H194" s="2">
@@ -6814,7 +6852,7 @@
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A195" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -6843,7 +6881,7 @@
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A196" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -6872,7 +6910,7 @@
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A197" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -6907,7 +6945,7 @@
         <v>8080</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F198" s="11"/>
       <c r="H198" s="2">
@@ -6959,7 +6997,7 @@
         <v>8080</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F200" s="11"/>
       <c r="H200" s="2">
@@ -6978,7 +7016,7 @@
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A201" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -7007,7 +7045,7 @@
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A202" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -7042,7 +7080,7 @@
         <v>8080</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F203" s="11"/>
       <c r="H203" s="2">
@@ -7061,10 +7099,10 @@
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A204" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="9">
@@ -7074,7 +7112,7 @@
         <v>34</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H204" s="2">
         <v>172</v>
@@ -7098,10 +7136,10 @@
         <v>23</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F205" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H205" s="2">
         <v>172</v>
@@ -7155,7 +7193,7 @@
         <v>13</v>
       </c>
       <c r="F207" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H207" s="2">
         <v>172</v>
@@ -7179,7 +7217,7 @@
         <v>161</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F208" s="11"/>
       <c r="H208" s="2">
@@ -7204,7 +7242,7 @@
         <v>443</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F209" s="11"/>
       <c r="H209" s="2">
@@ -7229,7 +7267,7 @@
         <v>515</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F210" s="11"/>
       <c r="H210" s="2">
@@ -7254,7 +7292,7 @@
         <v>631</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F211" s="11"/>
       <c r="H211" s="2">
@@ -7279,7 +7317,7 @@
         <v>9100</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F212" s="11"/>
       <c r="H212" s="2">
@@ -7298,10 +7336,10 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A213" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="9">
@@ -7335,7 +7373,7 @@
         <v>8080</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F214" s="11"/>
       <c r="H214" s="2">
@@ -7354,10 +7392,10 @@
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A215" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C215" s="9"/>
       <c r="D215" s="9">
@@ -7392,7 +7430,7 @@
         <v>37</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H216" s="2">
         <v>172</v>
@@ -7437,7 +7475,7 @@
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A218" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -7472,7 +7510,7 @@
         <v>8080</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F219" s="11"/>
       <c r="H219" s="2">
@@ -7491,10 +7529,10 @@
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A220" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="9">
@@ -7504,7 +7542,7 @@
         <v>34</v>
       </c>
       <c r="F220" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H220" s="2">
         <v>172</v>
@@ -7528,10 +7566,10 @@
         <v>23</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F221" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H221" s="2">
         <v>172</v>
@@ -7585,7 +7623,7 @@
         <v>13</v>
       </c>
       <c r="F223" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H223" s="2">
         <v>172</v>
@@ -7609,7 +7647,7 @@
         <v>161</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F224" s="11"/>
       <c r="H224" s="2">
@@ -7634,7 +7672,7 @@
         <v>443</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F225" s="11"/>
       <c r="H225" s="2">
@@ -7659,7 +7697,7 @@
         <v>515</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F226" s="11"/>
       <c r="H226" s="2">
@@ -7684,7 +7722,7 @@
         <v>631</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F227" s="11"/>
       <c r="H227" s="2">
@@ -7709,7 +7747,7 @@
         <v>9100</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F228" s="11"/>
       <c r="H228" s="2">
@@ -7728,10 +7766,10 @@
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A229" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C229" s="9"/>
       <c r="D229" s="9">
@@ -7741,7 +7779,7 @@
         <v>34</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H229" s="2">
         <v>172</v>
@@ -7765,10 +7803,10 @@
         <v>23</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H230" s="2">
         <v>172</v>
@@ -7822,7 +7860,7 @@
         <v>13</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H232" s="2">
         <v>172</v>
@@ -7846,10 +7884,10 @@
         <v>139</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H233" s="2">
         <v>172</v>
@@ -7873,7 +7911,7 @@
         <v>161</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F234" s="11"/>
       <c r="H234" s="2">
@@ -7898,7 +7936,7 @@
         <v>515</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F235" s="11"/>
       <c r="H235" s="2">
@@ -7923,7 +7961,7 @@
         <v>9100</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F236" s="11"/>
       <c r="H236" s="2">
@@ -7942,10 +7980,10 @@
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A237" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C237" s="9"/>
       <c r="D237" s="9">
@@ -7977,7 +8015,7 @@
         <v>8080</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F238" s="11"/>
       <c r="H238" s="2">
@@ -7996,10 +8034,10 @@
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A239" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C239" s="9"/>
       <c r="D239" s="9">
@@ -8036,7 +8074,7 @@
         <v>13</v>
       </c>
       <c r="F240" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H240" s="2">
         <v>172</v>
@@ -8060,7 +8098,7 @@
         <v>161</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F241" s="11"/>
       <c r="H241" s="2">
@@ -8088,7 +8126,7 @@
         <v>37</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H242" s="2">
         <v>172</v>
@@ -8112,7 +8150,7 @@
         <v>9100</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F243" s="11"/>
       <c r="H243" s="2">
@@ -8131,10 +8169,10 @@
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A244" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="9">
@@ -8168,7 +8206,7 @@
         <v>8080</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F245" s="11"/>
       <c r="H245" s="2">
@@ -8187,10 +8225,10 @@
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A246" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B246" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="9">
@@ -8224,7 +8262,7 @@
         <v>8080</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F247" s="11"/>
       <c r="H247" s="2">
@@ -8243,10 +8281,10 @@
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A248" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="9">
@@ -8274,10 +8312,10 @@
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A249" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9">
@@ -8314,7 +8352,7 @@
         <v>13</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H250" s="2">
         <v>172</v>
@@ -8338,7 +8376,7 @@
         <v>161</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F251" s="11"/>
       <c r="H251" s="2">
@@ -8366,7 +8404,7 @@
         <v>37</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H252" s="2">
         <v>172</v>
@@ -8390,7 +8428,7 @@
         <v>9100</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F253" s="11"/>
       <c r="H253" s="2">
@@ -8409,7 +8447,7 @@
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A254" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -8444,7 +8482,7 @@
         <v>8080</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F255" s="11"/>
       <c r="H255" s="2">
@@ -8463,10 +8501,10 @@
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A256" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C256" s="9"/>
       <c r="D256" s="9">
@@ -8503,7 +8541,7 @@
         <v>13</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H257" s="2">
         <v>172</v>
@@ -8527,7 +8565,7 @@
         <v>161</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F258" s="11"/>
       <c r="H258" s="2">
@@ -8546,10 +8584,10 @@
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A259" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C259" s="9"/>
       <c r="D259" s="9">
@@ -8581,10 +8619,10 @@
         <v>23</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F260" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H260" s="2">
         <v>172</v>
@@ -8608,10 +8646,10 @@
         <v>25</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H261" s="2">
         <v>172</v>
@@ -8665,7 +8703,7 @@
         <v>13</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H263" s="2">
         <v>172</v>
@@ -8689,7 +8727,7 @@
         <v>161</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F264" s="11"/>
       <c r="H264" s="2">
@@ -8714,7 +8752,7 @@
         <v>515</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F265" s="11"/>
       <c r="H265" s="2">
@@ -8739,7 +8777,7 @@
         <v>631</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F266" s="11"/>
       <c r="H266" s="2">
@@ -8764,7 +8802,7 @@
         <v>9100</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F267" s="11"/>
       <c r="H267" s="2">
@@ -8783,10 +8821,10 @@
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A268" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="9">
@@ -8796,7 +8834,7 @@
         <v>34</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H268" s="2">
         <v>172</v>
@@ -8820,10 +8858,10 @@
         <v>23</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F269" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H269" s="2">
         <v>172</v>
@@ -8877,7 +8915,7 @@
         <v>13</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H271" s="2">
         <v>172</v>
@@ -8901,7 +8939,7 @@
         <v>161</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F272" s="11"/>
       <c r="H272" s="2">
@@ -8929,7 +8967,7 @@
         <v>37</v>
       </c>
       <c r="F273" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H273" s="2">
         <v>172</v>
@@ -8953,7 +8991,7 @@
         <v>515</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F274" s="11"/>
       <c r="H274" s="2">
@@ -8981,7 +9019,7 @@
         <v>13</v>
       </c>
       <c r="F275" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H275" s="2">
         <v>172</v>
@@ -9005,7 +9043,7 @@
         <v>9100</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F276" s="11"/>
       <c r="H276" s="2">
@@ -9024,10 +9062,10 @@
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A277" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C277" s="9"/>
       <c r="D277" s="9">
@@ -9053,10 +9091,10 @@
     </row>
     <row r="278" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A278" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C278" s="9"/>
       <c r="D278" s="9">
@@ -9082,10 +9120,10 @@
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A279" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C279" s="9"/>
       <c r="D279" s="9">
@@ -9118,7 +9156,7 @@
         <v>8080</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F280" s="11"/>
       <c r="H280" s="2">
@@ -9137,10 +9175,10 @@
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A281" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C281" s="9"/>
       <c r="D281" s="9">
@@ -9174,7 +9212,7 @@
         <v>8080</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F282" s="11"/>
       <c r="H282" s="2">
@@ -9193,10 +9231,10 @@
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A283" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C283" s="9"/>
       <c r="D283" s="9">
@@ -9224,10 +9262,10 @@
     </row>
     <row r="284" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A284" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C284" s="9"/>
       <c r="D284" s="9">
@@ -9237,7 +9275,7 @@
         <v>34</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H284" s="2">
         <v>172</v>
@@ -9291,7 +9329,7 @@
         <v>13</v>
       </c>
       <c r="F286" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H286" s="2">
         <v>172</v>
@@ -9318,7 +9356,7 @@
         <v>18</v>
       </c>
       <c r="F287" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H287" s="2">
         <v>172</v>
@@ -9342,7 +9380,7 @@
         <v>161</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F288" s="11"/>
       <c r="H288" s="2">
@@ -9367,7 +9405,7 @@
         <v>443</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F289" s="11"/>
       <c r="H289" s="2">
@@ -9392,10 +9430,10 @@
         <v>445</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F290" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H290" s="2">
         <v>172</v>
@@ -9419,7 +9457,7 @@
         <v>515</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F291" s="11"/>
       <c r="H291" s="2">
@@ -9444,10 +9482,10 @@
         <v>631</v>
       </c>
       <c r="E292" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F292" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H292" s="2">
         <v>172</v>
@@ -9471,7 +9509,7 @@
         <v>9100</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F293" s="11"/>
       <c r="H293" s="2">
@@ -9490,10 +9528,10 @@
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A294" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B294" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C294" s="9"/>
       <c r="D294" s="9">
@@ -9519,10 +9557,10 @@
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A295" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B295" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C295" s="9"/>
       <c r="D295" s="9">
@@ -9550,10 +9588,10 @@
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A296" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B296" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C296" s="9"/>
       <c r="D296" s="9">
@@ -9581,10 +9619,10 @@
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A297" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B297" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C297" s="9"/>
       <c r="D297" s="9">
@@ -9610,10 +9648,10 @@
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A298" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B298" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="9">
@@ -9647,7 +9685,7 @@
         <v>8080</v>
       </c>
       <c r="E299" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F299" s="11"/>
       <c r="H299" s="2">
@@ -9699,7 +9737,7 @@
         <v>8080</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F301" s="11"/>
       <c r="H301" s="2">
@@ -9718,10 +9756,10 @@
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A302" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="9">
@@ -9753,10 +9791,10 @@
         <v>23</v>
       </c>
       <c r="E303" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F303" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H303" s="2">
         <v>172</v>
@@ -9810,7 +9848,7 @@
         <v>13</v>
       </c>
       <c r="F305" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H305" s="2">
         <v>172</v>
@@ -9834,7 +9872,7 @@
         <v>161</v>
       </c>
       <c r="E306" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F306" s="11"/>
       <c r="H306" s="2">
@@ -9859,7 +9897,7 @@
         <v>515</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F307" s="11"/>
       <c r="H307" s="2">
@@ -9884,7 +9922,7 @@
         <v>631</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F308" s="11"/>
       <c r="H308" s="2">
@@ -9909,7 +9947,7 @@
         <v>9100</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F309" s="11"/>
       <c r="H309" s="2">
@@ -9928,10 +9966,10 @@
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A310" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="9">
@@ -9965,7 +10003,7 @@
         <v>8080</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F311" s="11"/>
       <c r="H311" s="2">
@@ -10017,7 +10055,7 @@
         <v>8080</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F313" s="11"/>
       <c r="H313" s="2">
@@ -10036,10 +10074,10 @@
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A314" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C314" s="9"/>
       <c r="D314" s="9">
@@ -10049,7 +10087,7 @@
         <v>34</v>
       </c>
       <c r="F314" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H314" s="2">
         <v>172</v>
@@ -10073,10 +10111,10 @@
         <v>23</v>
       </c>
       <c r="E315" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F315" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H315" s="2">
         <v>172</v>
@@ -10130,7 +10168,7 @@
         <v>13</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H317" s="2">
         <v>172</v>
@@ -10154,7 +10192,7 @@
         <v>161</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F318" s="11"/>
       <c r="H318" s="2">
@@ -10179,7 +10217,7 @@
         <v>515</v>
       </c>
       <c r="E319" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F319" s="11"/>
       <c r="H319" s="2">
@@ -10198,7 +10236,7 @@
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A320" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -10233,7 +10271,7 @@
         <v>8080</v>
       </c>
       <c r="E321" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F321" s="11"/>
       <c r="H321" s="2">
@@ -10252,7 +10290,7 @@
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A322" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -10263,7 +10301,7 @@
         <v>34</v>
       </c>
       <c r="F322" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H322" s="2">
         <v>172</v>
@@ -10287,10 +10325,10 @@
         <v>23</v>
       </c>
       <c r="E323" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F323" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H323" s="2">
         <v>172</v>
@@ -10344,7 +10382,7 @@
         <v>13</v>
       </c>
       <c r="F325" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H325" s="2">
         <v>172</v>
@@ -10368,7 +10406,7 @@
         <v>161</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F326" s="11"/>
       <c r="H326" s="2">
@@ -10393,7 +10431,7 @@
         <v>515</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F327" s="11"/>
       <c r="H327" s="2">
@@ -10418,7 +10456,7 @@
         <v>631</v>
       </c>
       <c r="E328" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F328" s="11"/>
       <c r="H328" s="2">
@@ -10443,7 +10481,7 @@
         <v>9100</v>
       </c>
       <c r="E329" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F329" s="11"/>
       <c r="H329" s="2">
@@ -10462,7 +10500,7 @@
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A330" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -10473,7 +10511,7 @@
         <v>34</v>
       </c>
       <c r="F330" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H330" s="2">
         <v>172</v>
@@ -10497,10 +10535,10 @@
         <v>23</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F331" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H331" s="2">
         <v>172</v>
@@ -10554,7 +10592,7 @@
         <v>13</v>
       </c>
       <c r="F333" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H333" s="2">
         <v>172</v>
@@ -10578,7 +10616,7 @@
         <v>161</v>
       </c>
       <c r="E334" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F334" s="11"/>
       <c r="H334" s="2">
@@ -10606,7 +10644,7 @@
         <v>37</v>
       </c>
       <c r="F335" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H335" s="2">
         <v>172</v>
@@ -10630,7 +10668,7 @@
         <v>515</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F336" s="11"/>
       <c r="H336" s="2">
@@ -10658,7 +10696,7 @@
         <v>13</v>
       </c>
       <c r="F337" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H337" s="2">
         <v>172</v>
@@ -10682,7 +10720,7 @@
         <v>9100</v>
       </c>
       <c r="E338" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F338" s="11"/>
       <c r="H338" s="2">
@@ -10701,7 +10739,7 @@
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A339" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -10712,7 +10750,7 @@
         <v>28</v>
       </c>
       <c r="F339" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H339" s="2">
         <v>172</v>
@@ -10736,7 +10774,7 @@
         <v>23</v>
       </c>
       <c r="E340" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F340" s="11"/>
       <c r="H340" s="2">
@@ -10791,7 +10829,7 @@
         <v>13</v>
       </c>
       <c r="F342" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H342" s="2">
         <v>172</v>
@@ -10815,7 +10853,7 @@
         <v>161</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F343" s="11"/>
       <c r="H343" s="2">
@@ -10840,7 +10878,7 @@
         <v>443</v>
       </c>
       <c r="E344" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F344" s="11"/>
       <c r="H344" s="2">
@@ -10865,10 +10903,10 @@
         <v>8080</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F345" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H345" s="2">
         <v>172</v>
@@ -10886,7 +10924,7 @@
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A346" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -10897,7 +10935,7 @@
         <v>28</v>
       </c>
       <c r="F346" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H346" s="2">
         <v>172</v>
@@ -10921,7 +10959,7 @@
         <v>23</v>
       </c>
       <c r="E347" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F347" s="11"/>
       <c r="H347" s="2">
@@ -10976,7 +11014,7 @@
         <v>13</v>
       </c>
       <c r="F349" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H349" s="2">
         <v>172</v>
@@ -11000,7 +11038,7 @@
         <v>161</v>
       </c>
       <c r="E350" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F350" s="11"/>
       <c r="H350" s="2">
@@ -11025,7 +11063,7 @@
         <v>443</v>
       </c>
       <c r="E351" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F351" s="11"/>
       <c r="H351" s="2">
@@ -11050,10 +11088,10 @@
         <v>8080</v>
       </c>
       <c r="E352" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F352" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H352" s="2">
         <v>172</v>
@@ -11071,7 +11109,7 @@
     </row>
     <row r="353" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A353" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -11082,7 +11120,7 @@
         <v>28</v>
       </c>
       <c r="F353" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H353" s="2">
         <v>172</v>
@@ -11106,7 +11144,7 @@
         <v>23</v>
       </c>
       <c r="E354" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F354" s="11"/>
       <c r="H354" s="2">
@@ -11161,7 +11199,7 @@
         <v>13</v>
       </c>
       <c r="F356" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H356" s="2">
         <v>172</v>
@@ -11185,7 +11223,7 @@
         <v>161</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F357" s="11"/>
       <c r="H357" s="2">
@@ -11210,7 +11248,7 @@
         <v>443</v>
       </c>
       <c r="E358" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F358" s="11"/>
       <c r="H358" s="2">
@@ -11235,10 +11273,10 @@
         <v>8080</v>
       </c>
       <c r="E359" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F359" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H359" s="2">
         <v>172</v>
@@ -11256,7 +11294,7 @@
     </row>
     <row r="360" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A360" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -11267,7 +11305,7 @@
         <v>28</v>
       </c>
       <c r="F360" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H360" s="2">
         <v>172</v>
@@ -11291,7 +11329,7 @@
         <v>23</v>
       </c>
       <c r="E361" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F361" s="11"/>
       <c r="H361" s="2">
@@ -11346,7 +11384,7 @@
         <v>13</v>
       </c>
       <c r="F363" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H363" s="2">
         <v>172</v>
@@ -11370,7 +11408,7 @@
         <v>161</v>
       </c>
       <c r="E364" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F364" s="11"/>
       <c r="H364" s="2">
@@ -11395,7 +11433,7 @@
         <v>443</v>
       </c>
       <c r="E365" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F365" s="11"/>
       <c r="H365" s="2">
@@ -11423,7 +11461,7 @@
         <v>13</v>
       </c>
       <c r="F366" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H366" s="2">
         <v>172</v>
@@ -11441,7 +11479,7 @@
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A367" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -11449,7 +11487,7 @@
         <v>22</v>
       </c>
       <c r="E367" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F367" s="11"/>
       <c r="H367" s="2">
@@ -11474,7 +11512,7 @@
         <v>23</v>
       </c>
       <c r="E368" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F368" s="11"/>
       <c r="H368" s="2">
@@ -11526,7 +11564,7 @@
         <v>80</v>
       </c>
       <c r="E370" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F370" s="11"/>
       <c r="H370" s="2">
@@ -11551,7 +11589,7 @@
         <v>161</v>
       </c>
       <c r="E371" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F371" s="11"/>
       <c r="H371" s="2">
@@ -11576,7 +11614,7 @@
         <v>443</v>
       </c>
       <c r="E372" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F372" s="11"/>
       <c r="H372" s="2">
@@ -11601,7 +11639,7 @@
         <v>8080</v>
       </c>
       <c r="E373" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F373" s="11"/>
       <c r="H373" s="2">
@@ -11620,7 +11658,7 @@
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A374" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -11655,7 +11693,7 @@
         <v>49153</v>
       </c>
       <c r="E375" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F375" s="11"/>
       <c r="H375" s="2">
@@ -11674,7 +11712,7 @@
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A376" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -11709,7 +11747,7 @@
         <v>8080</v>
       </c>
       <c r="E377" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F377" s="11"/>
       <c r="H377" s="2">
@@ -11728,7 +11766,7 @@
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A378" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -11739,7 +11777,7 @@
         <v>34</v>
       </c>
       <c r="F378" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H378" s="2">
         <v>172</v>
@@ -11763,10 +11801,10 @@
         <v>23</v>
       </c>
       <c r="E379" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F379" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H379" s="2">
         <v>172</v>
@@ -11820,7 +11858,7 @@
         <v>13</v>
       </c>
       <c r="F381" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H381" s="2">
         <v>172</v>
@@ -11844,7 +11882,7 @@
         <v>161</v>
       </c>
       <c r="E382" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F382" s="11"/>
       <c r="H382" s="2">
@@ -11869,7 +11907,7 @@
         <v>443</v>
       </c>
       <c r="E383" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F383" s="11"/>
       <c r="H383" s="2">
@@ -11894,7 +11932,7 @@
         <v>515</v>
       </c>
       <c r="E384" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F384" s="11"/>
       <c r="H384" s="2">
@@ -11913,7 +11951,7 @@
     </row>
     <row r="385" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A385" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -11924,7 +11962,7 @@
         <v>34</v>
       </c>
       <c r="F385" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H385" s="2">
         <v>172</v>
@@ -11948,10 +11986,10 @@
         <v>23</v>
       </c>
       <c r="E386" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F386" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H386" s="2">
         <v>172</v>
@@ -12005,7 +12043,7 @@
         <v>13</v>
       </c>
       <c r="F388" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H388" s="2">
         <v>172</v>
@@ -12029,7 +12067,7 @@
         <v>161</v>
       </c>
       <c r="E389" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F389" s="11"/>
       <c r="H389" s="2">
@@ -12054,7 +12092,7 @@
         <v>515</v>
       </c>
       <c r="E390" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F390" s="11"/>
       <c r="H390" s="2">
@@ -12079,7 +12117,7 @@
         <v>631</v>
       </c>
       <c r="E391" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F391" s="11"/>
       <c r="H391" s="2">
@@ -12098,7 +12136,7 @@
     </row>
     <row r="392" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A392" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -12109,7 +12147,7 @@
         <v>34</v>
       </c>
       <c r="F392" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H392" s="2">
         <v>172</v>
@@ -12133,10 +12171,10 @@
         <v>23</v>
       </c>
       <c r="E393" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F393" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H393" s="2">
         <v>172</v>
@@ -12190,7 +12228,7 @@
         <v>13</v>
       </c>
       <c r="F395" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H395" s="2">
         <v>172</v>
@@ -12214,7 +12252,7 @@
         <v>161</v>
       </c>
       <c r="E396" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F396" s="11"/>
       <c r="H396" s="2">
@@ -12239,7 +12277,7 @@
         <v>443</v>
       </c>
       <c r="E397" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F397" s="11"/>
       <c r="H397" s="2">
@@ -12267,7 +12305,7 @@
         <v>13</v>
       </c>
       <c r="F398" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H398" s="2">
         <v>172</v>
@@ -12291,7 +12329,7 @@
         <v>9100</v>
       </c>
       <c r="E399" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F399" s="11"/>
       <c r="H399" s="2">
@@ -12310,9 +12348,11 @@
     </row>
     <row r="400" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A400" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B400" s="9"/>
+        <v>279</v>
+      </c>
+      <c r="B400" s="9" t="s">
+        <v>249</v>
+      </c>
       <c r="C400" s="9"/>
       <c r="D400" s="9">
         <v>21</v>
@@ -12321,7 +12361,7 @@
         <v>34</v>
       </c>
       <c r="F400" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H400" s="2">
         <v>172</v>
@@ -12375,7 +12415,7 @@
         <v>13</v>
       </c>
       <c r="F402" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H402" s="2">
         <v>172</v>
@@ -12402,7 +12442,7 @@
         <v>18</v>
       </c>
       <c r="F403" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H403" s="2">
         <v>172</v>
@@ -12426,7 +12466,7 @@
         <v>161</v>
       </c>
       <c r="E404" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F404" s="11"/>
       <c r="H404" s="2">
@@ -12451,7 +12491,7 @@
         <v>515</v>
       </c>
       <c r="E405" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F405" s="11"/>
       <c r="H405" s="2">
@@ -12476,7 +12516,7 @@
         <v>9100</v>
       </c>
       <c r="E406" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F406" s="11"/>
       <c r="H406" s="2">
@@ -12495,7 +12535,7 @@
     </row>
     <row r="407" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A407" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -12547,7 +12587,7 @@
     </row>
     <row r="409" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A409" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -12574,7 +12614,7 @@
     </row>
     <row r="410" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A410" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -12612,7 +12652,7 @@
         <v>13</v>
       </c>
       <c r="F411" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H411" s="2">
         <v>172</v>
@@ -12636,7 +12676,7 @@
         <v>161</v>
       </c>
       <c r="E412" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F412" s="11"/>
       <c r="H412" s="2">
@@ -12664,7 +12704,7 @@
         <v>37</v>
       </c>
       <c r="F413" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H413" s="2">
         <v>172</v>
@@ -12688,7 +12728,7 @@
         <v>515</v>
       </c>
       <c r="E414" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F414" s="11"/>
       <c r="H414" s="2">
@@ -12716,7 +12756,7 @@
         <v>13</v>
       </c>
       <c r="F415" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H415" s="2">
         <v>172</v>
@@ -12743,7 +12783,7 @@
         <v>13</v>
       </c>
       <c r="F416" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H416" s="2">
         <v>172</v>
@@ -12761,7 +12801,7 @@
     </row>
     <row r="417" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A417" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -12796,10 +12836,10 @@
         <v>5000</v>
       </c>
       <c r="E418" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F418" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H418" s="2">
         <v>172</v>
@@ -12823,7 +12863,7 @@
         <v>49152</v>
       </c>
       <c r="E419" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F419" s="11"/>
       <c r="H419" s="2">
@@ -12848,10 +12888,10 @@
         <v>49153</v>
       </c>
       <c r="E420" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F420" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H420" s="2">
         <v>172</v>
@@ -12869,7 +12909,7 @@
     </row>
     <row r="421" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A421" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -12907,7 +12947,7 @@
         <v>13</v>
       </c>
       <c r="F422" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H422" s="2">
         <v>172</v>
@@ -12925,7 +12965,7 @@
     </row>
     <row r="423" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A423" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -12952,7 +12992,7 @@
     </row>
     <row r="424" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A424" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
@@ -12987,7 +13027,7 @@
         <v>8080</v>
       </c>
       <c r="E425" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F425" s="11"/>
       <c r="H425" s="2">
@@ -13006,7 +13046,7 @@
     </row>
     <row r="426" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A426" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -13017,7 +13057,7 @@
         <v>34</v>
       </c>
       <c r="F426" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H426" s="2">
         <v>172</v>
@@ -13041,10 +13081,10 @@
         <v>23</v>
       </c>
       <c r="E427" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F427" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H427" s="2">
         <v>172</v>
@@ -13098,7 +13138,7 @@
         <v>13</v>
       </c>
       <c r="F429" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H429" s="2">
         <v>172</v>
@@ -13122,7 +13162,7 @@
         <v>161</v>
       </c>
       <c r="E430" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F430" s="11"/>
       <c r="H430" s="2">
@@ -13150,7 +13190,7 @@
         <v>37</v>
       </c>
       <c r="F431" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H431" s="2">
         <v>172</v>
@@ -13174,7 +13214,7 @@
         <v>515</v>
       </c>
       <c r="E432" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F432" s="11"/>
       <c r="H432" s="2">
@@ -13202,7 +13242,7 @@
         <v>13</v>
       </c>
       <c r="F433" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H433" s="2">
         <v>172</v>
@@ -13226,7 +13266,7 @@
         <v>9100</v>
       </c>
       <c r="E434" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F434" s="11"/>
       <c r="H434" s="2">
@@ -13245,7 +13285,7 @@
     </row>
     <row r="435" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A435" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -13256,7 +13296,7 @@
         <v>34</v>
       </c>
       <c r="F435" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H435" s="2">
         <v>172</v>
@@ -13280,10 +13320,10 @@
         <v>23</v>
       </c>
       <c r="E436" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F436" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H436" s="2">
         <v>172</v>
@@ -13337,7 +13377,7 @@
         <v>13</v>
       </c>
       <c r="F438" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H438" s="2">
         <v>172</v>
@@ -13361,7 +13401,7 @@
         <v>161</v>
       </c>
       <c r="E439" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F439" s="11"/>
       <c r="H439" s="2">
@@ -13389,7 +13429,7 @@
         <v>37</v>
       </c>
       <c r="F440" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H440" s="2">
         <v>172</v>
@@ -13413,7 +13453,7 @@
         <v>515</v>
       </c>
       <c r="E441" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F441" s="11"/>
       <c r="H441" s="2">
@@ -13441,7 +13481,7 @@
         <v>13</v>
       </c>
       <c r="F442" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H442" s="2">
         <v>172</v>
@@ -13465,7 +13505,7 @@
         <v>9100</v>
       </c>
       <c r="E443" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F443" s="11"/>
       <c r="H443" s="2">
@@ -13484,7 +13524,7 @@
     </row>
     <row r="444" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A444" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -13495,7 +13535,7 @@
         <v>28</v>
       </c>
       <c r="F444" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H444" s="2">
         <v>172</v>
@@ -13519,7 +13559,7 @@
         <v>23</v>
       </c>
       <c r="E445" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F445" s="11"/>
       <c r="H445" s="2">
@@ -13574,7 +13614,7 @@
         <v>13</v>
       </c>
       <c r="F447" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H447" s="2">
         <v>172</v>
@@ -13598,7 +13638,7 @@
         <v>161</v>
       </c>
       <c r="E448" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F448" s="11"/>
       <c r="H448" s="2">
@@ -13623,7 +13663,7 @@
         <v>443</v>
       </c>
       <c r="E449" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F449" s="11"/>
       <c r="H449" s="2">
@@ -13651,7 +13691,7 @@
         <v>13</v>
       </c>
       <c r="F450" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H450" s="2">
         <v>172</v>
@@ -13669,7 +13709,7 @@
     </row>
     <row r="451" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A451" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -13680,7 +13720,7 @@
         <v>28</v>
       </c>
       <c r="F451" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H451" s="2">
         <v>172</v>
@@ -13704,7 +13744,7 @@
         <v>23</v>
       </c>
       <c r="E452" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F452" s="11"/>
       <c r="H452" s="2">
@@ -13759,7 +13799,7 @@
         <v>13</v>
       </c>
       <c r="F454" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H454" s="2">
         <v>172</v>
@@ -13783,7 +13823,7 @@
         <v>161</v>
       </c>
       <c r="E455" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F455" s="11"/>
       <c r="H455" s="2">
@@ -13808,7 +13848,7 @@
         <v>443</v>
       </c>
       <c r="E456" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F456" s="11"/>
       <c r="H456" s="2">
@@ -13833,10 +13873,10 @@
         <v>8080</v>
       </c>
       <c r="E457" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F457" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H457" s="2">
         <v>172</v>
@@ -13854,7 +13894,7 @@
     </row>
     <row r="458" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A458" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
@@ -13865,7 +13905,7 @@
         <v>28</v>
       </c>
       <c r="F458" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H458" s="2">
         <v>172</v>
@@ -13889,7 +13929,7 @@
         <v>23</v>
       </c>
       <c r="E459" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F459" s="11"/>
       <c r="H459" s="2">
@@ -13944,7 +13984,7 @@
         <v>13</v>
       </c>
       <c r="F461" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H461" s="2">
         <v>172</v>
@@ -13968,7 +14008,7 @@
         <v>161</v>
       </c>
       <c r="E462" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F462" s="11"/>
       <c r="H462" s="2">
@@ -13993,7 +14033,7 @@
         <v>443</v>
       </c>
       <c r="E463" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F463" s="11"/>
       <c r="H463" s="2">
@@ -14021,7 +14061,7 @@
         <v>13</v>
       </c>
       <c r="F464" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H464" s="2">
         <v>172</v>
@@ -14039,7 +14079,7 @@
     </row>
     <row r="465" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A465" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -14050,7 +14090,7 @@
         <v>28</v>
       </c>
       <c r="F465" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H465" s="2">
         <v>172</v>
@@ -14074,7 +14114,7 @@
         <v>23</v>
       </c>
       <c r="E466" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F466" s="11"/>
       <c r="H466" s="2">
@@ -14129,7 +14169,7 @@
         <v>13</v>
       </c>
       <c r="F468" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H468" s="2">
         <v>172</v>
@@ -14153,7 +14193,7 @@
         <v>161</v>
       </c>
       <c r="E469" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F469" s="11"/>
       <c r="H469" s="2">
@@ -14178,7 +14218,7 @@
         <v>443</v>
       </c>
       <c r="E470" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F470" s="11"/>
       <c r="H470" s="2">
@@ -14206,7 +14246,7 @@
         <v>13</v>
       </c>
       <c r="F471" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H471" s="2">
         <v>172</v>
@@ -14224,7 +14264,7 @@
     </row>
     <row r="472" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A472" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -14235,7 +14275,7 @@
         <v>28</v>
       </c>
       <c r="F472" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H472" s="2">
         <v>172</v>
@@ -14259,7 +14299,7 @@
         <v>23</v>
       </c>
       <c r="E473" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F473" s="11"/>
       <c r="H473" s="2">
@@ -14314,7 +14354,7 @@
         <v>13</v>
       </c>
       <c r="F475" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H475" s="2">
         <v>172</v>
@@ -14338,7 +14378,7 @@
         <v>161</v>
       </c>
       <c r="E476" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F476" s="11"/>
       <c r="H476" s="2">
@@ -14363,7 +14403,7 @@
         <v>443</v>
       </c>
       <c r="E477" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F477" s="11"/>
       <c r="H477" s="2">
@@ -14391,7 +14431,7 @@
         <v>13</v>
       </c>
       <c r="F478" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H478" s="2">
         <v>172</v>
@@ -14409,7 +14449,7 @@
     </row>
     <row r="479" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A479" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -14420,7 +14460,7 @@
         <v>28</v>
       </c>
       <c r="F479" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H479" s="2">
         <v>172</v>
@@ -14444,7 +14484,7 @@
         <v>23</v>
       </c>
       <c r="E480" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F480" s="11"/>
       <c r="H480" s="2">
@@ -14499,7 +14539,7 @@
         <v>13</v>
       </c>
       <c r="F482" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H482" s="2">
         <v>172</v>
@@ -14523,7 +14563,7 @@
         <v>161</v>
       </c>
       <c r="E483" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F483" s="11"/>
       <c r="H483" s="2">
@@ -14548,7 +14588,7 @@
         <v>443</v>
       </c>
       <c r="E484" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F484" s="11"/>
       <c r="H484" s="2">
@@ -14576,7 +14616,7 @@
         <v>13</v>
       </c>
       <c r="F485" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H485" s="2">
         <v>172</v>
@@ -14594,7 +14634,7 @@
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A486" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -14605,7 +14645,7 @@
         <v>28</v>
       </c>
       <c r="F486" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H486" s="2">
         <v>172</v>
@@ -14629,7 +14669,7 @@
         <v>23</v>
       </c>
       <c r="E487" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F487" s="11"/>
       <c r="H487" s="2">
@@ -14684,7 +14724,7 @@
         <v>13</v>
       </c>
       <c r="F489" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H489" s="2">
         <v>172</v>
@@ -14708,7 +14748,7 @@
         <v>161</v>
       </c>
       <c r="E490" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F490" s="11"/>
       <c r="H490" s="2">
@@ -14733,7 +14773,7 @@
         <v>443</v>
       </c>
       <c r="E491" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F491" s="11"/>
       <c r="H491" s="2">
@@ -14761,7 +14801,7 @@
         <v>13</v>
       </c>
       <c r="F492" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H492" s="2">
         <v>172</v>
@@ -14779,7 +14819,7 @@
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A493" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
@@ -14790,7 +14830,7 @@
         <v>28</v>
       </c>
       <c r="F493" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H493" s="2">
         <v>172</v>
@@ -14814,7 +14854,7 @@
         <v>23</v>
       </c>
       <c r="E494" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F494" s="11"/>
       <c r="H494" s="2">
@@ -14869,7 +14909,7 @@
         <v>13</v>
       </c>
       <c r="F496" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H496" s="2">
         <v>172</v>
@@ -14893,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="E497" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F497" s="11"/>
       <c r="H497" s="2">
@@ -14918,7 +14958,7 @@
         <v>443</v>
       </c>
       <c r="E498" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F498" s="11"/>
       <c r="H498" s="2">
@@ -14946,7 +14986,7 @@
         <v>13</v>
       </c>
       <c r="F499" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H499" s="2">
         <v>172</v>
@@ -14964,7 +15004,7 @@
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A500" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
@@ -14975,7 +15015,7 @@
         <v>28</v>
       </c>
       <c r="F500" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H500" s="2">
         <v>172</v>
@@ -14999,7 +15039,7 @@
         <v>23</v>
       </c>
       <c r="E501" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F501" s="11"/>
       <c r="H501" s="2">
@@ -15054,7 +15094,7 @@
         <v>13</v>
       </c>
       <c r="F503" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H503" s="2">
         <v>172</v>
@@ -15078,7 +15118,7 @@
         <v>161</v>
       </c>
       <c r="E504" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F504" s="11"/>
       <c r="H504" s="2">
@@ -15103,7 +15143,7 @@
         <v>443</v>
       </c>
       <c r="E505" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F505" s="11"/>
       <c r="H505" s="2">
@@ -15131,7 +15171,7 @@
         <v>13</v>
       </c>
       <c r="F506" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H506" s="2">
         <v>172</v>
@@ -15149,7 +15189,7 @@
     </row>
     <row r="507" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A507" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -15160,7 +15200,7 @@
         <v>28</v>
       </c>
       <c r="F507" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H507" s="2">
         <v>172</v>
@@ -15184,7 +15224,7 @@
         <v>23</v>
       </c>
       <c r="E508" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F508" s="11"/>
       <c r="H508" s="2">
@@ -15239,7 +15279,7 @@
         <v>13</v>
       </c>
       <c r="F510" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H510" s="2">
         <v>172</v>
@@ -15263,7 +15303,7 @@
         <v>161</v>
       </c>
       <c r="E511" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F511" s="11"/>
       <c r="H511" s="2">
@@ -15288,7 +15328,7 @@
         <v>443</v>
       </c>
       <c r="E512" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F512" s="11"/>
       <c r="H512" s="2">
@@ -15316,7 +15356,7 @@
         <v>13</v>
       </c>
       <c r="F513" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H513" s="2">
         <v>172</v>
@@ -15334,7 +15374,7 @@
     </row>
     <row r="514" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A514" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
@@ -15345,7 +15385,7 @@
         <v>28</v>
       </c>
       <c r="F514" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H514" s="2">
         <v>172</v>
@@ -15369,7 +15409,7 @@
         <v>23</v>
       </c>
       <c r="E515" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F515" s="11"/>
       <c r="H515" s="2">
@@ -15424,7 +15464,7 @@
         <v>13</v>
       </c>
       <c r="F517" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H517" s="2">
         <v>172</v>
@@ -15448,7 +15488,7 @@
         <v>161</v>
       </c>
       <c r="E518" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F518" s="11"/>
       <c r="H518" s="2">
@@ -15473,7 +15513,7 @@
         <v>443</v>
       </c>
       <c r="E519" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F519" s="11"/>
       <c r="H519" s="2">
@@ -15501,7 +15541,7 @@
         <v>13</v>
       </c>
       <c r="F520" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H520" s="2">
         <v>172</v>
@@ -15519,7 +15559,7 @@
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A521" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -15554,7 +15594,7 @@
         <v>8080</v>
       </c>
       <c r="E522" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F522" s="11"/>
       <c r="H522" s="2">
@@ -15573,7 +15613,7 @@
     </row>
     <row r="523" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A523" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -15584,7 +15624,7 @@
         <v>34</v>
       </c>
       <c r="F523" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H523" s="2">
         <v>172</v>
@@ -15608,10 +15648,10 @@
         <v>23</v>
       </c>
       <c r="E524" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F524" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H524" s="2">
         <v>172</v>
@@ -15665,7 +15705,7 @@
         <v>13</v>
       </c>
       <c r="F526" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H526" s="2">
         <v>172</v>
@@ -15689,7 +15729,7 @@
         <v>161</v>
       </c>
       <c r="E527" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F527" s="11"/>
       <c r="H527" s="2">
@@ -15714,7 +15754,7 @@
         <v>631</v>
       </c>
       <c r="E528" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F528" s="11"/>
       <c r="H528" s="2">
@@ -15739,7 +15779,7 @@
         <v>9100</v>
       </c>
       <c r="E529" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F529" s="11"/>
       <c r="H529" s="2">
@@ -15758,9 +15798,11 @@
     </row>
     <row r="530" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A530" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="B530" s="9"/>
+        <v>312</v>
+      </c>
+      <c r="B530" s="9" t="s">
+        <v>320</v>
+      </c>
       <c r="C530" s="9"/>
       <c r="D530" s="9">
         <v>53</v>
@@ -15796,7 +15838,7 @@
         <v>13</v>
       </c>
       <c r="F531" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H531" s="2">
         <v>172</v>
@@ -15820,7 +15862,7 @@
         <v>161</v>
       </c>
       <c r="E532" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F532" s="11"/>
       <c r="H532" s="2">
@@ -15845,7 +15887,7 @@
         <v>427</v>
       </c>
       <c r="E533" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F533" s="11"/>
       <c r="H533" s="2">
@@ -15869,7 +15911,7 @@
         <v>443</v>
       </c>
       <c r="E534" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F534" s="11"/>
       <c r="H534" s="2">
@@ -15893,7 +15935,7 @@
         <v>515</v>
       </c>
       <c r="E535" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F535" s="11"/>
       <c r="H535" s="2">
@@ -15917,10 +15959,10 @@
         <v>631</v>
       </c>
       <c r="E536" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F536" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H536" s="2">
         <v>172</v>
@@ -15943,7 +15985,7 @@
         <v>9100</v>
       </c>
       <c r="E537" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F537" s="11"/>
       <c r="H537" s="2">
@@ -15961,7 +16003,7 @@
     </row>
     <row r="538" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A538" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
@@ -15972,7 +16014,7 @@
         <v>28</v>
       </c>
       <c r="F538" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H538" s="2">
         <v>172</v>
@@ -15995,7 +16037,7 @@
         <v>23</v>
       </c>
       <c r="E539" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F539" s="11"/>
       <c r="H539" s="2">
@@ -16048,7 +16090,7 @@
         <v>13</v>
       </c>
       <c r="F541" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H541" s="2">
         <v>172</v>
@@ -16071,7 +16113,7 @@
         <v>161</v>
       </c>
       <c r="E542" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F542" s="11"/>
       <c r="H542" s="2">
@@ -16095,7 +16137,7 @@
         <v>443</v>
       </c>
       <c r="E543" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F543" s="11"/>
       <c r="H543" s="2">
@@ -16122,7 +16164,7 @@
         <v>13</v>
       </c>
       <c r="F544" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H544" s="2">
         <v>172</v>

--- a/KGS/KGS.xlsx
+++ b/KGS/KGS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\dotfiles\KGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects\AlexGit\dotfiles\KGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2912CF19-9918-4E45-B549-402490960B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D846D8B-E665-4402-A6A5-DE081381FC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{D273C349-3FD2-4362-B0B1-9863D35FF8F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D273C349-3FD2-4362-B0B1-9863D35FF8F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="322">
   <si>
     <t>Interesting shit</t>
   </si>
@@ -1175,6 +1175,9 @@
   </si>
   <si>
     <t>Konica Minolta Drucker</t>
+  </si>
+  <si>
+    <t>Steffen</t>
   </si>
 </sst>
 </file>
@@ -1388,12 +1391,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1402,6 +1399,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1724,46 +1727,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D700B811-19C1-4D29-9B56-CDF0AB18693E}">
   <dimension ref="A1:W544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B398" sqref="B398"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.265625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" style="11"/>
-    <col min="5" max="5" width="15.59765625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="35.59765625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="34.265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="1.265625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.1328125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="1.265625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.3984375" style="8" customWidth="1"/>
-    <col min="14" max="15" width="19.3984375" style="8" customWidth="1"/>
-    <col min="16" max="16" width="11.3984375" style="8"/>
-    <col min="17" max="17" width="17.265625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="11"/>
+    <col min="5" max="5" width="15.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="1.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="1.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="8" customWidth="1"/>
+    <col min="14" max="15" width="19.42578125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="8"/>
+    <col min="17" max="17" width="17.28515625" style="8" customWidth="1"/>
     <col min="18" max="18" width="37" style="10" customWidth="1"/>
     <col min="19" max="19" width="24" customWidth="1"/>
-    <col min="20" max="20" width="21.86328125" style="20" customWidth="1"/>
-    <col min="21" max="21" width="12.3984375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="19.86328125" style="20" customWidth="1"/>
-    <col min="23" max="23" width="29.86328125" style="20" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" style="20" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" style="20" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" style="20" customWidth="1"/>
+    <col min="23" max="23" width="29.85546875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1847,7 +1850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1873,7 +1876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1899,7 +1902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1923,7 +1926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1952,7 +1955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1981,7 +1984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>25</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2039,7 +2042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2066,7 +2069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>32</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2124,7 +2127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2150,7 +2153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2176,7 +2179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2234,7 +2237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2267,7 +2270,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2303,7 +2306,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2336,7 +2339,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
@@ -2375,7 +2378,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2408,7 +2411,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2441,7 +2444,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2474,7 +2477,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2510,7 +2513,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2537,7 +2540,7 @@
       </c>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>54</v>
       </c>
@@ -2570,7 +2573,7 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2597,7 +2600,7 @@
       </c>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2624,7 +2627,7 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2654,7 +2657,7 @@
       </c>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2679,7 +2682,7 @@
       </c>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2706,7 +2709,7 @@
       </c>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2733,7 +2736,7 @@
       </c>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>64</v>
       </c>
@@ -2766,7 +2769,7 @@
       </c>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2794,7 +2797,7 @@
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2821,7 +2824,7 @@
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2848,20 +2851,20 @@
       </c>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" ht="405" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32">
         <v>548</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="33" t="s">
         <v>317</v>
       </c>
       <c r="H39" s="2">
@@ -2878,7 +2881,7 @@
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2905,7 +2908,7 @@
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2933,7 +2936,7 @@
       </c>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2960,7 +2963,7 @@
       </c>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>76</v>
       </c>
@@ -2991,7 +2994,7 @@
       </c>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -3016,7 +3019,7 @@
       </c>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -3041,7 +3044,7 @@
       </c>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -3066,7 +3069,7 @@
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -3091,7 +3094,7 @@
       </c>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -3116,7 +3119,7 @@
       </c>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>80</v>
       </c>
@@ -3152,7 +3155,7 @@
       </c>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -3177,7 +3180,7 @@
       </c>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -3204,7 +3207,7 @@
       </c>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -3231,7 +3234,7 @@
       </c>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -3256,7 +3259,7 @@
       </c>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -3281,7 +3284,7 @@
       </c>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -3308,7 +3311,7 @@
       </c>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>87</v>
       </c>
@@ -3340,7 +3343,7 @@
       <c r="M56" s="23"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -3368,7 +3371,7 @@
       <c r="M57" s="24"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -3396,7 +3399,7 @@
       <c r="M58" s="24"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -3424,7 +3427,7 @@
       <c r="M59" s="24"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3440,7 +3443,7 @@
       <c r="M60" s="24"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -3468,7 +3471,7 @@
       <c r="M61" s="24"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -3494,7 +3497,7 @@
       <c r="R62" s="3"/>
       <c r="V62" s="25"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -3522,7 +3525,7 @@
       <c r="M63" s="24"/>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -3550,7 +3553,7 @@
       <c r="M64" s="24"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -3566,7 +3569,7 @@
       <c r="M65" s="24"/>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -3591,7 +3594,7 @@
       <c r="M66" s="24"/>
       <c r="S66" s="26"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -3621,7 +3624,7 @@
       </c>
       <c r="M67" s="24"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -3647,7 +3650,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -3671,7 +3674,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -3687,7 +3690,7 @@
       <c r="M70" s="24"/>
       <c r="R70" s="3"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -3715,7 +3718,7 @@
       <c r="M71" s="24"/>
       <c r="R71" s="3"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3743,7 +3746,7 @@
       <c r="M72" s="24"/>
       <c r="R72" s="3"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -3770,7 +3773,7 @@
       <c r="R73" s="3"/>
       <c r="U73" s="27"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="29"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3787,7 +3790,7 @@
       <c r="R74" s="3"/>
       <c r="U74" s="27"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="29"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -3804,7 +3807,7 @@
       <c r="R75" s="3"/>
       <c r="U75" s="27"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -3830,7 +3833,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>117</v>
       </c>
@@ -3858,7 +3861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -3884,7 +3887,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="57" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -3913,7 +3916,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -3937,7 +3940,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
         <v>123</v>
       </c>
@@ -3968,7 +3971,7 @@
       </c>
       <c r="R81" s="3"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -3995,7 +3998,7 @@
       </c>
       <c r="R82" s="3"/>
     </row>
-    <row r="83" spans="1:18" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -4025,7 +4028,7 @@
       </c>
       <c r="R83" s="3"/>
     </row>
-    <row r="84" spans="1:18" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:18" ht="285" x14ac:dyDescent="0.25">
       <c r="A84" s="21"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -4055,7 +4058,7 @@
       </c>
       <c r="R84" s="3"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -4080,20 +4083,20 @@
       </c>
       <c r="R85" s="3"/>
     </row>
-    <row r="86" spans="1:18" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:18" ht="225" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34">
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32">
         <v>445</v>
       </c>
-      <c r="E86" s="34" t="s">
+      <c r="E86" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F86" s="35" t="s">
+      <c r="F86" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="G86" s="35" t="s">
+      <c r="G86" s="33" t="s">
         <v>316</v>
       </c>
       <c r="H86" s="2">
@@ -4110,7 +4113,7 @@
       </c>
       <c r="R86" s="3"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>128</v>
       </c>
@@ -4141,7 +4144,7 @@
       </c>
       <c r="R87" s="3"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -4168,7 +4171,7 @@
       </c>
       <c r="R88" s="3"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -4193,19 +4196,19 @@
       </c>
       <c r="R89" s="3"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R90" s="3"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R91" s="3"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R92" s="3"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R93" s="3"/>
     </row>
-    <row r="94" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>132</v>
       </c>
@@ -4224,6 +4227,9 @@
       <c r="F94" s="11" t="s">
         <v>134</v>
       </c>
+      <c r="G94" s="34" t="s">
+        <v>321</v>
+      </c>
       <c r="H94" s="2">
         <v>172</v>
       </c>
@@ -4238,7 +4244,7 @@
       </c>
       <c r="R94" s="3"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -4263,7 +4269,7 @@
       </c>
       <c r="R95" s="3"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -4293,7 +4299,7 @@
       </c>
       <c r="R96" s="3"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -4320,7 +4326,7 @@
       </c>
       <c r="R97" s="3"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -4345,7 +4351,7 @@
       </c>
       <c r="R98" s="3"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
         <v>141</v>
       </c>
@@ -4376,7 +4382,7 @@
       </c>
       <c r="R99" s="3"/>
     </row>
-    <row r="100" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -4403,7 +4409,7 @@
       </c>
       <c r="R100" s="3"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="21"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -4430,7 +4436,7 @@
       </c>
       <c r="R101" s="3"/>
     </row>
-    <row r="102" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -4457,7 +4463,7 @@
       </c>
       <c r="R102" s="3"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -4484,7 +4490,7 @@
       </c>
       <c r="R103" s="3"/>
     </row>
-    <row r="104" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -4511,7 +4517,7 @@
       </c>
       <c r="R104" s="3"/>
     </row>
-    <row r="105" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>146</v>
       </c>
@@ -4542,7 +4548,7 @@
       </c>
       <c r="R105" s="3"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -4569,7 +4575,7 @@
       </c>
       <c r="R106" s="3"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -4596,7 +4602,7 @@
       </c>
       <c r="R107" s="3"/>
     </row>
-    <row r="108" spans="1:18" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -4626,7 +4632,7 @@
       </c>
       <c r="R108" s="3"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -4656,7 +4662,7 @@
       </c>
       <c r="R109" s="3"/>
     </row>
-    <row r="110" spans="1:18" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -4686,7 +4692,7 @@
       </c>
       <c r="R110" s="3"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -4704,7 +4710,7 @@
       </c>
       <c r="R111" s="3"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -4722,7 +4728,7 @@
       </c>
       <c r="R112" s="3"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
         <v>157</v>
       </c>
@@ -4753,7 +4759,7 @@
       </c>
       <c r="R113" s="3"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="31"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -4780,7 +4786,7 @@
       </c>
       <c r="R114" s="3"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="31"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -4807,7 +4813,7 @@
       </c>
       <c r="R115" s="3"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="31"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -4834,7 +4840,7 @@
       </c>
       <c r="R116" s="3"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="31"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -4859,7 +4865,7 @@
       </c>
       <c r="R117" s="3"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="31"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -4886,50 +4892,50 @@
       </c>
       <c r="R118" s="3"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R119" s="3"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R120" s="3"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
       <c r="J121" s="19"/>
       <c r="K121" s="19"/>
       <c r="R121" s="3"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
       <c r="J122" s="19"/>
       <c r="K122" s="19"/>
       <c r="R122" s="3"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
       <c r="J123" s="19"/>
       <c r="K123" s="19"/>
       <c r="R123" s="3"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A124" s="33" t="s">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B124" s="33"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
+      <c r="B124" s="36"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
       <c r="J124" s="19"/>
       <c r="K124" s="19"/>
       <c r="R124" s="3"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>1</v>
       </c>
@@ -4957,7 +4963,7 @@
       <c r="K125" s="19"/>
       <c r="R125" s="3"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>159</v>
       </c>
@@ -4991,7 +4997,7 @@
       </c>
       <c r="R126" s="3"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -5017,7 +5023,7 @@
       </c>
       <c r="R127" s="3"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>161</v>
       </c>
@@ -5045,7 +5051,7 @@
       </c>
       <c r="R128" s="3"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>162</v>
       </c>
@@ -5078,7 +5084,7 @@
       </c>
       <c r="R129" s="3"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -5103,7 +5109,7 @@
       </c>
       <c r="R130" s="3"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>163</v>
       </c>
@@ -5134,7 +5140,7 @@
       </c>
       <c r="R131" s="3"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>164</v>
       </c>
@@ -5165,7 +5171,7 @@
       </c>
       <c r="R132" s="3"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>165</v>
       </c>
@@ -5196,7 +5202,7 @@
       </c>
       <c r="R133" s="3"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -5221,7 +5227,7 @@
       </c>
       <c r="R134" s="3"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>166</v>
       </c>
@@ -5252,7 +5258,7 @@
       </c>
       <c r="R135" s="3"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -5277,7 +5283,7 @@
       </c>
       <c r="R136" s="3"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>167</v>
       </c>
@@ -5308,7 +5314,7 @@
       </c>
       <c r="R137" s="3"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -5333,7 +5339,7 @@
       </c>
       <c r="R138" s="3"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>168</v>
       </c>
@@ -5366,7 +5372,7 @@
       </c>
       <c r="R139" s="3"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -5393,7 +5399,7 @@
       </c>
       <c r="R140" s="3"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -5418,7 +5424,7 @@
       </c>
       <c r="R141" s="3"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -5443,7 +5449,7 @@
       </c>
       <c r="R142" s="3"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -5468,7 +5474,7 @@
       </c>
       <c r="R143" s="3"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>173</v>
       </c>
@@ -5497,7 +5503,7 @@
       </c>
       <c r="R144" s="3"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -5522,7 +5528,7 @@
       </c>
       <c r="R145" s="3"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>174</v>
       </c>
@@ -5551,7 +5557,7 @@
       </c>
       <c r="R146" s="3"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>175</v>
       </c>
@@ -5580,7 +5586,7 @@
       </c>
       <c r="R147" s="3"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -5605,7 +5611,7 @@
       </c>
       <c r="R148" s="3"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>176</v>
       </c>
@@ -5634,7 +5640,7 @@
       </c>
       <c r="R149" s="3"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -5659,7 +5665,7 @@
       </c>
       <c r="R150" s="3"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>177</v>
       </c>
@@ -5688,7 +5694,7 @@
       </c>
       <c r="R151" s="3"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -5713,7 +5719,7 @@
       </c>
       <c r="R152" s="3"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>178</v>
       </c>
@@ -5742,7 +5748,7 @@
       </c>
       <c r="R153" s="3"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>179</v>
       </c>
@@ -5773,7 +5779,7 @@
       </c>
       <c r="R154" s="3"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -5798,7 +5804,7 @@
       </c>
       <c r="R155" s="3"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>181</v>
       </c>
@@ -5829,7 +5835,7 @@
       </c>
       <c r="R156" s="3"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -5856,7 +5862,7 @@
       </c>
       <c r="R157" s="3"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -5881,7 +5887,7 @@
       </c>
       <c r="R158" s="3"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -5906,7 +5912,7 @@
       </c>
       <c r="R159" s="3"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -5931,7 +5937,7 @@
       </c>
       <c r="R160" s="3"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -5958,7 +5964,7 @@
       </c>
       <c r="R161" s="3"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -5985,7 +5991,7 @@
       </c>
       <c r="R162" s="3"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>187</v>
       </c>
@@ -6014,7 +6020,7 @@
       </c>
       <c r="R163" s="3"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -6039,7 +6045,7 @@
       </c>
       <c r="R164" s="3"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>188</v>
       </c>
@@ -6068,7 +6074,7 @@
       </c>
       <c r="R165" s="3"/>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -6093,7 +6099,7 @@
       </c>
       <c r="R166" s="3"/>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>189</v>
       </c>
@@ -6122,7 +6128,7 @@
       </c>
       <c r="R167" s="3"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>190</v>
       </c>
@@ -6153,7 +6159,7 @@
       </c>
       <c r="R168" s="3"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -6178,7 +6184,7 @@
       </c>
       <c r="R169" s="3"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -6203,7 +6209,7 @@
       </c>
       <c r="R170" s="3"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -6228,7 +6234,7 @@
       </c>
       <c r="R171" s="3"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -6253,7 +6259,7 @@
       </c>
       <c r="R172" s="3"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -6278,7 +6284,7 @@
       </c>
       <c r="R173" s="3"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -6303,7 +6309,7 @@
       </c>
       <c r="R174" s="3"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>193</v>
       </c>
@@ -6320,7 +6326,7 @@
         <v>34</v>
       </c>
       <c r="F175" s="11"/>
-      <c r="G175" s="36" t="s">
+      <c r="G175" s="34" t="s">
         <v>319</v>
       </c>
       <c r="H175" s="2">
@@ -6337,7 +6343,7 @@
       </c>
       <c r="R175" s="3"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -6364,7 +6370,7 @@
       </c>
       <c r="R176" s="3"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -6391,7 +6397,7 @@
       </c>
       <c r="R177" s="3"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -6418,7 +6424,7 @@
       </c>
       <c r="R178" s="3"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -6445,7 +6451,7 @@
       </c>
       <c r="R179" s="3"/>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -6472,7 +6478,7 @@
       </c>
       <c r="R180" s="3"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -6497,7 +6503,7 @@
       </c>
       <c r="R181" s="3"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -6524,7 +6530,7 @@
       </c>
       <c r="R182" s="3"/>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -6549,7 +6555,7 @@
       </c>
       <c r="R183" s="3"/>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>201</v>
       </c>
@@ -6578,7 +6584,7 @@
       </c>
       <c r="R184" s="3"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -6603,7 +6609,7 @@
       </c>
       <c r="R185" s="3"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>202</v>
       </c>
@@ -6630,7 +6636,7 @@
       </c>
       <c r="R186" s="3"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>203</v>
       </c>
@@ -6657,7 +6663,7 @@
       </c>
       <c r="R187" s="3"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>204</v>
       </c>
@@ -6684,7 +6690,7 @@
       </c>
       <c r="R188" s="3"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>205</v>
       </c>
@@ -6713,7 +6719,7 @@
       </c>
       <c r="R189" s="3"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -6738,7 +6744,7 @@
       </c>
       <c r="R190" s="3"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>206</v>
       </c>
@@ -6767,7 +6773,7 @@
       </c>
       <c r="R191" s="3"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>207</v>
       </c>
@@ -6796,7 +6802,7 @@
       </c>
       <c r="R192" s="3"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>208</v>
       </c>
@@ -6825,7 +6831,7 @@
       </c>
       <c r="R193" s="3"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -6850,7 +6856,7 @@
       </c>
       <c r="R194" s="3"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>209</v>
       </c>
@@ -6879,7 +6885,7 @@
       </c>
       <c r="R195" s="3"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>210</v>
       </c>
@@ -6908,7 +6914,7 @@
       </c>
       <c r="R196" s="3"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>211</v>
       </c>
@@ -6937,7 +6943,7 @@
       </c>
       <c r="R197" s="3"/>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -6962,7 +6968,7 @@
       </c>
       <c r="R198" s="3"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -6989,7 +6995,7 @@
       </c>
       <c r="R199" s="3"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -7014,7 +7020,7 @@
       </c>
       <c r="R200" s="3"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>212</v>
       </c>
@@ -7043,7 +7049,7 @@
       </c>
       <c r="R201" s="3"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>213</v>
       </c>
@@ -7072,7 +7078,7 @@
       </c>
       <c r="R202" s="3"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -7097,7 +7103,7 @@
       </c>
       <c r="R203" s="3"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>214</v>
       </c>
@@ -7128,7 +7134,7 @@
       </c>
       <c r="R204" s="3"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -7155,7 +7161,7 @@
       </c>
       <c r="R205" s="3"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -7182,7 +7188,7 @@
       </c>
       <c r="R206" s="3"/>
     </row>
-    <row r="207" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -7209,7 +7215,7 @@
       </c>
       <c r="R207" s="3"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -7234,7 +7240,7 @@
       </c>
       <c r="R208" s="3"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -7259,7 +7265,7 @@
       </c>
       <c r="R209" s="3"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -7284,7 +7290,7 @@
       </c>
       <c r="R210" s="3"/>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -7309,7 +7315,7 @@
       </c>
       <c r="R211" s="3"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -7334,7 +7340,7 @@
       </c>
       <c r="R212" s="3"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>220</v>
       </c>
@@ -7365,7 +7371,7 @@
       </c>
       <c r="R213" s="3"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -7390,7 +7396,7 @@
       </c>
       <c r="R214" s="3"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>221</v>
       </c>
@@ -7419,7 +7425,7 @@
       </c>
       <c r="R215" s="3"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -7446,7 +7452,7 @@
       </c>
       <c r="R216" s="3"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -7473,7 +7479,7 @@
       </c>
       <c r="R217" s="3"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>224</v>
       </c>
@@ -7502,7 +7508,7 @@
       </c>
       <c r="R218" s="3"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -7527,7 +7533,7 @@
       </c>
       <c r="R219" s="3"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>225</v>
       </c>
@@ -7558,7 +7564,7 @@
       </c>
       <c r="R220" s="3"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -7585,7 +7591,7 @@
       </c>
       <c r="R221" s="3"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -7612,7 +7618,7 @@
       </c>
       <c r="R222" s="3"/>
     </row>
-    <row r="223" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -7639,7 +7645,7 @@
       </c>
       <c r="R223" s="3"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -7664,7 +7670,7 @@
       </c>
       <c r="R224" s="3"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -7689,7 +7695,7 @@
       </c>
       <c r="R225" s="3"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -7714,7 +7720,7 @@
       </c>
       <c r="R226" s="3"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -7739,7 +7745,7 @@
       </c>
       <c r="R227" s="3"/>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -7764,7 +7770,7 @@
       </c>
       <c r="R228" s="3"/>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>228</v>
       </c>
@@ -7795,7 +7801,7 @@
       </c>
       <c r="R229" s="3"/>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -7822,7 +7828,7 @@
       </c>
       <c r="R230" s="3"/>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -7849,7 +7855,7 @@
       </c>
       <c r="R231" s="3"/>
     </row>
-    <row r="232" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -7876,7 +7882,7 @@
       </c>
       <c r="R232" s="3"/>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -7903,7 +7909,7 @@
       </c>
       <c r="R233" s="3"/>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -7928,7 +7934,7 @@
       </c>
       <c r="R234" s="3"/>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -7953,7 +7959,7 @@
       </c>
       <c r="R235" s="3"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -7978,7 +7984,7 @@
       </c>
       <c r="R236" s="3"/>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>231</v>
       </c>
@@ -8007,7 +8013,7 @@
       </c>
       <c r="R237" s="3"/>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -8032,7 +8038,7 @@
       </c>
       <c r="R238" s="3"/>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>232</v>
       </c>
@@ -8063,7 +8069,7 @@
       </c>
       <c r="R239" s="3"/>
     </row>
-    <row r="240" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -8090,7 +8096,7 @@
       </c>
       <c r="R240" s="3"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -8115,7 +8121,7 @@
       </c>
       <c r="R241" s="3"/>
     </row>
-    <row r="242" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -8142,7 +8148,7 @@
       </c>
       <c r="R242" s="3"/>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -8167,7 +8173,7 @@
       </c>
       <c r="R243" s="3"/>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>233</v>
       </c>
@@ -8198,7 +8204,7 @@
       </c>
       <c r="R244" s="3"/>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -8223,7 +8229,7 @@
       </c>
       <c r="R245" s="3"/>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>234</v>
       </c>
@@ -8254,7 +8260,7 @@
       </c>
       <c r="R246" s="3"/>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -8279,7 +8285,7 @@
       </c>
       <c r="R247" s="3"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>235</v>
       </c>
@@ -8310,7 +8316,7 @@
       </c>
       <c r="R248" s="3"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>236</v>
       </c>
@@ -8341,7 +8347,7 @@
       </c>
       <c r="R249" s="3"/>
     </row>
-    <row r="250" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -8368,7 +8374,7 @@
       </c>
       <c r="R250" s="3"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -8393,7 +8399,7 @@
       </c>
       <c r="R251" s="3"/>
     </row>
-    <row r="252" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -8420,7 +8426,7 @@
       </c>
       <c r="R252" s="3"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -8445,7 +8451,7 @@
       </c>
       <c r="R253" s="3"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>237</v>
       </c>
@@ -8474,7 +8480,7 @@
       </c>
       <c r="R254" s="3"/>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -8499,7 +8505,7 @@
       </c>
       <c r="R255" s="3"/>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
         <v>238</v>
       </c>
@@ -8530,7 +8536,7 @@
       </c>
       <c r="R256" s="3"/>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -8557,7 +8563,7 @@
       </c>
       <c r="R257" s="3"/>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -8582,7 +8588,7 @@
       </c>
       <c r="R258" s="3"/>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>240</v>
       </c>
@@ -8611,7 +8617,7 @@
       </c>
       <c r="R259" s="3"/>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -8638,7 +8644,7 @@
       </c>
       <c r="R260" s="3"/>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -8665,7 +8671,7 @@
       </c>
       <c r="R261" s="3"/>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -8692,7 +8698,7 @@
       </c>
       <c r="R262" s="3"/>
     </row>
-    <row r="263" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -8719,7 +8725,7 @@
       </c>
       <c r="R263" s="3"/>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -8744,7 +8750,7 @@
       </c>
       <c r="R264" s="3"/>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -8769,7 +8775,7 @@
       </c>
       <c r="R265" s="3"/>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -8794,7 +8800,7 @@
       </c>
       <c r="R266" s="3"/>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -8819,7 +8825,7 @@
       </c>
       <c r="R267" s="3"/>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>242</v>
       </c>
@@ -8850,7 +8856,7 @@
       </c>
       <c r="R268" s="3"/>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -8877,7 +8883,7 @@
       </c>
       <c r="R269" s="3"/>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -8904,7 +8910,7 @@
       </c>
       <c r="R270" s="3"/>
     </row>
-    <row r="271" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="9"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -8931,7 +8937,7 @@
       </c>
       <c r="R271" s="3"/>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -8956,7 +8962,7 @@
       </c>
       <c r="R272" s="3"/>
     </row>
-    <row r="273" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -8983,7 +8989,7 @@
       </c>
       <c r="R273" s="3"/>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" s="9"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -9008,7 +9014,7 @@
       </c>
       <c r="R274" s="3"/>
     </row>
-    <row r="275" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="9"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -9035,7 +9041,7 @@
       </c>
       <c r="R275" s="3"/>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" s="9"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -9060,7 +9066,7 @@
       </c>
       <c r="R276" s="3"/>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
         <v>243</v>
       </c>
@@ -9089,7 +9095,7 @@
       </c>
       <c r="R277" s="3"/>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
         <v>244</v>
       </c>
@@ -9118,7 +9124,7 @@
       </c>
       <c r="R278" s="3"/>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
         <v>245</v>
       </c>
@@ -9149,7 +9155,7 @@
       </c>
       <c r="R279" s="3"/>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
       <c r="D280" s="9">
@@ -9173,7 +9179,7 @@
       </c>
       <c r="R280" s="3"/>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>246</v>
       </c>
@@ -9204,7 +9210,7 @@
       </c>
       <c r="R281" s="3"/>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282" s="9"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -9229,7 +9235,7 @@
       </c>
       <c r="R282" s="3"/>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>247</v>
       </c>
@@ -9260,7 +9266,7 @@
       </c>
       <c r="R283" s="3"/>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
         <v>248</v>
       </c>
@@ -9291,7 +9297,7 @@
       </c>
       <c r="R284" s="3"/>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -9318,7 +9324,7 @@
       </c>
       <c r="R285" s="3"/>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -9345,7 +9351,7 @@
       </c>
       <c r="R286" s="3"/>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="9"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -9372,7 +9378,7 @@
       </c>
       <c r="R287" s="3"/>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288" s="9"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -9397,7 +9403,7 @@
       </c>
       <c r="R288" s="3"/>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" s="9"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -9422,7 +9428,7 @@
       </c>
       <c r="R289" s="3"/>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" s="9"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -9449,7 +9455,7 @@
       </c>
       <c r="R290" s="3"/>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -9474,7 +9480,7 @@
       </c>
       <c r="R291" s="3"/>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -9501,7 +9507,7 @@
       </c>
       <c r="R292" s="3"/>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -9526,7 +9532,7 @@
       </c>
       <c r="R293" s="3"/>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
         <v>252</v>
       </c>
@@ -9555,7 +9561,7 @@
       </c>
       <c r="R294" s="3"/>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
         <v>253</v>
       </c>
@@ -9586,7 +9592,7 @@
       </c>
       <c r="R295" s="3"/>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
         <v>254</v>
       </c>
@@ -9617,7 +9623,7 @@
       </c>
       <c r="R296" s="3"/>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
         <v>255</v>
       </c>
@@ -9646,7 +9652,7 @@
       </c>
       <c r="R297" s="3"/>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
         <v>256</v>
       </c>
@@ -9677,7 +9683,7 @@
       </c>
       <c r="R298" s="3"/>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -9702,7 +9708,7 @@
       </c>
       <c r="R299" s="3"/>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -9729,7 +9735,7 @@
       </c>
       <c r="R300" s="3"/>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -9754,7 +9760,7 @@
       </c>
       <c r="R301" s="3"/>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
         <v>257</v>
       </c>
@@ -9783,7 +9789,7 @@
       </c>
       <c r="R302" s="3"/>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -9810,7 +9816,7 @@
       </c>
       <c r="R303" s="3"/>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304" s="9"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -9837,7 +9843,7 @@
       </c>
       <c r="R304" s="3"/>
     </row>
-    <row r="305" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="9"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -9864,7 +9870,7 @@
       </c>
       <c r="R305" s="3"/>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A306" s="9"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -9889,7 +9895,7 @@
       </c>
       <c r="R306" s="3"/>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -9914,7 +9920,7 @@
       </c>
       <c r="R307" s="3"/>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A308" s="9"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -9939,7 +9945,7 @@
       </c>
       <c r="R308" s="3"/>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309" s="9"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -9964,7 +9970,7 @@
       </c>
       <c r="R309" s="3"/>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
         <v>259</v>
       </c>
@@ -9995,7 +10001,7 @@
       </c>
       <c r="R310" s="3"/>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311" s="9"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -10020,7 +10026,7 @@
       </c>
       <c r="R311" s="3"/>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312" s="9"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -10047,7 +10053,7 @@
       </c>
       <c r="R312" s="3"/>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313" s="9"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -10072,7 +10078,7 @@
       </c>
       <c r="R313" s="3"/>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>260</v>
       </c>
@@ -10103,7 +10109,7 @@
       </c>
       <c r="R314" s="3"/>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315" s="9"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -10130,7 +10136,7 @@
       </c>
       <c r="R315" s="3"/>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316" s="9"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -10157,7 +10163,7 @@
       </c>
       <c r="R316" s="3"/>
     </row>
-    <row r="317" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="9"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -10184,7 +10190,7 @@
       </c>
       <c r="R317" s="3"/>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318" s="9"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -10209,7 +10215,7 @@
       </c>
       <c r="R318" s="3"/>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A319" s="9"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -10234,7 +10240,7 @@
       </c>
       <c r="R319" s="3"/>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
         <v>261</v>
       </c>
@@ -10263,7 +10269,7 @@
       </c>
       <c r="R320" s="3"/>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321" s="9"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -10288,7 +10294,7 @@
       </c>
       <c r="R321" s="3"/>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
         <v>262</v>
       </c>
@@ -10317,7 +10323,7 @@
       </c>
       <c r="R322" s="3"/>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" s="9"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -10344,7 +10350,7 @@
       </c>
       <c r="R323" s="3"/>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324" s="9"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -10371,7 +10377,7 @@
       </c>
       <c r="R324" s="3"/>
     </row>
-    <row r="325" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="9"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -10398,7 +10404,7 @@
       </c>
       <c r="R325" s="3"/>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326" s="9"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -10423,7 +10429,7 @@
       </c>
       <c r="R326" s="3"/>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327" s="9"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -10448,7 +10454,7 @@
       </c>
       <c r="R327" s="3"/>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" s="9"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -10473,7 +10479,7 @@
       </c>
       <c r="R328" s="3"/>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" s="9"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -10498,7 +10504,7 @@
       </c>
       <c r="R329" s="3"/>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
         <v>263</v>
       </c>
@@ -10527,7 +10533,7 @@
       </c>
       <c r="R330" s="3"/>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="9"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -10554,7 +10560,7 @@
       </c>
       <c r="R331" s="3"/>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" s="9"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -10581,7 +10587,7 @@
       </c>
       <c r="R332" s="3"/>
     </row>
-    <row r="333" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="9"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -10608,7 +10614,7 @@
       </c>
       <c r="R333" s="3"/>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334" s="9"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -10633,7 +10639,7 @@
       </c>
       <c r="R334" s="3"/>
     </row>
-    <row r="335" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="9"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -10660,7 +10666,7 @@
       </c>
       <c r="R335" s="3"/>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336" s="9"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -10685,7 +10691,7 @@
       </c>
       <c r="R336" s="3"/>
     </row>
-    <row r="337" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="9"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -10712,7 +10718,7 @@
       </c>
       <c r="R337" s="3"/>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338" s="9"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -10737,7 +10743,7 @@
       </c>
       <c r="R338" s="3"/>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
         <v>264</v>
       </c>
@@ -10766,7 +10772,7 @@
       </c>
       <c r="R339" s="3"/>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340" s="9"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -10791,7 +10797,7 @@
       </c>
       <c r="R340" s="3"/>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A341" s="9"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -10818,7 +10824,7 @@
       </c>
       <c r="R341" s="3"/>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A342" s="9"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -10845,7 +10851,7 @@
       </c>
       <c r="R342" s="3"/>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A343" s="9"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -10870,7 +10876,7 @@
       </c>
       <c r="R343" s="3"/>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A344" s="9"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -10895,7 +10901,7 @@
       </c>
       <c r="R344" s="3"/>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345" s="9"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -10922,7 +10928,7 @@
       </c>
       <c r="R345" s="3"/>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
         <v>266</v>
       </c>
@@ -10951,7 +10957,7 @@
       </c>
       <c r="R346" s="3"/>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A347" s="9"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -10976,7 +10982,7 @@
       </c>
       <c r="R347" s="3"/>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A348" s="9"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
@@ -11003,7 +11009,7 @@
       </c>
       <c r="R348" s="3"/>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349" s="9"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -11030,7 +11036,7 @@
       </c>
       <c r="R349" s="3"/>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350" s="9"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
@@ -11055,7 +11061,7 @@
       </c>
       <c r="R350" s="3"/>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351" s="9"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -11080,7 +11086,7 @@
       </c>
       <c r="R351" s="3"/>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A352" s="9"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
@@ -11107,7 +11113,7 @@
       </c>
       <c r="R352" s="3"/>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
         <v>267</v>
       </c>
@@ -11136,7 +11142,7 @@
       </c>
       <c r="R353" s="3"/>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" s="9"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
@@ -11161,7 +11167,7 @@
       </c>
       <c r="R354" s="3"/>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A355" s="9"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -11188,7 +11194,7 @@
       </c>
       <c r="R355" s="3"/>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356" s="9"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -11215,7 +11221,7 @@
       </c>
       <c r="R356" s="3"/>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" s="9"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -11240,7 +11246,7 @@
       </c>
       <c r="R357" s="3"/>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358" s="9"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -11265,7 +11271,7 @@
       </c>
       <c r="R358" s="3"/>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A359" s="9"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -11292,7 +11298,7 @@
       </c>
       <c r="R359" s="3"/>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
         <v>268</v>
       </c>
@@ -11321,7 +11327,7 @@
       </c>
       <c r="R360" s="3"/>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A361" s="9"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -11346,7 +11352,7 @@
       </c>
       <c r="R361" s="3"/>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A362" s="9"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -11373,7 +11379,7 @@
       </c>
       <c r="R362" s="3"/>
     </row>
-    <row r="363" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="9"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -11400,7 +11406,7 @@
       </c>
       <c r="R363" s="3"/>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A364" s="9"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -11425,7 +11431,7 @@
       </c>
       <c r="R364" s="3"/>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" s="9"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -11450,7 +11456,7 @@
       </c>
       <c r="R365" s="3"/>
     </row>
-    <row r="366" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="9"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -11477,7 +11483,7 @@
       </c>
       <c r="R366" s="3"/>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
         <v>270</v>
       </c>
@@ -11504,7 +11510,7 @@
       </c>
       <c r="R367" s="3"/>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A368" s="9"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -11529,7 +11535,7 @@
       </c>
       <c r="R368" s="3"/>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369" s="9"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -11556,7 +11562,7 @@
       </c>
       <c r="R369" s="3"/>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A370" s="9"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -11581,7 +11587,7 @@
       </c>
       <c r="R370" s="3"/>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A371" s="9"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -11606,7 +11612,7 @@
       </c>
       <c r="R371" s="3"/>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372" s="9"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -11631,7 +11637,7 @@
       </c>
       <c r="R372" s="3"/>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373" s="9"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -11656,7 +11662,7 @@
       </c>
       <c r="R373" s="3"/>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
         <v>271</v>
       </c>
@@ -11685,7 +11691,7 @@
       </c>
       <c r="R374" s="3"/>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A375" s="9"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -11710,7 +11716,7 @@
       </c>
       <c r="R375" s="3"/>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
         <v>272</v>
       </c>
@@ -11739,7 +11745,7 @@
       </c>
       <c r="R376" s="3"/>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A377" s="9"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -11764,7 +11770,7 @@
       </c>
       <c r="R377" s="3"/>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
         <v>273</v>
       </c>
@@ -11793,7 +11799,7 @@
       </c>
       <c r="R378" s="3"/>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379" s="9"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -11820,7 +11826,7 @@
       </c>
       <c r="R379" s="3"/>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A380" s="9"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -11847,7 +11853,7 @@
       </c>
       <c r="R380" s="3"/>
     </row>
-    <row r="381" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="9"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -11874,7 +11880,7 @@
       </c>
       <c r="R381" s="3"/>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A382" s="9"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -11899,7 +11905,7 @@
       </c>
       <c r="R382" s="3"/>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A383" s="9"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -11924,7 +11930,7 @@
       </c>
       <c r="R383" s="3"/>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A384" s="9"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -11949,7 +11955,7 @@
       </c>
       <c r="R384" s="3"/>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
         <v>274</v>
       </c>
@@ -11978,7 +11984,7 @@
       </c>
       <c r="R385" s="3"/>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A386" s="9"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -12005,7 +12011,7 @@
       </c>
       <c r="R386" s="3"/>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A387" s="9"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -12032,7 +12038,7 @@
       </c>
       <c r="R387" s="3"/>
     </row>
-    <row r="388" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="9"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
@@ -12059,7 +12065,7 @@
       </c>
       <c r="R388" s="3"/>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A389" s="9"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -12084,7 +12090,7 @@
       </c>
       <c r="R389" s="3"/>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A390" s="9"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -12109,7 +12115,7 @@
       </c>
       <c r="R390" s="3"/>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A391" s="9"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -12134,7 +12140,7 @@
       </c>
       <c r="R391" s="3"/>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
         <v>275</v>
       </c>
@@ -12163,7 +12169,7 @@
       </c>
       <c r="R392" s="3"/>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="9"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -12190,7 +12196,7 @@
       </c>
       <c r="R393" s="3"/>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A394" s="9"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -12217,7 +12223,7 @@
       </c>
       <c r="R394" s="3"/>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A395" s="9"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -12244,7 +12250,7 @@
       </c>
       <c r="R395" s="3"/>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A396" s="9"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
@@ -12269,7 +12275,7 @@
       </c>
       <c r="R396" s="3"/>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A397" s="9"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -12294,7 +12300,7 @@
       </c>
       <c r="R397" s="3"/>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A398" s="9"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -12321,7 +12327,7 @@
       </c>
       <c r="R398" s="3"/>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A399" s="9"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -12346,7 +12352,7 @@
       </c>
       <c r="R399" s="3"/>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
         <v>279</v>
       </c>
@@ -12377,7 +12383,7 @@
       </c>
       <c r="R400" s="3"/>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A401" s="9"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -12404,7 +12410,7 @@
       </c>
       <c r="R401" s="3"/>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A402" s="9"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -12431,7 +12437,7 @@
       </c>
       <c r="R402" s="3"/>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="9"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -12458,7 +12464,7 @@
       </c>
       <c r="R403" s="3"/>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A404" s="9"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -12483,7 +12489,7 @@
       </c>
       <c r="R404" s="3"/>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A405" s="9"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -12508,7 +12514,7 @@
       </c>
       <c r="R405" s="3"/>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A406" s="9"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -12533,7 +12539,7 @@
       </c>
       <c r="R406" s="3"/>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="s">
         <v>281</v>
       </c>
@@ -12560,7 +12566,7 @@
       </c>
       <c r="R407" s="3"/>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A408" s="9"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -12585,7 +12591,7 @@
       </c>
       <c r="R408" s="3"/>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
         <v>282</v>
       </c>
@@ -12612,7 +12618,7 @@
       </c>
       <c r="R409" s="3"/>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="s">
         <v>283</v>
       </c>
@@ -12641,7 +12647,7 @@
       </c>
       <c r="R410" s="3"/>
     </row>
-    <row r="411" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="9"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -12668,7 +12674,7 @@
       </c>
       <c r="R411" s="3"/>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A412" s="9"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -12693,7 +12699,7 @@
       </c>
       <c r="R412" s="3"/>
     </row>
-    <row r="413" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="9"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -12720,7 +12726,7 @@
       </c>
       <c r="R413" s="3"/>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A414" s="9"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -12745,7 +12751,7 @@
       </c>
       <c r="R414" s="3"/>
     </row>
-    <row r="415" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="9"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -12772,7 +12778,7 @@
       </c>
       <c r="R415" s="3"/>
     </row>
-    <row r="416" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="9"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -12799,7 +12805,7 @@
       </c>
       <c r="R416" s="3"/>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="s">
         <v>285</v>
       </c>
@@ -12828,7 +12834,7 @@
       </c>
       <c r="R417" s="3"/>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A418" s="9"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -12855,7 +12861,7 @@
       </c>
       <c r="R418" s="3"/>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A419" s="9"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -12880,7 +12886,7 @@
       </c>
       <c r="R419" s="3"/>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A420" s="9"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -12907,7 +12913,7 @@
       </c>
       <c r="R420" s="3"/>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
         <v>289</v>
       </c>
@@ -12936,7 +12942,7 @@
       </c>
       <c r="R421" s="3"/>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A422" s="9"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -12963,7 +12969,7 @@
       </c>
       <c r="R422" s="3"/>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="s">
         <v>291</v>
       </c>
@@ -12990,7 +12996,7 @@
       </c>
       <c r="R423" s="3"/>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="s">
         <v>292</v>
       </c>
@@ -13019,7 +13025,7 @@
       </c>
       <c r="R424" s="3"/>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A425" s="9"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -13044,7 +13050,7 @@
       </c>
       <c r="R425" s="3"/>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
         <v>293</v>
       </c>
@@ -13073,7 +13079,7 @@
       </c>
       <c r="R426" s="3"/>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A427" s="9"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -13100,7 +13106,7 @@
       </c>
       <c r="R427" s="3"/>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A428" s="9"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -13127,7 +13133,7 @@
       </c>
       <c r="R428" s="3"/>
     </row>
-    <row r="429" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="9"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -13154,7 +13160,7 @@
       </c>
       <c r="R429" s="3"/>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A430" s="9"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -13179,7 +13185,7 @@
       </c>
       <c r="R430" s="3"/>
     </row>
-    <row r="431" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="9"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -13206,7 +13212,7 @@
       </c>
       <c r="R431" s="3"/>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A432" s="9"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -13231,7 +13237,7 @@
       </c>
       <c r="R432" s="3"/>
     </row>
-    <row r="433" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A433" s="9"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -13258,7 +13264,7 @@
       </c>
       <c r="R433" s="3"/>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A434" s="9"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -13283,7 +13289,7 @@
       </c>
       <c r="R434" s="3"/>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
         <v>294</v>
       </c>
@@ -13312,7 +13318,7 @@
       </c>
       <c r="R435" s="3"/>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A436" s="9"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -13339,7 +13345,7 @@
       </c>
       <c r="R436" s="3"/>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A437" s="9"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -13366,7 +13372,7 @@
       </c>
       <c r="R437" s="3"/>
     </row>
-    <row r="438" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A438" s="9"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -13393,7 +13399,7 @@
       </c>
       <c r="R438" s="3"/>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A439" s="9"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -13418,7 +13424,7 @@
       </c>
       <c r="R439" s="3"/>
     </row>
-    <row r="440" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="9"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -13445,7 +13451,7 @@
       </c>
       <c r="R440" s="3"/>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A441" s="9"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -13470,7 +13476,7 @@
       </c>
       <c r="R441" s="3"/>
     </row>
-    <row r="442" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="9"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -13497,7 +13503,7 @@
       </c>
       <c r="R442" s="3"/>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A443" s="9"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -13522,7 +13528,7 @@
       </c>
       <c r="R443" s="3"/>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
         <v>295</v>
       </c>
@@ -13551,7 +13557,7 @@
       </c>
       <c r="R444" s="3"/>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A445" s="9"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -13576,7 +13582,7 @@
       </c>
       <c r="R445" s="3"/>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A446" s="9"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -13603,7 +13609,7 @@
       </c>
       <c r="R446" s="3"/>
     </row>
-    <row r="447" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="9"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -13630,7 +13636,7 @@
       </c>
       <c r="R447" s="3"/>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A448" s="9"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
@@ -13655,7 +13661,7 @@
       </c>
       <c r="R448" s="3"/>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A449" s="9"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -13680,7 +13686,7 @@
       </c>
       <c r="R449" s="3"/>
     </row>
-    <row r="450" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A450" s="9"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -13707,7 +13713,7 @@
       </c>
       <c r="R450" s="3"/>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
         <v>296</v>
       </c>
@@ -13736,7 +13742,7 @@
       </c>
       <c r="R451" s="3"/>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A452" s="9"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -13761,7 +13767,7 @@
       </c>
       <c r="R452" s="3"/>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A453" s="9"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -13788,7 +13794,7 @@
       </c>
       <c r="R453" s="3"/>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A454" s="9"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -13815,7 +13821,7 @@
       </c>
       <c r="R454" s="3"/>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A455" s="9"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -13840,7 +13846,7 @@
       </c>
       <c r="R455" s="3"/>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A456" s="9"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -13865,7 +13871,7 @@
       </c>
       <c r="R456" s="3"/>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A457" s="9"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -13892,7 +13898,7 @@
       </c>
       <c r="R457" s="3"/>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
         <v>297</v>
       </c>
@@ -13921,7 +13927,7 @@
       </c>
       <c r="R458" s="3"/>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A459" s="9"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -13946,7 +13952,7 @@
       </c>
       <c r="R459" s="3"/>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A460" s="9"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -13973,7 +13979,7 @@
       </c>
       <c r="R460" s="3"/>
     </row>
-    <row r="461" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A461" s="9"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -14000,7 +14006,7 @@
       </c>
       <c r="R461" s="3"/>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A462" s="9"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -14025,7 +14031,7 @@
       </c>
       <c r="R462" s="3"/>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A463" s="9"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -14050,7 +14056,7 @@
       </c>
       <c r="R463" s="3"/>
     </row>
-    <row r="464" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="9"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -14077,7 +14083,7 @@
       </c>
       <c r="R464" s="3"/>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
         <v>299</v>
       </c>
@@ -14106,7 +14112,7 @@
       </c>
       <c r="R465" s="3"/>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A466" s="9"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
@@ -14131,7 +14137,7 @@
       </c>
       <c r="R466" s="3"/>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A467" s="9"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -14158,7 +14164,7 @@
       </c>
       <c r="R467" s="3"/>
     </row>
-    <row r="468" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="9"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -14185,7 +14191,7 @@
       </c>
       <c r="R468" s="3"/>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A469" s="9"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -14210,7 +14216,7 @@
       </c>
       <c r="R469" s="3"/>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A470" s="9"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -14235,7 +14241,7 @@
       </c>
       <c r="R470" s="3"/>
     </row>
-    <row r="471" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A471" s="9"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -14262,7 +14268,7 @@
       </c>
       <c r="R471" s="3"/>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="s">
         <v>301</v>
       </c>
@@ -14291,7 +14297,7 @@
       </c>
       <c r="R472" s="3"/>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A473" s="9"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -14316,7 +14322,7 @@
       </c>
       <c r="R473" s="3"/>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A474" s="9"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -14343,7 +14349,7 @@
       </c>
       <c r="R474" s="3"/>
     </row>
-    <row r="475" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A475" s="9"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -14370,7 +14376,7 @@
       </c>
       <c r="R475" s="3"/>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A476" s="9"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -14395,7 +14401,7 @@
       </c>
       <c r="R476" s="3"/>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A477" s="9"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -14420,7 +14426,7 @@
       </c>
       <c r="R477" s="3"/>
     </row>
-    <row r="478" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A478" s="9"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -14447,7 +14453,7 @@
       </c>
       <c r="R478" s="3"/>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A479" s="9" t="s">
         <v>303</v>
       </c>
@@ -14476,7 +14482,7 @@
       </c>
       <c r="R479" s="3"/>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A480" s="9"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -14501,7 +14507,7 @@
       </c>
       <c r="R480" s="3"/>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A481" s="9"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -14528,7 +14534,7 @@
       </c>
       <c r="R481" s="3"/>
     </row>
-    <row r="482" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A482" s="9"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -14555,7 +14561,7 @@
       </c>
       <c r="R482" s="3"/>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A483" s="9"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -14580,7 +14586,7 @@
       </c>
       <c r="R483" s="3"/>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A484" s="9"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -14605,7 +14611,7 @@
       </c>
       <c r="R484" s="3"/>
     </row>
-    <row r="485" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A485" s="9"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -14632,7 +14638,7 @@
       </c>
       <c r="R485" s="3"/>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
         <v>304</v>
       </c>
@@ -14661,7 +14667,7 @@
       </c>
       <c r="R486" s="3"/>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A487" s="9"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -14686,7 +14692,7 @@
       </c>
       <c r="R487" s="3"/>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A488" s="9"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
@@ -14713,7 +14719,7 @@
       </c>
       <c r="R488" s="3"/>
     </row>
-    <row r="489" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A489" s="9"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -14740,7 +14746,7 @@
       </c>
       <c r="R489" s="3"/>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A490" s="9"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
@@ -14765,7 +14771,7 @@
       </c>
       <c r="R490" s="3"/>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A491" s="9"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -14790,7 +14796,7 @@
       </c>
       <c r="R491" s="3"/>
     </row>
-    <row r="492" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A492" s="9"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
@@ -14817,7 +14823,7 @@
       </c>
       <c r="R492" s="3"/>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A493" s="9" t="s">
         <v>306</v>
       </c>
@@ -14846,7 +14852,7 @@
       </c>
       <c r="R493" s="3"/>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A494" s="9"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
@@ -14871,7 +14877,7 @@
       </c>
       <c r="R494" s="3"/>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A495" s="9"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -14898,7 +14904,7 @@
       </c>
       <c r="R495" s="3"/>
     </row>
-    <row r="496" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A496" s="9"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
@@ -14925,7 +14931,7 @@
       </c>
       <c r="R496" s="3"/>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A497" s="9"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -14950,7 +14956,7 @@
       </c>
       <c r="R497" s="3"/>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A498" s="9"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
@@ -14975,7 +14981,7 @@
       </c>
       <c r="R498" s="3"/>
     </row>
-    <row r="499" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="9"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -15002,7 +15008,7 @@
       </c>
       <c r="R499" s="3"/>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A500" s="9" t="s">
         <v>307</v>
       </c>
@@ -15031,7 +15037,7 @@
       </c>
       <c r="R500" s="3"/>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A501" s="9"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
@@ -15056,7 +15062,7 @@
       </c>
       <c r="R501" s="3"/>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A502" s="9"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
@@ -15083,7 +15089,7 @@
       </c>
       <c r="R502" s="3"/>
     </row>
-    <row r="503" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" s="9"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -15110,7 +15116,7 @@
       </c>
       <c r="R503" s="3"/>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A504" s="9"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
@@ -15135,7 +15141,7 @@
       </c>
       <c r="R504" s="3"/>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A505" s="9"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -15160,7 +15166,7 @@
       </c>
       <c r="R505" s="3"/>
     </row>
-    <row r="506" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A506" s="9"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
@@ -15187,7 +15193,7 @@
       </c>
       <c r="R506" s="3"/>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A507" s="9" t="s">
         <v>308</v>
       </c>
@@ -15216,7 +15222,7 @@
       </c>
       <c r="R507" s="3"/>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A508" s="9"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
@@ -15241,7 +15247,7 @@
       </c>
       <c r="R508" s="3"/>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A509" s="9"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -15268,7 +15274,7 @@
       </c>
       <c r="R509" s="3"/>
     </row>
-    <row r="510" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A510" s="9"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
@@ -15295,7 +15301,7 @@
       </c>
       <c r="R510" s="3"/>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A511" s="9"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -15320,7 +15326,7 @@
       </c>
       <c r="R511" s="3"/>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A512" s="9"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -15345,7 +15351,7 @@
       </c>
       <c r="R512" s="3"/>
     </row>
-    <row r="513" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A513" s="9"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
@@ -15372,7 +15378,7 @@
       </c>
       <c r="R513" s="3"/>
     </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A514" s="9" t="s">
         <v>309</v>
       </c>
@@ -15401,7 +15407,7 @@
       </c>
       <c r="R514" s="3"/>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A515" s="9"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -15426,7 +15432,7 @@
       </c>
       <c r="R515" s="3"/>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A516" s="9"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
@@ -15453,7 +15459,7 @@
       </c>
       <c r="R516" s="3"/>
     </row>
-    <row r="517" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" s="9"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -15480,7 +15486,7 @@
       </c>
       <c r="R517" s="3"/>
     </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A518" s="9"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
@@ -15505,7 +15511,7 @@
       </c>
       <c r="R518" s="3"/>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A519" s="9"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -15530,7 +15536,7 @@
       </c>
       <c r="R519" s="3"/>
     </row>
-    <row r="520" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A520" s="9"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
@@ -15557,7 +15563,7 @@
       </c>
       <c r="R520" s="3"/>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A521" s="9" t="s">
         <v>310</v>
       </c>
@@ -15586,7 +15592,7 @@
       </c>
       <c r="R521" s="3"/>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A522" s="9"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
@@ -15611,7 +15617,7 @@
       </c>
       <c r="R522" s="3"/>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A523" s="9" t="s">
         <v>311</v>
       </c>
@@ -15640,7 +15646,7 @@
       </c>
       <c r="R523" s="3"/>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A524" s="9"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
@@ -15667,7 +15673,7 @@
       </c>
       <c r="R524" s="3"/>
     </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A525" s="9"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
@@ -15694,7 +15700,7 @@
       </c>
       <c r="R525" s="3"/>
     </row>
-    <row r="526" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A526" s="9"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
@@ -15721,7 +15727,7 @@
       </c>
       <c r="R526" s="3"/>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A527" s="9"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
@@ -15746,7 +15752,7 @@
       </c>
       <c r="R527" s="3"/>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A528" s="9"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
@@ -15771,7 +15777,7 @@
       </c>
       <c r="R528" s="3"/>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A529" s="9"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
@@ -15796,7 +15802,7 @@
       </c>
       <c r="R529" s="3"/>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A530" s="9" t="s">
         <v>312</v>
       </c>
@@ -15827,7 +15833,7 @@
       </c>
       <c r="R530" s="3"/>
     </row>
-    <row r="531" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A531" s="9"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
@@ -15854,7 +15860,7 @@
       </c>
       <c r="R531" s="3"/>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A532" s="9"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
@@ -15879,7 +15885,7 @@
       </c>
       <c r="R532" s="3"/>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A533" s="9"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
@@ -15903,7 +15909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A534" s="9"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
@@ -15927,7 +15933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A535" s="9"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
@@ -15951,7 +15957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A536" s="9"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
@@ -15977,7 +15983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A537" s="9"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
@@ -16001,7 +16007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A538" s="9" t="s">
         <v>315</v>
       </c>
@@ -16029,7 +16035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A539" s="9"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
@@ -16053,7 +16059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A540" s="9"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
@@ -16079,7 +16085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="541" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A541" s="9"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
@@ -16105,7 +16111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A542" s="9"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
@@ -16129,7 +16135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A543" s="9"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
@@ -16153,7 +16159,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="544" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A544" s="9"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>

--- a/KGS/KGS.xlsx
+++ b/KGS/KGS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects\AlexGit\dotfiles\KGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D846D8B-E665-4402-A6A5-DE081381FC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4059BDFA-4D1D-4717-B55E-DFC1FB5474A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D273C349-3FD2-4362-B0B1-9863D35FF8F5}"/>
+    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15840" xr2:uid="{D273C349-3FD2-4362-B0B1-9863D35FF8F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="326">
   <si>
     <t>Interesting shit</t>
   </si>
@@ -1178,6 +1178,18 @@
   </si>
   <si>
     <t>Steffen</t>
+  </si>
+  <si>
+    <t>Sophos</t>
+  </si>
+  <si>
+    <t>TKS Grundschule</t>
+  </si>
+  <si>
+    <t>PW: 12345678</t>
+  </si>
+  <si>
+    <t>PW: admin00</t>
   </si>
 </sst>
 </file>
@@ -1727,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D700B811-19C1-4D29-9B56-CDF0AB18693E}">
   <dimension ref="A1:W544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R381" activeCellId="1" sqref="P393 R381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6559,7 +6571,9 @@
       <c r="A184" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B184" s="9"/>
+      <c r="B184" s="9" t="s">
+        <v>322</v>
+      </c>
       <c r="C184" s="9"/>
       <c r="D184" s="9">
         <v>53</v>
@@ -7120,6 +7134,9 @@
       <c r="F204" s="11" t="s">
         <v>216</v>
       </c>
+      <c r="G204" s="12" t="s">
+        <v>323</v>
+      </c>
       <c r="H204" s="2">
         <v>172</v>
       </c>
@@ -12369,6 +12386,9 @@
       <c r="F400" s="11" t="s">
         <v>280</v>
       </c>
+      <c r="G400" s="12" t="s">
+        <v>325</v>
+      </c>
       <c r="H400" s="2">
         <v>172</v>
       </c>
@@ -15818,6 +15838,9 @@
       </c>
       <c r="F530" s="11" t="s">
         <v>12</v>
+      </c>
+      <c r="G530" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="H530" s="2">
         <v>172</v>

--- a/KGS/KGS.xlsx
+++ b/KGS/KGS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects\AlexGit\dotfiles\KGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4059BDFA-4D1D-4717-B55E-DFC1FB5474A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15307889-B25E-4AF0-9652-DED29827DB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15840" xr2:uid="{D273C349-3FD2-4362-B0B1-9863D35FF8F5}"/>
+    <workbookView xWindow="-13230" yWindow="4620" windowWidth="21600" windowHeight="11385" xr2:uid="{D273C349-3FD2-4362-B0B1-9863D35FF8F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="328">
   <si>
     <t>Interesting shit</t>
   </si>
@@ -1171,9 +1171,6 @@
     </r>
   </si>
   <si>
-    <t>DOKUMENTLÖSCHUNG DEAKTIVIERT</t>
-  </si>
-  <si>
     <t>Konica Minolta Drucker</t>
   </si>
   <si>
@@ -1190,6 +1187,15 @@
   </si>
   <si>
     <t>PW: admin00</t>
+  </si>
+  <si>
+    <t>Elly-Heuss-Knapp</t>
+  </si>
+  <si>
+    <t>Benutzer: Admin PW: Admin</t>
+  </si>
+  <si>
+    <t>user: fwadmin pw: filewave</t>
   </si>
 </sst>
 </file>
@@ -1739,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D700B811-19C1-4D29-9B56-CDF0AB18693E}">
   <dimension ref="A1:W544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R381" activeCellId="1" sqref="P393 R381"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,6 +2106,9 @@
       <c r="F13" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="G13" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="H13" s="2">
         <v>172</v>
       </c>
@@ -4240,7 +4249,7 @@
         <v>134</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H94" s="2">
         <v>172</v>
@@ -6338,8 +6347,8 @@
         <v>34</v>
       </c>
       <c r="F175" s="11"/>
-      <c r="G175" s="34" t="s">
-        <v>319</v>
+      <c r="G175" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="H175" s="2">
         <v>172</v>
@@ -6572,7 +6581,7 @@
         <v>201</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C184" s="9"/>
       <c r="D184" s="9">
@@ -7135,7 +7144,7 @@
         <v>216</v>
       </c>
       <c r="G204" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H204" s="2">
         <v>172</v>
@@ -11791,7 +11800,9 @@
       <c r="A378" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B378" s="9"/>
+      <c r="B378" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="C378" s="9"/>
       <c r="D378" s="9">
         <v>21</v>
@@ -12387,7 +12398,7 @@
         <v>280</v>
       </c>
       <c r="G400" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H400" s="2">
         <v>172</v>
@@ -15827,7 +15838,7 @@
         <v>312</v>
       </c>
       <c r="B530" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C530" s="9"/>
       <c r="D530" s="9">
@@ -15840,7 +15851,7 @@
         <v>12</v>
       </c>
       <c r="G530" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H530" s="2">
         <v>172</v>
